--- a/ImportAids/FPDSstage1updateTool.xlsx
+++ b/ImportAids/FPDSstage1updateTool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\Greg\Repositories\Lookup-Tables\ImportAids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC123698-2A14-4700-84C8-6E2930989203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{3BE36238-3FD1-42DB-A39B-E4796AF3D457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="298">
   <si>
     <t>SET ANSI_NULLS ON</t>
   </si>
@@ -911,6 +911,9 @@
   </si>
   <si>
     <t>ALTER TABLE [ErrorLogging].[FPDSstage1] ADD  CONSTRAINT [DF__FPDSbetaV__CSISc__709F6364]  DEFAULT (getdate()) FOR [CSIScreatedDate]</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -1751,44 +1754,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C301"/>
+  <dimension ref="A1:G301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G19" sqref="G7:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.85546875" customWidth="1"/>
     <col min="2" max="2" width="90.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="68.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -1796,8 +1800,15 @@
         <f>LEFT(RIGHT(B6,10),3)</f>
         <v>255</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="str">
+        <f>IF(C6&lt;&gt;"255",B6,"")</f>
+        <v/>
+      </c>
+      <c r="G6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -1805,8 +1816,15 @@
         <f t="shared" ref="C7:C70" si="0">LEFT(RIGHT(B7,10),3)</f>
         <v>255</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="str">
+        <f t="shared" ref="D7:D70" si="1">IF(C7&lt;&gt;"255",B7,"")</f>
+        <v/>
+      </c>
+      <c r="G7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -1814,8 +1832,15 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -1823,8 +1848,15 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -1832,8 +1864,15 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>9</v>
       </c>
@@ -1841,8 +1880,15 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>10</v>
       </c>
@@ -1850,8 +1896,15 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>11</v>
       </c>
@@ -1859,8 +1912,15 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G13" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>12</v>
       </c>
@@ -1868,8 +1928,15 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G14" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>13</v>
       </c>
@@ -1877,8 +1944,15 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G15" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>14</v>
       </c>
@@ -1886,8 +1960,15 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G16" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>15</v>
       </c>
@@ -1895,8 +1976,15 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G17" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>16</v>
       </c>
@@ -1904,8 +1992,15 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G18" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>17</v>
       </c>
@@ -1913,8 +2008,15 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G19" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>18</v>
       </c>
@@ -1922,8 +2024,12 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>19</v>
       </c>
@@ -1931,8 +2037,12 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>20</v>
       </c>
@@ -1940,8 +2050,12 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>21</v>
       </c>
@@ -1949,8 +2063,12 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>22</v>
       </c>
@@ -1958,8 +2076,12 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>23</v>
       </c>
@@ -1967,8 +2089,12 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D25" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>24</v>
       </c>
@@ -1976,8 +2102,12 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>25</v>
       </c>
@@ -1985,8 +2115,12 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D27" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>26</v>
       </c>
@@ -1994,8 +2128,12 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>27</v>
       </c>
@@ -2003,8 +2141,12 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D29" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>28</v>
       </c>
@@ -2012,8 +2154,12 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>29</v>
       </c>
@@ -2021,8 +2167,12 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>30</v>
       </c>
@@ -2030,8 +2180,12 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>31</v>
       </c>
@@ -2039,8 +2193,12 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>32</v>
       </c>
@@ -2048,8 +2206,12 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D34" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>33</v>
       </c>
@@ -2057,8 +2219,12 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>34</v>
       </c>
@@ -2066,8 +2232,12 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D36" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>35</v>
       </c>
@@ -2075,8 +2245,12 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D37" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>36</v>
       </c>
@@ -2084,8 +2258,12 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D38" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>37</v>
       </c>
@@ -2093,8 +2271,12 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D39" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>38</v>
       </c>
@@ -2102,8 +2284,12 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D40" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>39</v>
       </c>
@@ -2111,8 +2297,12 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>40</v>
       </c>
@@ -2120,8 +2310,12 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D42" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>41</v>
       </c>
@@ -2129,8 +2323,12 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D43" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>42</v>
       </c>
@@ -2138,8 +2336,12 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D44" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>43</v>
       </c>
@@ -2147,8 +2349,12 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D45" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>44</v>
       </c>
@@ -2156,8 +2362,12 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>45</v>
       </c>
@@ -2165,8 +2375,12 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D47" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>46</v>
       </c>
@@ -2174,8 +2388,12 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D48" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>47</v>
       </c>
@@ -2183,8 +2401,12 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D49" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>48</v>
       </c>
@@ -2192,8 +2414,12 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D50" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>49</v>
       </c>
@@ -2201,8 +2427,12 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D51" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>50</v>
       </c>
@@ -2210,8 +2440,12 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D52" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>51</v>
       </c>
@@ -2219,8 +2453,12 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D53" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>52</v>
       </c>
@@ -2228,8 +2466,12 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D54" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>53</v>
       </c>
@@ -2237,8 +2479,12 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D55" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>54</v>
       </c>
@@ -2246,8 +2492,12 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D56" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>55</v>
       </c>
@@ -2255,8 +2505,12 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D57" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>56</v>
       </c>
@@ -2264,8 +2518,12 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D58" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>57</v>
       </c>
@@ -2273,8 +2531,12 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D59" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>58</v>
       </c>
@@ -2282,8 +2544,12 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D60" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>59</v>
       </c>
@@ -2291,8 +2557,12 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D61" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>60</v>
       </c>
@@ -2300,8 +2570,12 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D62" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>61</v>
       </c>
@@ -2309,8 +2583,12 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D63" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>62</v>
       </c>
@@ -2318,8 +2596,12 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D64" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>63</v>
       </c>
@@ -2327,8 +2609,12 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D65" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>64</v>
       </c>
@@ -2336,8 +2622,12 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D66" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>65</v>
       </c>
@@ -2345,8 +2635,12 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D67" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>66</v>
       </c>
@@ -2354,8 +2648,12 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D68" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>67</v>
       </c>
@@ -2363,8 +2661,12 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D69" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>68</v>
       </c>
@@ -2372,2063 +2674,2968 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D70" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>69</v>
       </c>
       <c r="C71" t="str">
-        <f t="shared" ref="C71:C134" si="1">LEFT(RIGHT(B71,10),3)</f>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C71:C134" si="2">LEFT(RIGHT(B71,10),3)</f>
+        <v>255</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" ref="D71:D134" si="3">IF(C71&lt;&gt;"255",B71,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>70</v>
       </c>
       <c r="C72" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>008</v>
       </c>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D72" t="str">
+        <f t="shared" si="3"/>
+        <v>[award_description] [varchar](4008) NULL,</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>71</v>
       </c>
       <c r="C73" t="str">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>72</v>
       </c>
       <c r="C74" t="str">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>73</v>
       </c>
       <c r="C75" t="str">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>74</v>
       </c>
       <c r="C76" t="str">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>75</v>
       </c>
       <c r="C77" t="str">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="D77" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>76</v>
       </c>
       <c r="C78" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>512</v>
       </c>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D78" t="str">
+        <f t="shared" si="3"/>
+        <v>[product_or_service_code_description] [varchar](512) NULL,</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>77</v>
       </c>
       <c r="C79" t="str">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>78</v>
       </c>
       <c r="C80" t="str">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>79</v>
       </c>
       <c r="C81" t="str">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>80</v>
       </c>
       <c r="C82" t="str">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>81</v>
       </c>
       <c r="C83" t="str">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>82</v>
       </c>
       <c r="C84" t="str">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="D84" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>83</v>
       </c>
       <c r="C85" t="str">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="D85" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>84</v>
       </c>
       <c r="C86" t="str">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="D86" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>85</v>
       </c>
       <c r="C87" t="str">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="D87" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>86</v>
       </c>
       <c r="C88" t="str">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="D88" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>87</v>
       </c>
       <c r="C89" t="str">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="D89" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>88</v>
       </c>
       <c r="C90" t="str">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="D90" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>89</v>
       </c>
       <c r="C91" t="str">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="D91" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>90</v>
       </c>
       <c r="C92" t="str">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="D92" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>91</v>
       </c>
       <c r="C93" t="str">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="D93" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>92</v>
       </c>
       <c r="C94" t="str">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="D94" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>93</v>
       </c>
       <c r="C95" t="str">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="D95" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>94</v>
       </c>
       <c r="C96" t="str">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="D96" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>95</v>
       </c>
       <c r="C97" t="str">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="D97" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>96</v>
       </c>
       <c r="C98" t="str">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="D98" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>97</v>
       </c>
       <c r="C99" t="str">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="D99" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>98</v>
       </c>
       <c r="C100" t="str">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="D100" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>99</v>
       </c>
       <c r="C101" t="str">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="D101" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>100</v>
       </c>
       <c r="C102" t="str">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="D102" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>101</v>
       </c>
       <c r="C103" t="str">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="D103" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>102</v>
       </c>
       <c r="C104" t="str">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="D104" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>103</v>
       </c>
       <c r="C105" t="str">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="D105" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>104</v>
       </c>
       <c r="C106" t="str">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="D106" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>105</v>
       </c>
       <c r="C107" t="str">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="D107" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>106</v>
       </c>
       <c r="C108" t="str">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="D108" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>107</v>
       </c>
       <c r="C109" t="str">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="D109" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>108</v>
       </c>
       <c r="C110" t="str">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="D110" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>109</v>
       </c>
       <c r="C111" t="str">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="D111" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>110</v>
       </c>
       <c r="C112" t="str">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="D112" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>111</v>
       </c>
       <c r="C113" t="str">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="D113" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>112</v>
       </c>
       <c r="C114" t="str">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="D114" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>113</v>
       </c>
       <c r="C115" t="str">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="D115" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>114</v>
       </c>
       <c r="C116" t="str">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="D116" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>115</v>
       </c>
       <c r="C117" t="str">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="D117" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>116</v>
       </c>
       <c r="C118" t="str">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="D118" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>117</v>
       </c>
       <c r="C119" t="str">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="D119" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>118</v>
       </c>
       <c r="C120" t="str">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="D120" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>119</v>
       </c>
       <c r="C121" t="str">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="D121" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>120</v>
       </c>
       <c r="C122" t="str">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="D122" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>121</v>
       </c>
       <c r="C123" t="str">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="D123" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>122</v>
       </c>
       <c r="C124" t="str">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="D124" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>123</v>
       </c>
       <c r="C125" t="str">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="D125" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>124</v>
       </c>
       <c r="C126" t="str">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="D126" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>125</v>
       </c>
       <c r="C127" t="str">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="D127" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>126</v>
       </c>
       <c r="C128" t="str">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="D128" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>127</v>
       </c>
       <c r="C129" t="str">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="D129" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>128</v>
       </c>
       <c r="C130" t="str">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="D130" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>129</v>
       </c>
       <c r="C131" t="str">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="D131" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>130</v>
       </c>
       <c r="C132" t="str">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="D132" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>131</v>
       </c>
       <c r="C133" t="str">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="D133" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>132</v>
       </c>
       <c r="C134" t="str">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="D134" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>133</v>
       </c>
       <c r="C135" t="str">
-        <f t="shared" ref="C135:C198" si="2">LEFT(RIGHT(B135,10),3)</f>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C135:C198" si="4">LEFT(RIGHT(B135,10),3)</f>
+        <v>255</v>
+      </c>
+      <c r="D135" t="str">
+        <f t="shared" ref="D135:D198" si="5">IF(C135&lt;&gt;"255",B135,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>134</v>
       </c>
       <c r="C136" t="str">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="D136" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>135</v>
       </c>
       <c r="C137" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>000</v>
       </c>
-    </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D137" t="str">
+        <f t="shared" si="5"/>
+        <v>[other_statutory_authority] [varchar](4000) NULL,</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>136</v>
       </c>
       <c r="C138" t="str">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="D138" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>137</v>
       </c>
       <c r="C139" t="str">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="D139" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>138</v>
       </c>
       <c r="C140" t="str">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="D140" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>139</v>
       </c>
       <c r="C141" t="str">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="D141" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>140</v>
       </c>
       <c r="C142" t="str">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="D142" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>141</v>
       </c>
       <c r="C143" t="str">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="D143" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>142</v>
       </c>
       <c r="C144" t="str">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="D144" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>143</v>
       </c>
       <c r="C145" t="str">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="D145" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>144</v>
       </c>
       <c r="C146" t="str">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="D146" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>145</v>
       </c>
       <c r="C147" t="str">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="D147" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>146</v>
       </c>
       <c r="C148" t="str">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="D148" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>147</v>
       </c>
       <c r="C149" t="str">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="D149" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>148</v>
       </c>
       <c r="C150" t="str">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="D150" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>149</v>
       </c>
       <c r="C151" t="str">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="D151" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>150</v>
       </c>
       <c r="C152" t="str">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="D152" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>151</v>
       </c>
       <c r="C153" t="str">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="D153" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
         <v>152</v>
       </c>
       <c r="C154" t="str">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="D154" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>153</v>
       </c>
       <c r="C155" t="str">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="D155" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>154</v>
       </c>
       <c r="C156" t="str">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="D156" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>155</v>
       </c>
       <c r="C157" t="str">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="D157" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>156</v>
       </c>
       <c r="C158" t="str">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="D158" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>157</v>
       </c>
       <c r="C159" t="str">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="D159" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>158</v>
       </c>
       <c r="C160" t="str">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="D160" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
         <v>159</v>
       </c>
       <c r="C161" t="str">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="D161" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
         <v>160</v>
       </c>
       <c r="C162" t="str">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="D162" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
         <v>161</v>
       </c>
       <c r="C163" t="str">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="D163" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
         <v>162</v>
       </c>
       <c r="C164" t="str">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="D164" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>163</v>
       </c>
       <c r="C165" t="str">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="D165" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
         <v>164</v>
       </c>
       <c r="C166" t="str">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="D166" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
         <v>165</v>
       </c>
       <c r="C167" t="str">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="D167" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
         <v>166</v>
       </c>
       <c r="C168" t="str">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="D168" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
         <v>167</v>
       </c>
       <c r="C169" t="str">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="D169" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
         <v>168</v>
       </c>
       <c r="C170" t="str">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="D170" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
         <v>169</v>
       </c>
       <c r="C171" t="str">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="D171" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
         <v>170</v>
       </c>
       <c r="C172" t="str">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="D172" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
         <v>171</v>
       </c>
       <c r="C173" t="str">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="D173" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
         <v>172</v>
       </c>
       <c r="C174" t="str">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="D174" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
         <v>173</v>
       </c>
       <c r="C175" t="str">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="D175" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
         <v>174</v>
       </c>
       <c r="C176" t="str">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="D176" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
         <v>175</v>
       </c>
       <c r="C177" t="str">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="D177" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
         <v>176</v>
       </c>
       <c r="C178" t="str">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="D178" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
         <v>177</v>
       </c>
       <c r="C179" t="str">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="D179" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
         <v>178</v>
       </c>
       <c r="C180" t="str">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="D180" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
         <v>179</v>
       </c>
       <c r="C181" t="str">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="D181" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
         <v>180</v>
       </c>
       <c r="C182" t="str">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="D182" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
         <v>181</v>
       </c>
       <c r="C183" t="str">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="D183" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
         <v>182</v>
       </c>
       <c r="C184" t="str">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="185" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="D184" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
         <v>183</v>
       </c>
       <c r="C185" t="str">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="186" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="D185" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
         <v>184</v>
       </c>
       <c r="C186" t="str">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="D186" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
         <v>185</v>
       </c>
       <c r="C187" t="str">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="188" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="D187" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
         <v>186</v>
       </c>
       <c r="C188" t="str">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="189" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="D188" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
         <v>187</v>
       </c>
       <c r="C189" t="str">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="190" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="D189" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
         <v>188</v>
       </c>
       <c r="C190" t="str">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="191" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="D190" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
         <v>189</v>
       </c>
       <c r="C191" t="str">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="192" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="D191" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
         <v>190</v>
       </c>
       <c r="C192" t="str">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="193" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="D192" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
         <v>191</v>
       </c>
       <c r="C193" t="str">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="194" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="D193" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
         <v>192</v>
       </c>
       <c r="C194" t="str">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="195" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="D194" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
         <v>193</v>
       </c>
       <c r="C195" t="str">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="196" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="D195" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
         <v>194</v>
       </c>
       <c r="C196" t="str">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="197" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="D196" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
         <v>195</v>
       </c>
       <c r="C197" t="str">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="198" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="D197" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
         <v>196</v>
       </c>
       <c r="C198" t="str">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="199" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="D198" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
         <v>197</v>
       </c>
       <c r="C199" t="str">
-        <f t="shared" ref="C199:C262" si="3">LEFT(RIGHT(B199,10),3)</f>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="200" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C199:C262" si="6">LEFT(RIGHT(B199,10),3)</f>
+        <v>255</v>
+      </c>
+      <c r="D199" t="str">
+        <f t="shared" ref="D199:D262" si="7">IF(C199&lt;&gt;"255",B199,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
         <v>198</v>
       </c>
       <c r="C200" t="str">
-        <f t="shared" si="3"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="201" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="D200" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
         <v>199</v>
       </c>
       <c r="C201" t="str">
-        <f t="shared" si="3"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="202" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="D201" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
         <v>200</v>
       </c>
       <c r="C202" t="str">
-        <f t="shared" si="3"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="203" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="D202" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
         <v>201</v>
       </c>
       <c r="C203" t="str">
-        <f t="shared" si="3"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="204" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="D203" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
         <v>202</v>
       </c>
       <c r="C204" t="str">
-        <f t="shared" si="3"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="205" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="D204" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
         <v>203</v>
       </c>
       <c r="C205" t="str">
-        <f t="shared" si="3"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="206" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="D205" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
         <v>204</v>
       </c>
       <c r="C206" t="str">
-        <f t="shared" si="3"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="207" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="D206" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="207" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
         <v>205</v>
       </c>
       <c r="C207" t="str">
-        <f t="shared" si="3"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="208" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="D207" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="208" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
         <v>206</v>
       </c>
       <c r="C208" t="str">
-        <f t="shared" si="3"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="209" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="D208" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
         <v>207</v>
       </c>
       <c r="C209" t="str">
-        <f t="shared" si="3"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="210" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="D209" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="210" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
         <v>208</v>
       </c>
       <c r="C210" t="str">
-        <f t="shared" si="3"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="211" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="D210" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
         <v>209</v>
       </c>
       <c r="C211" t="str">
-        <f t="shared" si="3"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="212" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="D211" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="212" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
         <v>210</v>
       </c>
       <c r="C212" t="str">
-        <f t="shared" si="3"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="213" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="D212" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
         <v>211</v>
       </c>
       <c r="C213" t="str">
-        <f t="shared" si="3"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="D213" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="214" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
         <v>212</v>
       </c>
       <c r="C214" t="str">
-        <f t="shared" si="3"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="D214" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
         <v>213</v>
       </c>
       <c r="C215" t="str">
-        <f t="shared" si="3"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="216" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="D215" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
         <v>214</v>
       </c>
       <c r="C216" t="str">
-        <f t="shared" si="3"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="217" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="D216" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="217" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
         <v>215</v>
       </c>
       <c r="C217" t="str">
-        <f t="shared" si="3"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="218" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="D217" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="218" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
         <v>216</v>
       </c>
       <c r="C218" t="str">
-        <f t="shared" si="3"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="219" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="D218" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="219" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
         <v>217</v>
       </c>
       <c r="C219" t="str">
-        <f t="shared" si="3"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="220" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="D219" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
         <v>218</v>
       </c>
       <c r="C220" t="str">
-        <f t="shared" si="3"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="221" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="D220" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="221" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
         <v>219</v>
       </c>
       <c r="C221" t="str">
-        <f t="shared" si="3"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="222" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="D221" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="222" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
         <v>220</v>
       </c>
       <c r="C222" t="str">
-        <f t="shared" si="3"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="223" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="D222" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="223" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
         <v>221</v>
       </c>
       <c r="C223" t="str">
-        <f t="shared" si="3"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="224" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="D223" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="224" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
         <v>222</v>
       </c>
       <c r="C224" t="str">
-        <f t="shared" si="3"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="225" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="D224" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="225" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
         <v>223</v>
       </c>
       <c r="C225" t="str">
-        <f t="shared" si="3"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="226" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="D225" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="226" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
         <v>224</v>
       </c>
       <c r="C226" t="str">
-        <f t="shared" si="3"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="227" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="D226" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="227" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
         <v>225</v>
       </c>
       <c r="C227" t="str">
-        <f t="shared" si="3"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="228" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="D227" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="228" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
         <v>226</v>
       </c>
       <c r="C228" t="str">
-        <f t="shared" si="3"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="229" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="D228" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="229" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
         <v>227</v>
       </c>
       <c r="C229" t="str">
-        <f t="shared" si="3"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="230" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="D229" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="230" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
         <v>228</v>
       </c>
       <c r="C230" t="str">
-        <f t="shared" si="3"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="231" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="D230" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="231" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
         <v>229</v>
       </c>
       <c r="C231" t="str">
-        <f t="shared" si="3"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="232" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="D231" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="232" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B232" t="s">
         <v>230</v>
       </c>
       <c r="C232" t="str">
-        <f t="shared" si="3"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="233" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="D232" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="233" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
         <v>231</v>
       </c>
       <c r="C233" t="str">
-        <f t="shared" si="3"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="234" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="D233" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="234" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
         <v>232</v>
       </c>
       <c r="C234" t="str">
-        <f t="shared" si="3"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="235" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="D234" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="235" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B235" t="s">
         <v>233</v>
       </c>
       <c r="C235" t="str">
-        <f t="shared" si="3"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="236" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="D235" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="236" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
         <v>234</v>
       </c>
       <c r="C236" t="str">
-        <f t="shared" si="3"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="237" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="D236" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="237" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
         <v>235</v>
       </c>
       <c r="C237" t="str">
-        <f t="shared" si="3"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="238" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="D237" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="238" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
         <v>236</v>
       </c>
       <c r="C238" t="str">
-        <f t="shared" si="3"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="239" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="D238" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="239" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
         <v>237</v>
       </c>
       <c r="C239" t="str">
-        <f t="shared" si="3"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="240" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="D239" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="240" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
         <v>238</v>
       </c>
       <c r="C240" t="str">
-        <f t="shared" si="3"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="241" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="D240" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="241" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
         <v>239</v>
       </c>
       <c r="C241" t="str">
-        <f t="shared" si="3"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="242" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="D241" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="242" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B242" t="s">
         <v>240</v>
       </c>
       <c r="C242" t="str">
-        <f t="shared" si="3"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="243" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="D242" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="243" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
         <v>241</v>
       </c>
       <c r="C243" t="str">
-        <f t="shared" si="3"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="244" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="D243" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
         <v>242</v>
       </c>
       <c r="C244" t="str">
-        <f t="shared" si="3"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="245" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="D244" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="245" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
         <v>243</v>
       </c>
       <c r="C245" t="str">
-        <f t="shared" si="3"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="246" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="D245" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="246" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
         <v>244</v>
       </c>
       <c r="C246" t="str">
-        <f t="shared" si="3"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="247" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="D246" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="247" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B247" t="s">
         <v>245</v>
       </c>
       <c r="C247" t="str">
-        <f t="shared" si="3"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="248" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="D247" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="248" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
         <v>246</v>
       </c>
       <c r="C248" t="str">
-        <f t="shared" si="3"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="249" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="D248" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="249" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B249" t="s">
         <v>247</v>
       </c>
       <c r="C249" t="str">
-        <f t="shared" si="3"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="250" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="D249" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="250" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B250" t="s">
         <v>248</v>
       </c>
       <c r="C250" t="str">
-        <f t="shared" si="3"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="251" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="D250" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="251" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B251" t="s">
         <v>249</v>
       </c>
       <c r="C251" t="str">
-        <f t="shared" si="3"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="252" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="D251" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="252" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B252" t="s">
         <v>250</v>
       </c>
       <c r="C252" t="str">
-        <f t="shared" si="3"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="253" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="D252" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="253" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
         <v>251</v>
       </c>
       <c r="C253" t="str">
-        <f t="shared" si="3"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="254" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="D253" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="254" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
         <v>252</v>
       </c>
       <c r="C254" t="str">
-        <f t="shared" si="3"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="255" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="D254" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="255" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
         <v>253</v>
       </c>
       <c r="C255" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> NO</v>
       </c>
-    </row>
-    <row r="256" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D255" t="str">
+        <f t="shared" si="7"/>
+        <v>[CSISmodifiedDate] [datetime2](7) NOT NULL,</v>
+      </c>
+    </row>
+    <row r="256" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B256" t="s">
         <v>254</v>
       </c>
       <c r="C256" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> NO</v>
       </c>
-    </row>
-    <row r="257" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D256" t="str">
+        <f t="shared" si="7"/>
+        <v>[CSIScreatedDate] [datetime2](7) NOT NULL,</v>
+      </c>
+    </row>
+    <row r="257" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B257" t="s">
         <v>255</v>
       </c>
       <c r="C257" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>bit</v>
       </c>
-    </row>
-    <row r="258" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D257" t="str">
+        <f t="shared" si="7"/>
+        <v>[IsDuplicateUTI] [bit] NULL,</v>
+      </c>
+    </row>
+    <row r="258" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B258" t="s">
         <v>256</v>
       </c>
       <c r="C258" t="str">
-        <f t="shared" si="3"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="259" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="D258" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="259" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B259" t="s">
         <v>257</v>
       </c>
       <c r="C259" t="str">
-        <f t="shared" si="3"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="260" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="D259" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="260" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
         <v>258</v>
       </c>
       <c r="C260" t="str">
-        <f t="shared" si="3"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="261" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="D260" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="261" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B261" t="s">
         <v>259</v>
       </c>
       <c r="C261" t="str">
-        <f t="shared" si="3"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="262" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="D261" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="262" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B262" t="s">
         <v>260</v>
       </c>
       <c r="C262" t="str">
-        <f t="shared" si="3"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="263" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="D262" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="263" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B263" t="s">
         <v>261</v>
       </c>
       <c r="C263" t="str">
-        <f t="shared" ref="C263:C295" si="4">LEFT(RIGHT(B263,10),3)</f>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="264" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C263:C295" si="8">LEFT(RIGHT(B263,10),3)</f>
+        <v>255</v>
+      </c>
+      <c r="D263" t="str">
+        <f t="shared" ref="D263:D295" si="9">IF(C263&lt;&gt;"255",B263,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="264" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B264" t="s">
         <v>262</v>
       </c>
       <c r="C264" t="str">
-        <f t="shared" si="4"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="265" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>255</v>
+      </c>
+      <c r="D264" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="265" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B265" t="s">
         <v>263</v>
       </c>
       <c r="C265" t="str">
-        <f t="shared" si="4"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="266" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>255</v>
+      </c>
+      <c r="D265" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="266" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B266" t="s">
         <v>264</v>
       </c>
       <c r="C266" t="str">
-        <f t="shared" si="4"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="267" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>255</v>
+      </c>
+      <c r="D266" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="267" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B267" t="s">
         <v>265</v>
       </c>
       <c r="C267" t="str">
-        <f t="shared" si="4"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="268" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>255</v>
+      </c>
+      <c r="D267" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="268" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
         <v>266</v>
       </c>
       <c r="C268" t="str">
-        <f t="shared" si="4"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="269" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>255</v>
+      </c>
+      <c r="D268" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="269" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B269" t="s">
         <v>267</v>
       </c>
       <c r="C269" t="str">
-        <f t="shared" si="4"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="270" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>255</v>
+      </c>
+      <c r="D269" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="270" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B270" t="s">
         <v>268</v>
       </c>
       <c r="C270" t="str">
-        <f t="shared" si="4"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="271" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>255</v>
+      </c>
+      <c r="D270" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="271" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B271" t="s">
         <v>269</v>
       </c>
       <c r="C271" t="str">
-        <f t="shared" si="4"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="272" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>255</v>
+      </c>
+      <c r="D271" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="272" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B272" t="s">
         <v>270</v>
       </c>
       <c r="C272" t="str">
-        <f t="shared" si="4"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="273" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>255</v>
+      </c>
+      <c r="D272" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="273" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
         <v>271</v>
       </c>
       <c r="C273" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>000</v>
       </c>
-    </row>
-    <row r="274" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D273" t="str">
+        <f t="shared" si="9"/>
+        <v>[treasury_accounts_funding_this_award] [varchar](4000) NULL,</v>
+      </c>
+    </row>
+    <row r="274" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
         <v>272</v>
       </c>
       <c r="C274" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>000</v>
       </c>
-    </row>
-    <row r="275" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D274" t="str">
+        <f t="shared" si="9"/>
+        <v>[federal_accounts_funding_this_award] [varchar](4000) NULL,</v>
+      </c>
+    </row>
+    <row r="275" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
         <v>273</v>
       </c>
       <c r="C275" t="str">
-        <f t="shared" si="4"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="276" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>255</v>
+      </c>
+      <c r="D275" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="276" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B276" t="s">
         <v>274</v>
       </c>
       <c r="C276" t="str">
-        <f t="shared" si="4"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="277" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>255</v>
+      </c>
+      <c r="D276" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="277" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B277" t="s">
         <v>275</v>
       </c>
       <c r="C277" t="str">
-        <f t="shared" si="4"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="278" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>255</v>
+      </c>
+      <c r="D277" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="278" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B278" t="s">
         <v>276</v>
       </c>
       <c r="C278" t="str">
-        <f t="shared" si="4"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="279" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>255</v>
+      </c>
+      <c r="D278" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="279" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B279" t="s">
         <v>277</v>
       </c>
       <c r="C279" t="str">
-        <f t="shared" si="4"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="280" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>255</v>
+      </c>
+      <c r="D279" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="280" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B280" t="s">
         <v>278</v>
       </c>
       <c r="C280" t="str">
-        <f t="shared" si="4"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="281" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>255</v>
+      </c>
+      <c r="D280" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="281" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B281" t="s">
         <v>279</v>
       </c>
       <c r="C281" t="str">
-        <f t="shared" si="4"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="282" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>255</v>
+      </c>
+      <c r="D281" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="282" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B282" t="s">
         <v>280</v>
       </c>
       <c r="C282" t="str">
-        <f t="shared" si="4"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="283" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>255</v>
+      </c>
+      <c r="D282" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="283" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B283" t="s">
         <v>281</v>
       </c>
       <c r="C283" t="str">
-        <f t="shared" si="4"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="284" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>255</v>
+      </c>
+      <c r="D283" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="284" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B284" t="s">
         <v>282</v>
       </c>
       <c r="C284" t="str">
-        <f t="shared" si="4"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="285" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>255</v>
+      </c>
+      <c r="D284" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="285" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B285" t="s">
         <v>283</v>
       </c>
       <c r="C285" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>500</v>
       </c>
-    </row>
-    <row r="286" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D285" t="str">
+        <f t="shared" si="9"/>
+        <v>[usaspending_permalink] [varchar](500) NULL,</v>
+      </c>
+    </row>
+    <row r="286" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B286" t="s">
         <v>284</v>
       </c>
       <c r="C286" t="str">
-        <f t="shared" si="4"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="287" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>255</v>
+      </c>
+      <c r="D286" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="287" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B287" t="s">
         <v>285</v>
       </c>
       <c r="C287" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>000</v>
       </c>
-    </row>
-    <row r="288" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D287" t="str">
+        <f t="shared" si="9"/>
+        <v>[disaster_emergency_fund_codes_for_overall_award] [varchar](4000) NULL,</v>
+      </c>
+    </row>
+    <row r="288" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B288" t="s">
         <v>286</v>
       </c>
       <c r="C288" t="str">
-        <f t="shared" si="4"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>255</v>
+      </c>
+      <c r="D288" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B289" t="s">
         <v>287</v>
       </c>
       <c r="C289" t="str">
-        <f t="shared" si="4"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>255</v>
+      </c>
+      <c r="D289" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B290" t="s">
         <v>288</v>
       </c>
       <c r="C290" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>000</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D290" t="str">
+        <f t="shared" si="9"/>
+        <v>[object_classes_funding_this_award] [varchar](4000) NULL,</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B291" t="s">
         <v>289</v>
       </c>
       <c r="C291" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>000</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D291" t="str">
+        <f t="shared" si="9"/>
+        <v>[program_activities_funding_this_award] [varchar](5000) NULL,</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B292" t="s">
         <v>290</v>
       </c>
       <c r="C292" t="str">
-        <f t="shared" si="4"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>255</v>
+      </c>
+      <c r="D292" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B293" t="s">
         <v>291</v>
       </c>
       <c r="C293" t="str">
-        <f t="shared" si="4"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>255</v>
+      </c>
+      <c r="D293" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B294" t="s">
         <v>292</v>
       </c>
       <c r="C294" t="str">
-        <f t="shared" si="4"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>255</v>
+      </c>
+      <c r="D294" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B295" t="s">
         <v>293</v>
       </c>
       <c r="C295" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>400</v>
       </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D295" t="str">
+        <f t="shared" si="9"/>
+        <v>[prime_award_base_transaction_description] [varchar](4008) NULL</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ImportAids/FPDSstage1updateTool.xlsx
+++ b/ImportAids/FPDSstage1updateTool.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\Greg\Repositories\Lookup-Tables\ImportAids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{3BE36238-3FD1-42DB-A39B-E4796AF3D457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6C3C7E-4947-43AE-B40A-C8CC27E2C4DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ErrorLogging.FPDSstage1.Table" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="300">
   <si>
     <t>SET ANSI_NULLS ON</t>
   </si>
@@ -901,25 +914,31 @@
     <t>[recipient_parent_uei] [varchar](255) NULL,</t>
   </si>
   <si>
-    <t>[prime_award_base_transaction_description] [varchar](4008) NULL</t>
-  </si>
-  <si>
     <t>) ON [PRIMARY]</t>
   </si>
   <si>
-    <t>ALTER TABLE [ErrorLogging].[FPDSstage1] ADD  CONSTRAINT [DF__FPDSbetaV__CSISm__6FAB3F2B]  DEFAULT (getdate()) FOR [CSISmodifiedDate]</t>
-  </si>
-  <si>
-    <t>ALTER TABLE [ErrorLogging].[FPDSstage1] ADD  CONSTRAINT [DF__FPDSbetaV__CSISc__709F6364]  DEFAULT (getdate()) FOR [CSIScreatedDate]</t>
-  </si>
-  <si>
     <t/>
+  </si>
+  <si>
+    <t>[prime_award_base_transaction_description] [varchar](4008) NULL,</t>
+  </si>
+  <si>
+    <t>[obligated_amount_funded_by_IIJA_supplementals_for_overall_award] [varchar](255) NULL,</t>
+  </si>
+  <si>
+    <t>[outlayed_amount_funded_by_IIJA_supplementals_for_overall_award] [varchar](255) NULL,</t>
+  </si>
+  <si>
+    <t>[recipient_name_raw] [varchar](255) NULL,</t>
+  </si>
+  <si>
+    <t>[recipient_parent_name_raw] [varchar](255) NULL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1753,11 +1772,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G7:G19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1805,7 +1824,7 @@
         <v/>
       </c>
       <c r="G6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2013,7 +2032,7 @@
         <v/>
       </c>
       <c r="G19" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
@@ -5593,40 +5612,72 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B295" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C295" t="str">
         <f t="shared" si="8"/>
-        <v>400</v>
+        <v>008</v>
       </c>
       <c r="D295" t="str">
         <f t="shared" si="9"/>
-        <v>[prime_award_base_transaction_description] [varchar](4008) NULL</v>
+        <v>[prime_award_base_transaction_description] [varchar](4008) NULL,</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
-        <v>294</v>
+      <c r="B296" t="s">
+        <v>296</v>
+      </c>
+      <c r="C296" t="str">
+        <f t="shared" ref="C296:C299" si="10">LEFT(RIGHT(B296,10),3)</f>
+        <v>255</v>
+      </c>
+      <c r="D296" t="str">
+        <f t="shared" ref="D296:D299" si="11">IF(C296&lt;&gt;"255",B296,"")</f>
+        <v/>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
-        <v>1</v>
+      <c r="B297" t="s">
+        <v>297</v>
+      </c>
+      <c r="C297" t="str">
+        <f t="shared" si="10"/>
+        <v>255</v>
+      </c>
+      <c r="D297" t="str">
+        <f t="shared" si="11"/>
+        <v/>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
-        <v>295</v>
+      <c r="B298" t="s">
+        <v>298</v>
+      </c>
+      <c r="C298" t="str">
+        <f t="shared" si="10"/>
+        <v>255</v>
+      </c>
+      <c r="D298" t="str">
+        <f t="shared" si="11"/>
+        <v/>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
-        <v>1</v>
+      <c r="B299" t="s">
+        <v>299</v>
+      </c>
+      <c r="C299" t="str">
+        <f t="shared" si="10"/>
+        <v>(25</v>
+      </c>
+      <c r="D299" t="str">
+        <f t="shared" si="11"/>
+        <v>[recipient_parent_name_raw] [varchar](255) NULL</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">

--- a/ImportAids/FPDSstage1updateTool.xlsx
+++ b/ImportAids/FPDSstage1updateTool.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\Greg\Repositories\Lookup-Tables\ImportAids\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grego\Repositories\Lookup-Tables\ImportAids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{3BE36238-3FD1-42DB-A39B-E4796AF3D457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5020E4A4-8752-4956-9EB1-20D7A6DBA983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ErrorLogging.FPDSstage1.Table" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -919,7 +932,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1753,3883 +1766,5043 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G7:G19"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.85546875" customWidth="1"/>
-    <col min="2" max="2" width="90.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="68.5703125" customWidth="1"/>
+    <col min="1" max="1" width="50.88671875" customWidth="1"/>
+    <col min="2" max="2" width="90.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="68.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="str">
-        <f>LEFT(RIGHT(B6,10),3)</f>
-        <v>255</v>
+        <f>MID(B6,2,FIND("]",B6)-2)</f>
+        <v>gfe_gfp</v>
       </c>
       <c r="D6" t="str">
-        <f>IF(C6&lt;&gt;"255",B6,"")</f>
+        <f t="shared" ref="D6:D69" si="0">MID(LEFT(RIGHT(B6,11),FIND(")",RIGHT(B6,11))-1),IF(LEFT(RIGHT(B6,11),1)="(",2,1),999)</f>
+        <v>255</v>
+      </c>
+      <c r="E6" t="str">
+        <f>IF(D6&lt;&gt;"255",B6,"")</f>
         <v/>
       </c>
       <c r="G6" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" ref="C7:C70" si="0">LEFT(RIGHT(B7,10),3)</f>
-        <v>255</v>
+        <f t="shared" ref="C7:C70" si="1">MID(B7,2,FIND("]",B7)-2)</f>
+        <v>research</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" ref="D7:D70" si="1">IF(C7&lt;&gt;"255",B7,"")</f>
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+      <c r="E7" t="str">
+        <f>IF(D7&lt;&gt;"255",B7,"")</f>
         <v/>
       </c>
       <c r="G7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="str">
+        <f t="shared" si="1"/>
+        <v>last_modified_date</v>
+      </c>
+      <c r="D8" t="str">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="D8" t="str">
-        <f t="shared" si="1"/>
+      <c r="E8" t="str">
+        <f>IF(D8&lt;&gt;"255",B8,"")</f>
         <v/>
       </c>
       <c r="G8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="str">
+        <f t="shared" si="1"/>
+        <v>award_id_piid</v>
+      </c>
+      <c r="D9" t="str">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="D9" t="str">
-        <f t="shared" si="1"/>
+      <c r="E9" t="str">
+        <f>IF(D9&lt;&gt;"255",B9,"")</f>
         <v/>
       </c>
       <c r="G9" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="str">
+        <f t="shared" si="1"/>
+        <v>modification_number</v>
+      </c>
+      <c r="D10" t="str">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="D10" t="str">
-        <f t="shared" si="1"/>
+      <c r="E10" t="str">
+        <f>IF(D10&lt;&gt;"255",B10,"")</f>
         <v/>
       </c>
       <c r="G10" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="str">
+        <f t="shared" si="1"/>
+        <v>transaction_number</v>
+      </c>
+      <c r="D11" t="str">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="D11" t="str">
-        <f t="shared" si="1"/>
+      <c r="E11" t="str">
+        <f>IF(D11&lt;&gt;"255",B11,"")</f>
         <v/>
       </c>
       <c r="G11" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="C12" t="str">
+        <f t="shared" si="1"/>
+        <v>parent_award_agency_id</v>
+      </c>
+      <c r="D12" t="str">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="D12" t="str">
-        <f t="shared" si="1"/>
+      <c r="E12" t="str">
+        <f>IF(D12&lt;&gt;"255",B12,"")</f>
         <v/>
       </c>
       <c r="G12" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="str">
+        <f t="shared" si="1"/>
+        <v>parent_award_agency_name</v>
+      </c>
+      <c r="D13" t="str">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="D13" t="str">
-        <f t="shared" si="1"/>
+      <c r="E13" t="str">
+        <f>IF(D13&lt;&gt;"255",B13,"")</f>
         <v/>
       </c>
       <c r="G13" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="C14" t="str">
+        <f t="shared" si="1"/>
+        <v>parent_award_id_piid</v>
+      </c>
+      <c r="D14" t="str">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="D14" t="str">
-        <f t="shared" si="1"/>
+      <c r="E14" t="str">
+        <f>IF(D14&lt;&gt;"255",B14,"")</f>
         <v/>
       </c>
       <c r="G14" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>13</v>
       </c>
       <c r="C15" t="str">
+        <f t="shared" si="1"/>
+        <v>parent_award_modification_number</v>
+      </c>
+      <c r="D15" t="str">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="D15" t="str">
-        <f t="shared" si="1"/>
+      <c r="E15" t="str">
+        <f>IF(D15&lt;&gt;"255",B15,"")</f>
         <v/>
       </c>
       <c r="G15" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>14</v>
       </c>
       <c r="C16" t="str">
+        <f t="shared" si="1"/>
+        <v>federal_action_obligation</v>
+      </c>
+      <c r="D16" t="str">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="D16" t="str">
-        <f t="shared" si="1"/>
+      <c r="E16" t="str">
+        <f>IF(D16&lt;&gt;"255",B16,"")</f>
         <v/>
       </c>
       <c r="G16" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="C17" t="str">
+        <f t="shared" si="1"/>
+        <v>base_and_exercised_options_value</v>
+      </c>
+      <c r="D17" t="str">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="D17" t="str">
-        <f t="shared" si="1"/>
+      <c r="E17" t="str">
+        <f>IF(D17&lt;&gt;"255",B17,"")</f>
         <v/>
       </c>
       <c r="G17" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>16</v>
       </c>
       <c r="C18" t="str">
+        <f t="shared" si="1"/>
+        <v>base_and_all_options_value</v>
+      </c>
+      <c r="D18" t="str">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="D18" t="str">
-        <f t="shared" si="1"/>
+      <c r="E18" t="str">
+        <f>IF(D18&lt;&gt;"255",B18,"")</f>
         <v/>
       </c>
       <c r="G18" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>17</v>
       </c>
       <c r="C19" t="str">
+        <f t="shared" si="1"/>
+        <v>action_date</v>
+      </c>
+      <c r="D19" t="str">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="D19" t="str">
-        <f t="shared" si="1"/>
+      <c r="E19" t="str">
+        <f>IF(D19&lt;&gt;"255",B19,"")</f>
         <v/>
       </c>
       <c r="G19" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>18</v>
       </c>
       <c r="C20" t="str">
+        <f t="shared" si="1"/>
+        <v>period_of_performance_start_date</v>
+      </c>
+      <c r="D20" t="str">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="D20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E20" t="str">
+        <f>IF(D20&lt;&gt;"255",B20,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>19</v>
       </c>
       <c r="C21" t="str">
+        <f t="shared" si="1"/>
+        <v>period_of_performance_current_end_date</v>
+      </c>
+      <c r="D21" t="str">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="D21" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E21" t="str">
+        <f>IF(D21&lt;&gt;"255",B21,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>20</v>
       </c>
       <c r="C22" t="str">
+        <f t="shared" si="1"/>
+        <v>period_of_performance_potential_end_date</v>
+      </c>
+      <c r="D22" t="str">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="D22" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E22" t="str">
+        <f>IF(D22&lt;&gt;"255",B22,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>21</v>
       </c>
       <c r="C23" t="str">
+        <f t="shared" si="1"/>
+        <v>ordering_period_end_date</v>
+      </c>
+      <c r="D23" t="str">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="D23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E23" t="str">
+        <f>IF(D23&lt;&gt;"255",B23,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>22</v>
       </c>
       <c r="C24" t="str">
+        <f t="shared" si="1"/>
+        <v>awarding_agency_code</v>
+      </c>
+      <c r="D24" t="str">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="D24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E24" t="str">
+        <f>IF(D24&lt;&gt;"255",B24,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>23</v>
       </c>
       <c r="C25" t="str">
+        <f t="shared" si="1"/>
+        <v>awarding_agency_name</v>
+      </c>
+      <c r="D25" t="str">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="D25" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E25" t="str">
+        <f>IF(D25&lt;&gt;"255",B25,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>24</v>
       </c>
       <c r="C26" t="str">
+        <f t="shared" si="1"/>
+        <v>awarding_sub_agency_code</v>
+      </c>
+      <c r="D26" t="str">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="D26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E26" t="str">
+        <f>IF(D26&lt;&gt;"255",B26,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>25</v>
       </c>
       <c r="C27" t="str">
+        <f t="shared" si="1"/>
+        <v>awarding_sub_agency_name</v>
+      </c>
+      <c r="D27" t="str">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="D27" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E27" t="str">
+        <f>IF(D27&lt;&gt;"255",B27,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>26</v>
       </c>
       <c r="C28" t="str">
+        <f t="shared" si="1"/>
+        <v>awarding_office_code</v>
+      </c>
+      <c r="D28" t="str">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="D28" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E28" t="str">
+        <f>IF(D28&lt;&gt;"255",B28,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>27</v>
       </c>
       <c r="C29" t="str">
+        <f t="shared" si="1"/>
+        <v>awarding_office_name</v>
+      </c>
+      <c r="D29" t="str">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="D29" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E29" t="str">
+        <f>IF(D29&lt;&gt;"255",B29,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>28</v>
       </c>
       <c r="C30" t="str">
+        <f t="shared" si="1"/>
+        <v>funding_agency_code</v>
+      </c>
+      <c r="D30" t="str">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="D30" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E30" t="str">
+        <f>IF(D30&lt;&gt;"255",B30,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>29</v>
       </c>
       <c r="C31" t="str">
+        <f t="shared" si="1"/>
+        <v>funding_agency_name</v>
+      </c>
+      <c r="D31" t="str">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="D31" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E31" t="str">
+        <f>IF(D31&lt;&gt;"255",B31,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>30</v>
       </c>
       <c r="C32" t="str">
+        <f t="shared" si="1"/>
+        <v>funding_sub_agency_code</v>
+      </c>
+      <c r="D32" t="str">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="D32" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E32" t="str">
+        <f>IF(D32&lt;&gt;"255",B32,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>31</v>
       </c>
       <c r="C33" t="str">
+        <f t="shared" si="1"/>
+        <v>funding_sub_agency_name</v>
+      </c>
+      <c r="D33" t="str">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="D33" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E33" t="str">
+        <f>IF(D33&lt;&gt;"255",B33,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>32</v>
       </c>
       <c r="C34" t="str">
+        <f t="shared" si="1"/>
+        <v>funding_office_code</v>
+      </c>
+      <c r="D34" t="str">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="D34" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E34" t="str">
+        <f>IF(D34&lt;&gt;"255",B34,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>33</v>
       </c>
       <c r="C35" t="str">
+        <f t="shared" si="1"/>
+        <v>funding_office_name</v>
+      </c>
+      <c r="D35" t="str">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="D35" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E35" t="str">
+        <f>IF(D35&lt;&gt;"255",B35,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>34</v>
       </c>
       <c r="C36" t="str">
+        <f t="shared" si="1"/>
+        <v>foreign_funding</v>
+      </c>
+      <c r="D36" t="str">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="D36" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E36" t="str">
+        <f>IF(D36&lt;&gt;"255",B36,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>35</v>
       </c>
       <c r="C37" t="str">
+        <f t="shared" si="1"/>
+        <v>sam_exception</v>
+      </c>
+      <c r="D37" t="str">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="D37" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E37" t="str">
+        <f>IF(D37&lt;&gt;"255",B37,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>36</v>
       </c>
       <c r="C38" t="str">
+        <f t="shared" si="1"/>
+        <v>recipient_duns</v>
+      </c>
+      <c r="D38" t="str">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="D38" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E38" t="str">
+        <f>IF(D38&lt;&gt;"255",B38,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>37</v>
       </c>
       <c r="C39" t="str">
+        <f t="shared" si="1"/>
+        <v>recipient_name</v>
+      </c>
+      <c r="D39" t="str">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="D39" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E39" t="str">
+        <f>IF(D39&lt;&gt;"255",B39,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>38</v>
       </c>
       <c r="C40" t="str">
+        <f t="shared" si="1"/>
+        <v>recipient_doing_business_as_name</v>
+      </c>
+      <c r="D40" t="str">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="D40" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E40" t="str">
+        <f>IF(D40&lt;&gt;"255",B40,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>39</v>
       </c>
       <c r="C41" t="str">
+        <f t="shared" si="1"/>
+        <v>recipient_parent_name</v>
+      </c>
+      <c r="D41" t="str">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="D41" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E41" t="str">
+        <f>IF(D41&lt;&gt;"255",B41,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>40</v>
       </c>
       <c r="C42" t="str">
+        <f t="shared" si="1"/>
+        <v>recipient_parent_duns</v>
+      </c>
+      <c r="D42" t="str">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="D42" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E42" t="str">
+        <f>IF(D42&lt;&gt;"255",B42,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>41</v>
       </c>
       <c r="C43" t="str">
+        <f t="shared" si="1"/>
+        <v>recipient_country_code</v>
+      </c>
+      <c r="D43" t="str">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="D43" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E43" t="str">
+        <f>IF(D43&lt;&gt;"255",B43,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>42</v>
       </c>
       <c r="C44" t="str">
+        <f t="shared" si="1"/>
+        <v>recipient_country_name</v>
+      </c>
+      <c r="D44" t="str">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="D44" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E44" t="str">
+        <f>IF(D44&lt;&gt;"255",B44,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>43</v>
       </c>
       <c r="C45" t="str">
+        <f t="shared" si="1"/>
+        <v>recipient_address_line_1</v>
+      </c>
+      <c r="D45" t="str">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="D45" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E45" t="str">
+        <f>IF(D45&lt;&gt;"255",B45,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>44</v>
       </c>
       <c r="C46" t="str">
+        <f t="shared" si="1"/>
+        <v>recipient_address_line_2</v>
+      </c>
+      <c r="D46" t="str">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="D46" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E46" t="str">
+        <f>IF(D46&lt;&gt;"255",B46,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>45</v>
       </c>
       <c r="C47" t="str">
+        <f t="shared" si="1"/>
+        <v>recipient_city_name</v>
+      </c>
+      <c r="D47" t="str">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="D47" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E47" t="str">
+        <f>IF(D47&lt;&gt;"255",B47,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>46</v>
       </c>
       <c r="C48" t="str">
+        <f t="shared" si="1"/>
+        <v>recipient_state_code</v>
+      </c>
+      <c r="D48" t="str">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="D48" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E48" t="str">
+        <f>IF(D48&lt;&gt;"255",B48,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>47</v>
       </c>
       <c r="C49" t="str">
+        <f t="shared" si="1"/>
+        <v>recipient_state_name</v>
+      </c>
+      <c r="D49" t="str">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="D49" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E49" t="str">
+        <f>IF(D49&lt;&gt;"255",B49,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>48</v>
       </c>
       <c r="C50" t="str">
+        <f t="shared" si="1"/>
+        <v>recipient_zip_4_code</v>
+      </c>
+      <c r="D50" t="str">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="D50" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E50" t="str">
+        <f>IF(D50&lt;&gt;"255",B50,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>49</v>
       </c>
       <c r="C51" t="str">
+        <f t="shared" si="1"/>
+        <v>recipient_congressional_district</v>
+      </c>
+      <c r="D51" t="str">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="D51" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E51" t="str">
+        <f>IF(D51&lt;&gt;"255",B51,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>50</v>
       </c>
       <c r="C52" t="str">
+        <f t="shared" si="1"/>
+        <v>recipient_phone_number</v>
+      </c>
+      <c r="D52" t="str">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="D52" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E52" t="str">
+        <f>IF(D52&lt;&gt;"255",B52,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>51</v>
       </c>
       <c r="C53" t="str">
+        <f t="shared" si="1"/>
+        <v>recipient_fax_number</v>
+      </c>
+      <c r="D53" t="str">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="D53" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E53" t="str">
+        <f>IF(D53&lt;&gt;"255",B53,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>52</v>
       </c>
       <c r="C54" t="str">
+        <f t="shared" si="1"/>
+        <v>primary_place_of_performance_country_code</v>
+      </c>
+      <c r="D54" t="str">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="D54" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E54" t="str">
+        <f>IF(D54&lt;&gt;"255",B54,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>53</v>
       </c>
       <c r="C55" t="str">
+        <f t="shared" si="1"/>
+        <v>primary_place_of_performance_country_name</v>
+      </c>
+      <c r="D55" t="str">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="D55" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E55" t="str">
+        <f>IF(D55&lt;&gt;"255",B55,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>54</v>
       </c>
       <c r="C56" t="str">
+        <f t="shared" si="1"/>
+        <v>primary_place_of_performance_city_name</v>
+      </c>
+      <c r="D56" t="str">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="D56" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E56" t="str">
+        <f>IF(D56&lt;&gt;"255",B56,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>55</v>
       </c>
       <c r="C57" t="str">
+        <f t="shared" si="1"/>
+        <v>primary_place_of_performance_county_name</v>
+      </c>
+      <c r="D57" t="str">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="D57" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E57" t="str">
+        <f>IF(D57&lt;&gt;"255",B57,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>56</v>
       </c>
       <c r="C58" t="str">
+        <f t="shared" si="1"/>
+        <v>primary_place_of_performance_state_code</v>
+      </c>
+      <c r="D58" t="str">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="D58" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E58" t="str">
+        <f>IF(D58&lt;&gt;"255",B58,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>57</v>
       </c>
       <c r="C59" t="str">
+        <f t="shared" si="1"/>
+        <v>primary_place_of_performance_state_name</v>
+      </c>
+      <c r="D59" t="str">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="D59" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E59" t="str">
+        <f>IF(D59&lt;&gt;"255",B59,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>58</v>
       </c>
       <c r="C60" t="str">
+        <f t="shared" si="1"/>
+        <v>primary_place_of_performance_zip_4</v>
+      </c>
+      <c r="D60" t="str">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="D60" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E60" t="str">
+        <f>IF(D60&lt;&gt;"255",B60,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>59</v>
       </c>
       <c r="C61" t="str">
+        <f t="shared" si="1"/>
+        <v>primary_place_of_performance_congressional_district</v>
+      </c>
+      <c r="D61" t="str">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="D61" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E61" t="str">
+        <f>IF(D61&lt;&gt;"255",B61,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>60</v>
       </c>
       <c r="C62" t="str">
+        <f t="shared" si="1"/>
+        <v>award_type_code</v>
+      </c>
+      <c r="D62" t="str">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="D62" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E62" t="str">
+        <f>IF(D62&lt;&gt;"255",B62,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>61</v>
       </c>
       <c r="C63" t="str">
+        <f t="shared" si="1"/>
+        <v>award_type</v>
+      </c>
+      <c r="D63" t="str">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="D63" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E63" t="str">
+        <f>IF(D63&lt;&gt;"255",B63,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>62</v>
       </c>
       <c r="C64" t="str">
+        <f t="shared" si="1"/>
+        <v>idv_type_code</v>
+      </c>
+      <c r="D64" t="str">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="D64" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E64" t="str">
+        <f>IF(D64&lt;&gt;"255",B64,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>63</v>
       </c>
       <c r="C65" t="str">
+        <f t="shared" si="1"/>
+        <v>idv_type</v>
+      </c>
+      <c r="D65" t="str">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="D65" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E65" t="str">
+        <f>IF(D65&lt;&gt;"255",B65,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>64</v>
       </c>
       <c r="C66" t="str">
+        <f t="shared" si="1"/>
+        <v>multiple_or_single_award_idv_code</v>
+      </c>
+      <c r="D66" t="str">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="D66" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E66" t="str">
+        <f>IF(D66&lt;&gt;"255",B66,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>65</v>
       </c>
       <c r="C67" t="str">
+        <f t="shared" si="1"/>
+        <v>multiple_or_single_award_idv</v>
+      </c>
+      <c r="D67" t="str">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="D67" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E67" t="str">
+        <f>IF(D67&lt;&gt;"255",B67,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>66</v>
       </c>
       <c r="C68" t="str">
+        <f t="shared" si="1"/>
+        <v>type_of_idc_code</v>
+      </c>
+      <c r="D68" t="str">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="D68" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E68" t="str">
+        <f>IF(D68&lt;&gt;"255",B68,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>67</v>
       </c>
       <c r="C69" t="str">
+        <f t="shared" si="1"/>
+        <v>type_of_idc</v>
+      </c>
+      <c r="D69" t="str">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="D69" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E69" t="str">
+        <f>IF(D69&lt;&gt;"255",B69,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>68</v>
       </c>
       <c r="C70" t="str">
-        <f t="shared" si="0"/>
-        <v>255</v>
+        <f t="shared" si="1"/>
+        <v>type_of_contract_pricing_code</v>
       </c>
       <c r="D70" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+        <f t="shared" ref="D70:D133" si="2">MID(LEFT(RIGHT(B70,11),FIND(")",RIGHT(B70,11))-1),IF(LEFT(RIGHT(B70,11),1)="(",2,1),999)</f>
+        <v>255</v>
+      </c>
+      <c r="E70" t="str">
+        <f>IF(D70&lt;&gt;"255",B70,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>69</v>
       </c>
       <c r="C71" t="str">
-        <f t="shared" ref="C71:C134" si="2">LEFT(RIGHT(B71,10),3)</f>
-        <v>255</v>
+        <f t="shared" ref="C71:C134" si="3">MID(B71,2,FIND("]",B71)-2)</f>
+        <v>type_of_contract_pricing</v>
       </c>
       <c r="D71" t="str">
-        <f t="shared" ref="D71:D134" si="3">IF(C71&lt;&gt;"255",B71,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="E71" t="str">
+        <f>IF(D71&lt;&gt;"255",B71,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>70</v>
       </c>
       <c r="C72" t="str">
+        <f t="shared" si="3"/>
+        <v>award_description</v>
+      </c>
+      <c r="D72" t="str">
         <f t="shared" si="2"/>
-        <v>008</v>
-      </c>
-      <c r="D72" t="str">
-        <f t="shared" si="3"/>
+        <v>4008</v>
+      </c>
+      <c r="E72" t="str">
+        <f>IF(D72&lt;&gt;"255",B72,"")</f>
         <v>[award_description] [varchar](4008) NULL,</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>71</v>
       </c>
       <c r="C73" t="str">
+        <f t="shared" si="3"/>
+        <v>action_type_code</v>
+      </c>
+      <c r="D73" t="str">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="D73" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E73" t="str">
+        <f>IF(D73&lt;&gt;"255",B73,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>72</v>
       </c>
       <c r="C74" t="str">
+        <f t="shared" si="3"/>
+        <v>action_type</v>
+      </c>
+      <c r="D74" t="str">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="D74" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E74" t="str">
+        <f>IF(D74&lt;&gt;"255",B74,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>73</v>
       </c>
       <c r="C75" t="str">
+        <f t="shared" si="3"/>
+        <v>solicitation_identifier</v>
+      </c>
+      <c r="D75" t="str">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="D75" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E75" t="str">
+        <f>IF(D75&lt;&gt;"255",B75,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>74</v>
       </c>
       <c r="C76" t="str">
+        <f t="shared" si="3"/>
+        <v>number_of_actions</v>
+      </c>
+      <c r="D76" t="str">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="D76" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E76" t="str">
+        <f>IF(D76&lt;&gt;"255",B76,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>75</v>
       </c>
       <c r="C77" t="str">
+        <f t="shared" si="3"/>
+        <v>product_or_service_code</v>
+      </c>
+      <c r="D77" t="str">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="D77" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E77" t="str">
+        <f>IF(D77&lt;&gt;"255",B77,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>76</v>
       </c>
       <c r="C78" t="str">
+        <f t="shared" si="3"/>
+        <v>product_or_service_code_description</v>
+      </c>
+      <c r="D78" t="str">
         <f t="shared" si="2"/>
         <v>512</v>
       </c>
-      <c r="D78" t="str">
-        <f t="shared" si="3"/>
+      <c r="E78" t="str">
+        <f>IF(D78&lt;&gt;"255",B78,"")</f>
         <v>[product_or_service_code_description] [varchar](512) NULL,</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>77</v>
       </c>
       <c r="C79" t="str">
+        <f t="shared" si="3"/>
+        <v>contract_bundling_code</v>
+      </c>
+      <c r="D79" t="str">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="D79" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E79" t="str">
+        <f>IF(D79&lt;&gt;"255",B79,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>78</v>
       </c>
       <c r="C80" t="str">
+        <f t="shared" si="3"/>
+        <v>contract_bundling</v>
+      </c>
+      <c r="D80" t="str">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="D80" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E80" t="str">
+        <f>IF(D80&lt;&gt;"255",B80,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>79</v>
       </c>
       <c r="C81" t="str">
+        <f t="shared" si="3"/>
+        <v>dod_claimant_program_code</v>
+      </c>
+      <c r="D81" t="str">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="D81" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E81" t="str">
+        <f>IF(D81&lt;&gt;"255",B81,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>80</v>
       </c>
       <c r="C82" t="str">
+        <f t="shared" si="3"/>
+        <v>dod_claimant_program_description</v>
+      </c>
+      <c r="D82" t="str">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="D82" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E82" t="str">
+        <f>IF(D82&lt;&gt;"255",B82,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>81</v>
       </c>
       <c r="C83" t="str">
+        <f t="shared" si="3"/>
+        <v>naics_code</v>
+      </c>
+      <c r="D83" t="str">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="D83" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E83" t="str">
+        <f>IF(D83&lt;&gt;"255",B83,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
         <v>82</v>
       </c>
       <c r="C84" t="str">
+        <f t="shared" si="3"/>
+        <v>naics_description</v>
+      </c>
+      <c r="D84" t="str">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="D84" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E84" t="str">
+        <f>IF(D84&lt;&gt;"255",B84,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
         <v>83</v>
       </c>
       <c r="C85" t="str">
+        <f t="shared" si="3"/>
+        <v>recovered_materials_sustainability_code</v>
+      </c>
+      <c r="D85" t="str">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="D85" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E85" t="str">
+        <f>IF(D85&lt;&gt;"255",B85,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
         <v>84</v>
       </c>
       <c r="C86" t="str">
+        <f t="shared" si="3"/>
+        <v>recovered_materials_sustainability</v>
+      </c>
+      <c r="D86" t="str">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="D86" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E86" t="str">
+        <f>IF(D86&lt;&gt;"255",B86,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
         <v>85</v>
       </c>
       <c r="C87" t="str">
+        <f t="shared" si="3"/>
+        <v>domestic_or_foreign_entity_code</v>
+      </c>
+      <c r="D87" t="str">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="D87" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E87" t="str">
+        <f>IF(D87&lt;&gt;"255",B87,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
         <v>86</v>
       </c>
       <c r="C88" t="str">
+        <f t="shared" si="3"/>
+        <v>domestic_or_foreign_entity</v>
+      </c>
+      <c r="D88" t="str">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="D88" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E88" t="str">
+        <f>IF(D88&lt;&gt;"255",B88,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
         <v>87</v>
       </c>
       <c r="C89" t="str">
+        <f t="shared" si="3"/>
+        <v>dod_acquisition_program_code</v>
+      </c>
+      <c r="D89" t="str">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="D89" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E89" t="str">
+        <f>IF(D89&lt;&gt;"255",B89,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
         <v>88</v>
       </c>
       <c r="C90" t="str">
+        <f t="shared" si="3"/>
+        <v>dod_acquisition_program_description</v>
+      </c>
+      <c r="D90" t="str">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="D90" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E90" t="str">
+        <f>IF(D90&lt;&gt;"255",B90,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
         <v>89</v>
       </c>
       <c r="C91" t="str">
+        <f t="shared" si="3"/>
+        <v>information_technology_commercial_item_category_code</v>
+      </c>
+      <c r="D91" t="str">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="D91" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E91" t="str">
+        <f>IF(D91&lt;&gt;"255",B91,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
         <v>90</v>
       </c>
       <c r="C92" t="str">
+        <f t="shared" si="3"/>
+        <v>information_technology_commercial_item_category</v>
+      </c>
+      <c r="D92" t="str">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="D92" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E92" t="str">
+        <f>IF(D92&lt;&gt;"255",B92,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
         <v>91</v>
       </c>
       <c r="C93" t="str">
+        <f t="shared" si="3"/>
+        <v>epa_designated_product_code</v>
+      </c>
+      <c r="D93" t="str">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="D93" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E93" t="str">
+        <f>IF(D93&lt;&gt;"255",B93,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
         <v>92</v>
       </c>
       <c r="C94" t="str">
+        <f t="shared" si="3"/>
+        <v>epa_designated_product</v>
+      </c>
+      <c r="D94" t="str">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="D94" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E94" t="str">
+        <f>IF(D94&lt;&gt;"255",B94,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
         <v>93</v>
       </c>
       <c r="C95" t="str">
+        <f t="shared" si="3"/>
+        <v>country_of_product_or_service_origin_code</v>
+      </c>
+      <c r="D95" t="str">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="D95" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E95" t="str">
+        <f>IF(D95&lt;&gt;"255",B95,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
         <v>94</v>
       </c>
       <c r="C96" t="str">
+        <f t="shared" si="3"/>
+        <v>country_of_product_or_service_origin</v>
+      </c>
+      <c r="D96" t="str">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="D96" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E96" t="str">
+        <f>IF(D96&lt;&gt;"255",B96,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
         <v>95</v>
       </c>
       <c r="C97" t="str">
+        <f t="shared" si="3"/>
+        <v>place_of_manufacture_code</v>
+      </c>
+      <c r="D97" t="str">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="D97" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E97" t="str">
+        <f>IF(D97&lt;&gt;"255",B97,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
         <v>96</v>
       </c>
       <c r="C98" t="str">
+        <f t="shared" si="3"/>
+        <v>place_of_manufacture</v>
+      </c>
+      <c r="D98" t="str">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="D98" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E98" t="str">
+        <f>IF(D98&lt;&gt;"255",B98,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
         <v>97</v>
       </c>
       <c r="C99" t="str">
+        <f t="shared" si="3"/>
+        <v>subcontracting_plan_code</v>
+      </c>
+      <c r="D99" t="str">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="D99" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E99" t="str">
+        <f>IF(D99&lt;&gt;"255",B99,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
         <v>98</v>
       </c>
       <c r="C100" t="str">
+        <f t="shared" si="3"/>
+        <v>subcontracting_plan</v>
+      </c>
+      <c r="D100" t="str">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="D100" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E100" t="str">
+        <f>IF(D100&lt;&gt;"255",B100,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
         <v>99</v>
       </c>
       <c r="C101" t="str">
+        <f t="shared" si="3"/>
+        <v>extent_competed_code</v>
+      </c>
+      <c r="D101" t="str">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="D101" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E101" t="str">
+        <f>IF(D101&lt;&gt;"255",B101,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
         <v>100</v>
       </c>
       <c r="C102" t="str">
+        <f t="shared" si="3"/>
+        <v>extent_competed</v>
+      </c>
+      <c r="D102" t="str">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="D102" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E102" t="str">
+        <f>IF(D102&lt;&gt;"255",B102,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
         <v>101</v>
       </c>
       <c r="C103" t="str">
+        <f t="shared" si="3"/>
+        <v>solicitation_procedures_code</v>
+      </c>
+      <c r="D103" t="str">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="D103" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E103" t="str">
+        <f>IF(D103&lt;&gt;"255",B103,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
         <v>102</v>
       </c>
       <c r="C104" t="str">
+        <f t="shared" si="3"/>
+        <v>solicitation_procedures</v>
+      </c>
+      <c r="D104" t="str">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="D104" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E104" t="str">
+        <f>IF(D104&lt;&gt;"255",B104,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
         <v>103</v>
       </c>
       <c r="C105" t="str">
+        <f t="shared" si="3"/>
+        <v>type_of_set_aside_code</v>
+      </c>
+      <c r="D105" t="str">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="D105" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E105" t="str">
+        <f>IF(D105&lt;&gt;"255",B105,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
         <v>104</v>
       </c>
       <c r="C106" t="str">
+        <f t="shared" si="3"/>
+        <v>type_of_set_aside</v>
+      </c>
+      <c r="D106" t="str">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="D106" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E106" t="str">
+        <f>IF(D106&lt;&gt;"255",B106,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
         <v>105</v>
       </c>
       <c r="C107" t="str">
+        <f t="shared" si="3"/>
+        <v>evaluated_preference_code</v>
+      </c>
+      <c r="D107" t="str">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="D107" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E107" t="str">
+        <f>IF(D107&lt;&gt;"255",B107,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
         <v>106</v>
       </c>
       <c r="C108" t="str">
+        <f t="shared" si="3"/>
+        <v>evaluated_preference</v>
+      </c>
+      <c r="D108" t="str">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="D108" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E108" t="str">
+        <f>IF(D108&lt;&gt;"255",B108,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
         <v>107</v>
       </c>
       <c r="C109" t="str">
+        <f t="shared" si="3"/>
+        <v>research_code</v>
+      </c>
+      <c r="D109" t="str">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="D109" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E109" t="str">
+        <f>IF(D109&lt;&gt;"255",B109,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
         <v>108</v>
       </c>
       <c r="C110" t="str">
+        <f t="shared" si="3"/>
+        <v>fair_opportunity_limited_sources_code</v>
+      </c>
+      <c r="D110" t="str">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="D110" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E110" t="str">
+        <f>IF(D110&lt;&gt;"255",B110,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
         <v>109</v>
       </c>
       <c r="C111" t="str">
+        <f t="shared" si="3"/>
+        <v>fair_opportunity_limited_sources</v>
+      </c>
+      <c r="D111" t="str">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="D111" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E111" t="str">
+        <f>IF(D111&lt;&gt;"255",B111,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
         <v>110</v>
       </c>
       <c r="C112" t="str">
+        <f t="shared" si="3"/>
+        <v>other_than_full_and_open_competition_code</v>
+      </c>
+      <c r="D112" t="str">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="D112" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E112" t="str">
+        <f>IF(D112&lt;&gt;"255",B112,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
         <v>111</v>
       </c>
       <c r="C113" t="str">
+        <f t="shared" si="3"/>
+        <v>other_than_full_and_open_competition</v>
+      </c>
+      <c r="D113" t="str">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="D113" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E113" t="str">
+        <f>IF(D113&lt;&gt;"255",B113,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
         <v>112</v>
       </c>
       <c r="C114" t="str">
+        <f t="shared" si="3"/>
+        <v>number_of_offers_received</v>
+      </c>
+      <c r="D114" t="str">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="D114" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E114" t="str">
+        <f>IF(D114&lt;&gt;"255",B114,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
         <v>113</v>
       </c>
       <c r="C115" t="str">
+        <f t="shared" si="3"/>
+        <v>commercial_item_acquisition_procedures_code</v>
+      </c>
+      <c r="D115" t="str">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="D115" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E115" t="str">
+        <f>IF(D115&lt;&gt;"255",B115,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
         <v>114</v>
       </c>
       <c r="C116" t="str">
+        <f t="shared" si="3"/>
+        <v>commercial_item_acquisition_procedures</v>
+      </c>
+      <c r="D116" t="str">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="D116" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E116" t="str">
+        <f>IF(D116&lt;&gt;"255",B116,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
         <v>115</v>
       </c>
       <c r="C117" t="str">
+        <f t="shared" si="3"/>
+        <v>small_business_competitiveness_demonstration_program</v>
+      </c>
+      <c r="D117" t="str">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="D117" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E117" t="str">
+        <f>IF(D117&lt;&gt;"255",B117,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
         <v>116</v>
       </c>
       <c r="C118" t="str">
+        <f t="shared" si="3"/>
+        <v>commercial_item_test_program_code</v>
+      </c>
+      <c r="D118" t="str">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="D118" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E118" t="str">
+        <f>IF(D118&lt;&gt;"255",B118,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
         <v>117</v>
       </c>
       <c r="C119" t="str">
+        <f t="shared" si="3"/>
+        <v>commercial_item_test_program</v>
+      </c>
+      <c r="D119" t="str">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="D119" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E119" t="str">
+        <f>IF(D119&lt;&gt;"255",B119,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
         <v>118</v>
       </c>
       <c r="C120" t="str">
+        <f t="shared" si="3"/>
+        <v>a76_fair_act_action_code</v>
+      </c>
+      <c r="D120" t="str">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="D120" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E120" t="str">
+        <f>IF(D120&lt;&gt;"255",B120,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
         <v>119</v>
       </c>
       <c r="C121" t="str">
+        <f t="shared" si="3"/>
+        <v>a76_fair_act_action</v>
+      </c>
+      <c r="D121" t="str">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="D121" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E121" t="str">
+        <f>IF(D121&lt;&gt;"255",B121,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B122" t="s">
         <v>120</v>
       </c>
       <c r="C122" t="str">
+        <f t="shared" si="3"/>
+        <v>fed_biz_opps_code</v>
+      </c>
+      <c r="D122" t="str">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="D122" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E122" t="str">
+        <f>IF(D122&lt;&gt;"255",B122,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B123" t="s">
         <v>121</v>
       </c>
       <c r="C123" t="str">
+        <f t="shared" si="3"/>
+        <v>fed_biz_opps</v>
+      </c>
+      <c r="D123" t="str">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="D123" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E123" t="str">
+        <f>IF(D123&lt;&gt;"255",B123,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B124" t="s">
         <v>122</v>
       </c>
       <c r="C124" t="str">
+        <f t="shared" si="3"/>
+        <v>local_area_set_aside_code</v>
+      </c>
+      <c r="D124" t="str">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="D124" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E124" t="str">
+        <f>IF(D124&lt;&gt;"255",B124,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B125" t="s">
         <v>123</v>
       </c>
       <c r="C125" t="str">
+        <f t="shared" si="3"/>
+        <v>local_area_set_aside</v>
+      </c>
+      <c r="D125" t="str">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="D125" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E125" t="str">
+        <f>IF(D125&lt;&gt;"255",B125,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B126" t="s">
         <v>124</v>
       </c>
       <c r="C126" t="str">
+        <f t="shared" si="3"/>
+        <v>price_evaluation_adjustment_preference_percent_difference</v>
+      </c>
+      <c r="D126" t="str">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="D126" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E126" t="str">
+        <f>IF(D126&lt;&gt;"255",B126,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B127" t="s">
         <v>125</v>
       </c>
       <c r="C127" t="str">
+        <f t="shared" si="3"/>
+        <v>clinger_cohen_act_planning_code</v>
+      </c>
+      <c r="D127" t="str">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="D127" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E127" t="str">
+        <f>IF(D127&lt;&gt;"255",B127,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B128" t="s">
         <v>126</v>
       </c>
       <c r="C128" t="str">
+        <f t="shared" si="3"/>
+        <v>clinger_cohen_act_planning</v>
+      </c>
+      <c r="D128" t="str">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="D128" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E128" t="str">
+        <f>IF(D128&lt;&gt;"255",B128,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
         <v>127</v>
       </c>
       <c r="C129" t="str">
+        <f t="shared" si="3"/>
+        <v>materials_supplies_articles_equipment_code</v>
+      </c>
+      <c r="D129" t="str">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="D129" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E129" t="str">
+        <f>IF(D129&lt;&gt;"255",B129,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B130" t="s">
         <v>128</v>
       </c>
       <c r="C130" t="str">
+        <f t="shared" si="3"/>
+        <v>materials_supplies_articles_equipment</v>
+      </c>
+      <c r="D130" t="str">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="D130" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E130" t="str">
+        <f>IF(D130&lt;&gt;"255",B130,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B131" t="s">
         <v>129</v>
       </c>
       <c r="C131" t="str">
+        <f t="shared" si="3"/>
+        <v>labor_standards_code</v>
+      </c>
+      <c r="D131" t="str">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="D131" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E131" t="str">
+        <f>IF(D131&lt;&gt;"255",B131,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B132" t="s">
         <v>130</v>
       </c>
       <c r="C132" t="str">
+        <f t="shared" si="3"/>
+        <v>labor_standards</v>
+      </c>
+      <c r="D132" t="str">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="D132" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E132" t="str">
+        <f>IF(D132&lt;&gt;"255",B132,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B133" t="s">
         <v>131</v>
       </c>
       <c r="C133" t="str">
+        <f t="shared" si="3"/>
+        <v>construction_wage_rate_requirements_code</v>
+      </c>
+      <c r="D133" t="str">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="D133" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E133" t="str">
+        <f>IF(D133&lt;&gt;"255",B133,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B134" t="s">
         <v>132</v>
       </c>
       <c r="C134" t="str">
-        <f t="shared" si="2"/>
-        <v>255</v>
+        <f t="shared" si="3"/>
+        <v>construction_wage_rate_requirements</v>
       </c>
       <c r="D134" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+        <f t="shared" ref="D134:D197" si="4">MID(LEFT(RIGHT(B134,11),FIND(")",RIGHT(B134,11))-1),IF(LEFT(RIGHT(B134,11),1)="(",2,1),999)</f>
+        <v>255</v>
+      </c>
+      <c r="E134" t="str">
+        <f>IF(D134&lt;&gt;"255",B134,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
         <v>133</v>
       </c>
       <c r="C135" t="str">
-        <f t="shared" ref="C135:C198" si="4">LEFT(RIGHT(B135,10),3)</f>
-        <v>255</v>
+        <f t="shared" ref="C135:C198" si="5">MID(B135,2,FIND("]",B135)-2)</f>
+        <v>interagency_contracting_authority_code</v>
       </c>
       <c r="D135" t="str">
-        <f t="shared" ref="D135:D198" si="5">IF(C135&lt;&gt;"255",B135,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="E135" t="str">
+        <f>IF(D135&lt;&gt;"255",B135,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B136" t="s">
         <v>134</v>
       </c>
       <c r="C136" t="str">
+        <f t="shared" si="5"/>
+        <v>interagency_contracting_authority</v>
+      </c>
+      <c r="D136" t="str">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="D136" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E136" t="str">
+        <f>IF(D136&lt;&gt;"255",B136,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
         <v>135</v>
       </c>
       <c r="C137" t="str">
+        <f t="shared" si="5"/>
+        <v>other_statutory_authority</v>
+      </c>
+      <c r="D137" t="str">
         <f t="shared" si="4"/>
-        <v>000</v>
-      </c>
-      <c r="D137" t="str">
-        <f t="shared" si="5"/>
+        <v>4000</v>
+      </c>
+      <c r="E137" t="str">
+        <f>IF(D137&lt;&gt;"255",B137,"")</f>
         <v>[other_statutory_authority] [varchar](4000) NULL,</v>
       </c>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B138" t="s">
         <v>136</v>
       </c>
       <c r="C138" t="str">
+        <f t="shared" si="5"/>
+        <v>program_acronym</v>
+      </c>
+      <c r="D138" t="str">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="D138" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E138" t="str">
+        <f>IF(D138&lt;&gt;"255",B138,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B139" t="s">
         <v>137</v>
       </c>
       <c r="C139" t="str">
+        <f t="shared" si="5"/>
+        <v>parent_award_type_code</v>
+      </c>
+      <c r="D139" t="str">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="D139" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E139" t="str">
+        <f>IF(D139&lt;&gt;"255",B139,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
         <v>138</v>
       </c>
       <c r="C140" t="str">
+        <f t="shared" si="5"/>
+        <v>parent_award_type</v>
+      </c>
+      <c r="D140" t="str">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="D140" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E140" t="str">
+        <f>IF(D140&lt;&gt;"255",B140,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B141" t="s">
         <v>139</v>
       </c>
       <c r="C141" t="str">
+        <f t="shared" si="5"/>
+        <v>parent_award_single_or_multiple_code</v>
+      </c>
+      <c r="D141" t="str">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="D141" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E141" t="str">
+        <f>IF(D141&lt;&gt;"255",B141,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B142" t="s">
         <v>140</v>
       </c>
       <c r="C142" t="str">
+        <f t="shared" si="5"/>
+        <v>parent_award_single_or_multiple</v>
+      </c>
+      <c r="D142" t="str">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="D142" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E142" t="str">
+        <f>IF(D142&lt;&gt;"255",B142,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B143" t="s">
         <v>141</v>
       </c>
       <c r="C143" t="str">
+        <f t="shared" si="5"/>
+        <v>major_program</v>
+      </c>
+      <c r="D143" t="str">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="D143" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E143" t="str">
+        <f>IF(D143&lt;&gt;"255",B143,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B144" t="s">
         <v>142</v>
       </c>
       <c r="C144" t="str">
+        <f t="shared" si="5"/>
+        <v>national_interest_action_code</v>
+      </c>
+      <c r="D144" t="str">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="D144" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E144" t="str">
+        <f>IF(D144&lt;&gt;"255",B144,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B145" t="s">
         <v>143</v>
       </c>
       <c r="C145" t="str">
+        <f t="shared" si="5"/>
+        <v>national_interest_action</v>
+      </c>
+      <c r="D145" t="str">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="D145" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E145" t="str">
+        <f>IF(D145&lt;&gt;"255",B145,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B146" t="s">
         <v>144</v>
       </c>
       <c r="C146" t="str">
+        <f t="shared" si="5"/>
+        <v>cost_or_pricing_data_code</v>
+      </c>
+      <c r="D146" t="str">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="D146" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E146" t="str">
+        <f>IF(D146&lt;&gt;"255",B146,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B147" t="s">
         <v>145</v>
       </c>
       <c r="C147" t="str">
+        <f t="shared" si="5"/>
+        <v>cost_or_pricing_data</v>
+      </c>
+      <c r="D147" t="str">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="D147" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E147" t="str">
+        <f>IF(D147&lt;&gt;"255",B147,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B148" t="s">
         <v>146</v>
       </c>
       <c r="C148" t="str">
+        <f t="shared" si="5"/>
+        <v>cost_accounting_standards_clause_code</v>
+      </c>
+      <c r="D148" t="str">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="D148" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E148" t="str">
+        <f>IF(D148&lt;&gt;"255",B148,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B149" t="s">
         <v>147</v>
       </c>
       <c r="C149" t="str">
+        <f t="shared" si="5"/>
+        <v>cost_accounting_standards_clause</v>
+      </c>
+      <c r="D149" t="str">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="D149" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E149" t="str">
+        <f>IF(D149&lt;&gt;"255",B149,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B150" t="s">
         <v>148</v>
       </c>
       <c r="C150" t="str">
+        <f t="shared" si="5"/>
+        <v>gfe_gfp_code</v>
+      </c>
+      <c r="D150" t="str">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="D150" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E150" t="str">
+        <f>IF(D150&lt;&gt;"255",B150,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B151" t="s">
         <v>149</v>
       </c>
       <c r="C151" t="str">
+        <f t="shared" si="5"/>
+        <v>sea_transportation_code</v>
+      </c>
+      <c r="D151" t="str">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="D151" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E151" t="str">
+        <f>IF(D151&lt;&gt;"255",B151,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B152" t="s">
         <v>150</v>
       </c>
       <c r="C152" t="str">
+        <f t="shared" si="5"/>
+        <v>sea_transportation</v>
+      </c>
+      <c r="D152" t="str">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="D152" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E152" t="str">
+        <f>IF(D152&lt;&gt;"255",B152,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B153" t="s">
         <v>151</v>
       </c>
       <c r="C153" t="str">
+        <f t="shared" si="5"/>
+        <v>undefinitized_action_code</v>
+      </c>
+      <c r="D153" t="str">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="D153" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E153" t="str">
+        <f>IF(D153&lt;&gt;"255",B153,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B154" t="s">
         <v>152</v>
       </c>
       <c r="C154" t="str">
+        <f t="shared" si="5"/>
+        <v>undefinitized_action</v>
+      </c>
+      <c r="D154" t="str">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="D154" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E154" t="str">
+        <f>IF(D154&lt;&gt;"255",B154,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B155" t="s">
         <v>153</v>
       </c>
       <c r="C155" t="str">
+        <f t="shared" si="5"/>
+        <v>consolidated_contract_code</v>
+      </c>
+      <c r="D155" t="str">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="D155" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E155" t="str">
+        <f>IF(D155&lt;&gt;"255",B155,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B156" t="s">
         <v>154</v>
       </c>
       <c r="C156" t="str">
+        <f t="shared" si="5"/>
+        <v>consolidated_contract</v>
+      </c>
+      <c r="D156" t="str">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="D156" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E156" t="str">
+        <f>IF(D156&lt;&gt;"255",B156,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B157" t="s">
         <v>155</v>
       </c>
       <c r="C157" t="str">
+        <f t="shared" si="5"/>
+        <v>performance_based_service_acquisition_code</v>
+      </c>
+      <c r="D157" t="str">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="D157" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E157" t="str">
+        <f>IF(D157&lt;&gt;"255",B157,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B158" t="s">
         <v>156</v>
       </c>
       <c r="C158" t="str">
+        <f t="shared" si="5"/>
+        <v>performance_based_service_acquisition</v>
+      </c>
+      <c r="D158" t="str">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="D158" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E158" t="str">
+        <f>IF(D158&lt;&gt;"255",B158,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B159" t="s">
         <v>157</v>
       </c>
       <c r="C159" t="str">
+        <f t="shared" si="5"/>
+        <v>multi_year_contract_code</v>
+      </c>
+      <c r="D159" t="str">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="D159" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E159" t="str">
+        <f>IF(D159&lt;&gt;"255",B159,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B160" t="s">
         <v>158</v>
       </c>
       <c r="C160" t="str">
+        <f t="shared" si="5"/>
+        <v>multi_year_contract</v>
+      </c>
+      <c r="D160" t="str">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="D160" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E160" t="str">
+        <f>IF(D160&lt;&gt;"255",B160,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B161" t="s">
         <v>159</v>
       </c>
       <c r="C161" t="str">
+        <f t="shared" si="5"/>
+        <v>contract_financing_code</v>
+      </c>
+      <c r="D161" t="str">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="D161" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E161" t="str">
+        <f>IF(D161&lt;&gt;"255",B161,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B162" t="s">
         <v>160</v>
       </c>
       <c r="C162" t="str">
+        <f t="shared" si="5"/>
+        <v>contract_financing</v>
+      </c>
+      <c r="D162" t="str">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="D162" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E162" t="str">
+        <f>IF(D162&lt;&gt;"255",B162,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B163" t="s">
         <v>161</v>
       </c>
       <c r="C163" t="str">
+        <f t="shared" si="5"/>
+        <v>purchase_card_as_payment_method_code</v>
+      </c>
+      <c r="D163" t="str">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="D163" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E163" t="str">
+        <f>IF(D163&lt;&gt;"255",B163,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B164" t="s">
         <v>162</v>
       </c>
       <c r="C164" t="str">
+        <f t="shared" si="5"/>
+        <v>purchase_card_as_payment_method</v>
+      </c>
+      <c r="D164" t="str">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="D164" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E164" t="str">
+        <f>IF(D164&lt;&gt;"255",B164,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B165" t="s">
         <v>163</v>
       </c>
       <c r="C165" t="str">
+        <f t="shared" si="5"/>
+        <v>contingency_humanitarian_or_peacekeeping_operation_code</v>
+      </c>
+      <c r="D165" t="str">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="D165" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E165" t="str">
+        <f>IF(D165&lt;&gt;"255",B165,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B166" t="s">
         <v>164</v>
       </c>
       <c r="C166" t="str">
+        <f t="shared" si="5"/>
+        <v>contingency_humanitarian_or_peacekeeping_operation</v>
+      </c>
+      <c r="D166" t="str">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="D166" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E166" t="str">
+        <f>IF(D166&lt;&gt;"255",B166,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B167" t="s">
         <v>165</v>
       </c>
       <c r="C167" t="str">
+        <f t="shared" si="5"/>
+        <v>alaskan_native_owned_corporation_or_firm</v>
+      </c>
+      <c r="D167" t="str">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="D167" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E167" t="str">
+        <f>IF(D167&lt;&gt;"255",B167,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B168" t="s">
         <v>166</v>
       </c>
       <c r="C168" t="str">
+        <f t="shared" si="5"/>
+        <v>american_indian_owned_business</v>
+      </c>
+      <c r="D168" t="str">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="D168" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E168" t="str">
+        <f>IF(D168&lt;&gt;"255",B168,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B169" t="s">
         <v>167</v>
       </c>
       <c r="C169" t="str">
+        <f t="shared" si="5"/>
+        <v>indian_tribe_federally_recognized</v>
+      </c>
+      <c r="D169" t="str">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="D169" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E169" t="str">
+        <f>IF(D169&lt;&gt;"255",B169,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B170" t="s">
         <v>168</v>
       </c>
       <c r="C170" t="str">
+        <f t="shared" si="5"/>
+        <v>native_hawaiian_owned_business</v>
+      </c>
+      <c r="D170" t="str">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="D170" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E170" t="str">
+        <f>IF(D170&lt;&gt;"255",B170,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B171" t="s">
         <v>169</v>
       </c>
       <c r="C171" t="str">
+        <f t="shared" si="5"/>
+        <v>tribally_owned_business</v>
+      </c>
+      <c r="D171" t="str">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="D171" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E171" t="str">
+        <f>IF(D171&lt;&gt;"255",B171,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B172" t="s">
         <v>170</v>
       </c>
       <c r="C172" t="str">
+        <f t="shared" si="5"/>
+        <v>veteran_owned_business</v>
+      </c>
+      <c r="D172" t="str">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="D172" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E172" t="str">
+        <f>IF(D172&lt;&gt;"255",B172,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B173" t="s">
         <v>171</v>
       </c>
       <c r="C173" t="str">
+        <f t="shared" si="5"/>
+        <v>service_disabled_veteran_owned_business</v>
+      </c>
+      <c r="D173" t="str">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="D173" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E173" t="str">
+        <f>IF(D173&lt;&gt;"255",B173,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B174" t="s">
         <v>172</v>
       </c>
       <c r="C174" t="str">
+        <f t="shared" si="5"/>
+        <v>woman_owned_business</v>
+      </c>
+      <c r="D174" t="str">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="D174" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E174" t="str">
+        <f>IF(D174&lt;&gt;"255",B174,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B175" t="s">
         <v>173</v>
       </c>
       <c r="C175" t="str">
+        <f t="shared" si="5"/>
+        <v>women_owned_small_business</v>
+      </c>
+      <c r="D175" t="str">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="D175" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E175" t="str">
+        <f>IF(D175&lt;&gt;"255",B175,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B176" t="s">
         <v>174</v>
       </c>
       <c r="C176" t="str">
+        <f t="shared" si="5"/>
+        <v>economically_disadvantaged_women_owned_small_business</v>
+      </c>
+      <c r="D176" t="str">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="D176" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E176" t="str">
+        <f>IF(D176&lt;&gt;"255",B176,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B177" t="s">
         <v>175</v>
       </c>
       <c r="C177" t="str">
+        <f t="shared" si="5"/>
+        <v>joint_venture_women_owned_small_business</v>
+      </c>
+      <c r="D177" t="str">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="D177" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E177" t="str">
+        <f>IF(D177&lt;&gt;"255",B177,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B178" t="s">
         <v>176</v>
       </c>
       <c r="C178" t="str">
+        <f t="shared" si="5"/>
+        <v>joint_venture_economic_disadvantaged_women_owned_small_bus</v>
+      </c>
+      <c r="D178" t="str">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="D178" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E178" t="str">
+        <f>IF(D178&lt;&gt;"255",B178,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B179" t="s">
         <v>177</v>
       </c>
       <c r="C179" t="str">
+        <f t="shared" si="5"/>
+        <v>minority_owned_business</v>
+      </c>
+      <c r="D179" t="str">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="D179" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E179" t="str">
+        <f>IF(D179&lt;&gt;"255",B179,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B180" t="s">
         <v>178</v>
       </c>
       <c r="C180" t="str">
+        <f t="shared" si="5"/>
+        <v>subcontinent_asian_asian_indian_american_owned_business</v>
+      </c>
+      <c r="D180" t="str">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="D180" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E180" t="str">
+        <f>IF(D180&lt;&gt;"255",B180,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B181" t="s">
         <v>179</v>
       </c>
       <c r="C181" t="str">
+        <f t="shared" si="5"/>
+        <v>asian_pacific_american_owned_business</v>
+      </c>
+      <c r="D181" t="str">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="D181" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E181" t="str">
+        <f>IF(D181&lt;&gt;"255",B181,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B182" t="s">
         <v>180</v>
       </c>
       <c r="C182" t="str">
+        <f t="shared" si="5"/>
+        <v>black_american_owned_business</v>
+      </c>
+      <c r="D182" t="str">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="D182" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E182" t="str">
+        <f>IF(D182&lt;&gt;"255",B182,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B183" t="s">
         <v>181</v>
       </c>
       <c r="C183" t="str">
+        <f t="shared" si="5"/>
+        <v>hispanic_american_owned_business</v>
+      </c>
+      <c r="D183" t="str">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="D183" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E183" t="str">
+        <f>IF(D183&lt;&gt;"255",B183,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B184" t="s">
         <v>182</v>
       </c>
       <c r="C184" t="str">
+        <f t="shared" si="5"/>
+        <v>native_american_owned_business</v>
+      </c>
+      <c r="D184" t="str">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="D184" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E184" t="str">
+        <f>IF(D184&lt;&gt;"255",B184,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B185" t="s">
         <v>183</v>
       </c>
       <c r="C185" t="str">
+        <f t="shared" si="5"/>
+        <v>other_minority_owned_business</v>
+      </c>
+      <c r="D185" t="str">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="D185" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E185" t="str">
+        <f>IF(D185&lt;&gt;"255",B185,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B186" t="s">
         <v>184</v>
       </c>
       <c r="C186" t="str">
+        <f t="shared" si="5"/>
+        <v>contracting_officers_determination_of_business_size</v>
+      </c>
+      <c r="D186" t="str">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="D186" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E186" t="str">
+        <f>IF(D186&lt;&gt;"255",B186,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B187" t="s">
         <v>185</v>
       </c>
       <c r="C187" t="str">
+        <f t="shared" si="5"/>
+        <v>contracting_officers_determination_of_business_size_code</v>
+      </c>
+      <c r="D187" t="str">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="D187" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E187" t="str">
+        <f>IF(D187&lt;&gt;"255",B187,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B188" t="s">
         <v>186</v>
       </c>
       <c r="C188" t="str">
+        <f t="shared" si="5"/>
+        <v>emerging_small_business</v>
+      </c>
+      <c r="D188" t="str">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="D188" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E188" t="str">
+        <f>IF(D188&lt;&gt;"255",B188,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B189" t="s">
         <v>187</v>
       </c>
       <c r="C189" t="str">
+        <f t="shared" si="5"/>
+        <v>community_developed_corporation_owned_firm</v>
+      </c>
+      <c r="D189" t="str">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="D189" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E189" t="str">
+        <f>IF(D189&lt;&gt;"255",B189,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B190" t="s">
         <v>188</v>
       </c>
       <c r="C190" t="str">
+        <f t="shared" si="5"/>
+        <v>labor_surplus_area_firm</v>
+      </c>
+      <c r="D190" t="str">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="D190" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E190" t="str">
+        <f>IF(D190&lt;&gt;"255",B190,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B191" t="s">
         <v>189</v>
       </c>
       <c r="C191" t="str">
+        <f t="shared" si="5"/>
+        <v>us_federal_government</v>
+      </c>
+      <c r="D191" t="str">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="D191" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E191" t="str">
+        <f>IF(D191&lt;&gt;"255",B191,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B192" t="s">
         <v>190</v>
       </c>
       <c r="C192" t="str">
+        <f t="shared" si="5"/>
+        <v>federally_funded_research_and_development_corp</v>
+      </c>
+      <c r="D192" t="str">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="D192" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E192" t="str">
+        <f>IF(D192&lt;&gt;"255",B192,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B193" t="s">
         <v>191</v>
       </c>
       <c r="C193" t="str">
+        <f t="shared" si="5"/>
+        <v>federal_agency</v>
+      </c>
+      <c r="D193" t="str">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="D193" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E193" t="str">
+        <f>IF(D193&lt;&gt;"255",B193,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B194" t="s">
         <v>192</v>
       </c>
       <c r="C194" t="str">
+        <f t="shared" si="5"/>
+        <v>us_state_government</v>
+      </c>
+      <c r="D194" t="str">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="D194" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E194" t="str">
+        <f>IF(D194&lt;&gt;"255",B194,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B195" t="s">
         <v>193</v>
       </c>
       <c r="C195" t="str">
+        <f t="shared" si="5"/>
+        <v>us_local_government</v>
+      </c>
+      <c r="D195" t="str">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="D195" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E195" t="str">
+        <f>IF(D195&lt;&gt;"255",B195,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B196" t="s">
         <v>194</v>
       </c>
       <c r="C196" t="str">
+        <f t="shared" si="5"/>
+        <v>city_local_government</v>
+      </c>
+      <c r="D196" t="str">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="D196" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E196" t="str">
+        <f>IF(D196&lt;&gt;"255",B196,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B197" t="s">
         <v>195</v>
       </c>
       <c r="C197" t="str">
+        <f t="shared" si="5"/>
+        <v>county_local_government</v>
+      </c>
+      <c r="D197" t="str">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="D197" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E197" t="str">
+        <f>IF(D197&lt;&gt;"255",B197,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B198" t="s">
         <v>196</v>
       </c>
       <c r="C198" t="str">
-        <f t="shared" si="4"/>
-        <v>255</v>
+        <f t="shared" si="5"/>
+        <v>inter_municipal_local_government</v>
       </c>
       <c r="D198" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
+        <f t="shared" ref="D198:D261" si="6">MID(LEFT(RIGHT(B198,11),FIND(")",RIGHT(B198,11))-1),IF(LEFT(RIGHT(B198,11),1)="(",2,1),999)</f>
+        <v>255</v>
+      </c>
+      <c r="E198" t="str">
+        <f>IF(D198&lt;&gt;"255",B198,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B199" t="s">
         <v>197</v>
       </c>
       <c r="C199" t="str">
-        <f t="shared" ref="C199:C262" si="6">LEFT(RIGHT(B199,10),3)</f>
-        <v>255</v>
+        <f t="shared" ref="C199:C262" si="7">MID(B199,2,FIND("]",B199)-2)</f>
+        <v>local_government_owned</v>
       </c>
       <c r="D199" t="str">
-        <f t="shared" ref="D199:D262" si="7">IF(C199&lt;&gt;"255",B199,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="E199" t="str">
+        <f>IF(D199&lt;&gt;"255",B199,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B200" t="s">
         <v>198</v>
       </c>
       <c r="C200" t="str">
+        <f t="shared" si="7"/>
+        <v>municipality_local_government</v>
+      </c>
+      <c r="D200" t="str">
         <f t="shared" si="6"/>
         <v>255</v>
       </c>
-      <c r="D200" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E200" t="str">
+        <f>IF(D200&lt;&gt;"255",B200,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B201" t="s">
         <v>199</v>
       </c>
       <c r="C201" t="str">
+        <f t="shared" si="7"/>
+        <v>school_district_local_government</v>
+      </c>
+      <c r="D201" t="str">
         <f t="shared" si="6"/>
         <v>255</v>
       </c>
-      <c r="D201" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E201" t="str">
+        <f>IF(D201&lt;&gt;"255",B201,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="202" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B202" t="s">
         <v>200</v>
       </c>
       <c r="C202" t="str">
+        <f t="shared" si="7"/>
+        <v>township_local_government</v>
+      </c>
+      <c r="D202" t="str">
         <f t="shared" si="6"/>
         <v>255</v>
       </c>
-      <c r="D202" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E202" t="str">
+        <f>IF(D202&lt;&gt;"255",B202,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B203" t="s">
         <v>201</v>
       </c>
       <c r="C203" t="str">
+        <f t="shared" si="7"/>
+        <v>us_tribal_government</v>
+      </c>
+      <c r="D203" t="str">
         <f t="shared" si="6"/>
         <v>255</v>
       </c>
-      <c r="D203" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E203" t="str">
+        <f>IF(D203&lt;&gt;"255",B203,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="204" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B204" t="s">
         <v>202</v>
       </c>
       <c r="C204" t="str">
+        <f t="shared" si="7"/>
+        <v>foreign_government</v>
+      </c>
+      <c r="D204" t="str">
         <f t="shared" si="6"/>
         <v>255</v>
       </c>
-      <c r="D204" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E204" t="str">
+        <f>IF(D204&lt;&gt;"255",B204,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="205" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B205" t="s">
         <v>203</v>
       </c>
       <c r="C205" t="str">
+        <f t="shared" si="7"/>
+        <v>corporate_entity_not_tax_exempt</v>
+      </c>
+      <c r="D205" t="str">
         <f t="shared" si="6"/>
         <v>255</v>
       </c>
-      <c r="D205" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E205" t="str">
+        <f>IF(D205&lt;&gt;"255",B205,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B206" t="s">
         <v>204</v>
       </c>
       <c r="C206" t="str">
+        <f t="shared" si="7"/>
+        <v>corporate_entity_tax_exempt</v>
+      </c>
+      <c r="D206" t="str">
         <f t="shared" si="6"/>
         <v>255</v>
       </c>
-      <c r="D206" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="207" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E206" t="str">
+        <f>IF(D206&lt;&gt;"255",B206,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="207" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B207" t="s">
         <v>205</v>
       </c>
       <c r="C207" t="str">
+        <f t="shared" si="7"/>
+        <v>partnership_or_limited_liability_partnership</v>
+      </c>
+      <c r="D207" t="str">
         <f t="shared" si="6"/>
         <v>255</v>
       </c>
-      <c r="D207" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="208" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E207" t="str">
+        <f>IF(D207&lt;&gt;"255",B207,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="208" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B208" t="s">
         <v>206</v>
       </c>
       <c r="C208" t="str">
+        <f t="shared" si="7"/>
+        <v>sole_proprietorship</v>
+      </c>
+      <c r="D208" t="str">
         <f t="shared" si="6"/>
         <v>255</v>
       </c>
-      <c r="D208" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="209" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E208" t="str">
+        <f>IF(D208&lt;&gt;"255",B208,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B209" t="s">
         <v>207</v>
       </c>
       <c r="C209" t="str">
+        <f t="shared" si="7"/>
+        <v>small_agricultural_cooperative</v>
+      </c>
+      <c r="D209" t="str">
         <f t="shared" si="6"/>
         <v>255</v>
       </c>
-      <c r="D209" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="210" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E209" t="str">
+        <f>IF(D209&lt;&gt;"255",B209,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="210" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B210" t="s">
         <v>208</v>
       </c>
       <c r="C210" t="str">
+        <f t="shared" si="7"/>
+        <v>international_organization</v>
+      </c>
+      <c r="D210" t="str">
         <f t="shared" si="6"/>
         <v>255</v>
       </c>
-      <c r="D210" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="211" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E210" t="str">
+        <f>IF(D210&lt;&gt;"255",B210,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B211" t="s">
         <v>209</v>
       </c>
       <c r="C211" t="str">
+        <f t="shared" si="7"/>
+        <v>us_government_entity</v>
+      </c>
+      <c r="D211" t="str">
         <f t="shared" si="6"/>
         <v>255</v>
       </c>
-      <c r="D211" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="212" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E211" t="str">
+        <f>IF(D211&lt;&gt;"255",B211,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="212" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B212" t="s">
         <v>210</v>
       </c>
       <c r="C212" t="str">
+        <f t="shared" si="7"/>
+        <v>community_development_corporation</v>
+      </c>
+      <c r="D212" t="str">
         <f t="shared" si="6"/>
         <v>255</v>
       </c>
-      <c r="D212" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="213" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E212" t="str">
+        <f>IF(D212&lt;&gt;"255",B212,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B213" t="s">
         <v>211</v>
       </c>
       <c r="C213" t="str">
+        <f t="shared" si="7"/>
+        <v>domestic_shelter</v>
+      </c>
+      <c r="D213" t="str">
         <f t="shared" si="6"/>
         <v>255</v>
       </c>
-      <c r="D213" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="214" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E213" t="str">
+        <f>IF(D213&lt;&gt;"255",B213,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="214" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B214" t="s">
         <v>212</v>
       </c>
       <c r="C214" t="str">
+        <f t="shared" si="7"/>
+        <v>educational_institution</v>
+      </c>
+      <c r="D214" t="str">
         <f t="shared" si="6"/>
         <v>255</v>
       </c>
-      <c r="D214" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="215" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E214" t="str">
+        <f>IF(D214&lt;&gt;"255",B214,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B215" t="s">
         <v>213</v>
       </c>
       <c r="C215" t="str">
+        <f t="shared" si="7"/>
+        <v>foundation</v>
+      </c>
+      <c r="D215" t="str">
         <f t="shared" si="6"/>
         <v>255</v>
       </c>
-      <c r="D215" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="216" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E215" t="str">
+        <f>IF(D215&lt;&gt;"255",B215,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B216" t="s">
         <v>214</v>
       </c>
       <c r="C216" t="str">
+        <f t="shared" si="7"/>
+        <v>hospital_flag</v>
+      </c>
+      <c r="D216" t="str">
         <f t="shared" si="6"/>
         <v>255</v>
       </c>
-      <c r="D216" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="217" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E216" t="str">
+        <f>IF(D216&lt;&gt;"255",B216,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="217" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B217" t="s">
         <v>215</v>
       </c>
       <c r="C217" t="str">
+        <f t="shared" si="7"/>
+        <v>manufacturer_of_goods</v>
+      </c>
+      <c r="D217" t="str">
         <f t="shared" si="6"/>
         <v>255</v>
       </c>
-      <c r="D217" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="218" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E217" t="str">
+        <f>IF(D217&lt;&gt;"255",B217,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="218" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B218" t="s">
         <v>216</v>
       </c>
       <c r="C218" t="str">
+        <f t="shared" si="7"/>
+        <v>veterinary_hospital</v>
+      </c>
+      <c r="D218" t="str">
         <f t="shared" si="6"/>
         <v>255</v>
       </c>
-      <c r="D218" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="219" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E218" t="str">
+        <f>IF(D218&lt;&gt;"255",B218,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="219" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B219" t="s">
         <v>217</v>
       </c>
       <c r="C219" t="str">
+        <f t="shared" si="7"/>
+        <v>hispanic_servicing_institution</v>
+      </c>
+      <c r="D219" t="str">
         <f t="shared" si="6"/>
         <v>255</v>
       </c>
-      <c r="D219" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="220" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E219" t="str">
+        <f>IF(D219&lt;&gt;"255",B219,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B220" t="s">
         <v>218</v>
       </c>
       <c r="C220" t="str">
+        <f t="shared" si="7"/>
+        <v>receives_contracts</v>
+      </c>
+      <c r="D220" t="str">
         <f t="shared" si="6"/>
         <v>255</v>
       </c>
-      <c r="D220" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="221" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E220" t="str">
+        <f>IF(D220&lt;&gt;"255",B220,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="221" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B221" t="s">
         <v>219</v>
       </c>
       <c r="C221" t="str">
+        <f t="shared" si="7"/>
+        <v>receives_grants</v>
+      </c>
+      <c r="D221" t="str">
         <f t="shared" si="6"/>
         <v>255</v>
       </c>
-      <c r="D221" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="222" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E221" t="str">
+        <f>IF(D221&lt;&gt;"255",B221,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="222" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B222" t="s">
         <v>220</v>
       </c>
       <c r="C222" t="str">
+        <f t="shared" si="7"/>
+        <v>receives_contracts_and_grants</v>
+      </c>
+      <c r="D222" t="str">
         <f t="shared" si="6"/>
         <v>255</v>
       </c>
-      <c r="D222" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="223" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E222" t="str">
+        <f>IF(D222&lt;&gt;"255",B222,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="223" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B223" t="s">
         <v>221</v>
       </c>
       <c r="C223" t="str">
+        <f t="shared" si="7"/>
+        <v>airport_authority</v>
+      </c>
+      <c r="D223" t="str">
         <f t="shared" si="6"/>
         <v>255</v>
       </c>
-      <c r="D223" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="224" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E223" t="str">
+        <f>IF(D223&lt;&gt;"255",B223,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="224" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B224" t="s">
         <v>222</v>
       </c>
       <c r="C224" t="str">
+        <f t="shared" si="7"/>
+        <v>council_of_governments</v>
+      </c>
+      <c r="D224" t="str">
         <f t="shared" si="6"/>
         <v>255</v>
       </c>
-      <c r="D224" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="225" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E224" t="str">
+        <f>IF(D224&lt;&gt;"255",B224,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="225" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B225" t="s">
         <v>223</v>
       </c>
       <c r="C225" t="str">
+        <f t="shared" si="7"/>
+        <v>housing_authorities_public_tribal</v>
+      </c>
+      <c r="D225" t="str">
         <f t="shared" si="6"/>
         <v>255</v>
       </c>
-      <c r="D225" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="226" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E225" t="str">
+        <f>IF(D225&lt;&gt;"255",B225,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="226" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B226" t="s">
         <v>224</v>
       </c>
       <c r="C226" t="str">
+        <f t="shared" si="7"/>
+        <v>interstate_entity</v>
+      </c>
+      <c r="D226" t="str">
         <f t="shared" si="6"/>
         <v>255</v>
       </c>
-      <c r="D226" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="227" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E226" t="str">
+        <f>IF(D226&lt;&gt;"255",B226,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="227" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B227" t="s">
         <v>225</v>
       </c>
       <c r="C227" t="str">
+        <f t="shared" si="7"/>
+        <v>planning_commission</v>
+      </c>
+      <c r="D227" t="str">
         <f t="shared" si="6"/>
         <v>255</v>
       </c>
-      <c r="D227" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="228" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E227" t="str">
+        <f>IF(D227&lt;&gt;"255",B227,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="228" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B228" t="s">
         <v>226</v>
       </c>
       <c r="C228" t="str">
+        <f t="shared" si="7"/>
+        <v>port_authority</v>
+      </c>
+      <c r="D228" t="str">
         <f t="shared" si="6"/>
         <v>255</v>
       </c>
-      <c r="D228" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="229" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E228" t="str">
+        <f>IF(D228&lt;&gt;"255",B228,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="229" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B229" t="s">
         <v>227</v>
       </c>
       <c r="C229" t="str">
+        <f t="shared" si="7"/>
+        <v>transit_authority</v>
+      </c>
+      <c r="D229" t="str">
         <f t="shared" si="6"/>
         <v>255</v>
       </c>
-      <c r="D229" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="230" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E229" t="str">
+        <f>IF(D229&lt;&gt;"255",B229,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="230" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B230" t="s">
         <v>228</v>
       </c>
       <c r="C230" t="str">
+        <f t="shared" si="7"/>
+        <v>subchapter_scorporation</v>
+      </c>
+      <c r="D230" t="str">
         <f t="shared" si="6"/>
         <v>255</v>
       </c>
-      <c r="D230" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="231" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E230" t="str">
+        <f>IF(D230&lt;&gt;"255",B230,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="231" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B231" t="s">
         <v>229</v>
       </c>
       <c r="C231" t="str">
+        <f t="shared" si="7"/>
+        <v>limited_liability_corporation</v>
+      </c>
+      <c r="D231" t="str">
         <f t="shared" si="6"/>
         <v>255</v>
       </c>
-      <c r="D231" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="232" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E231" t="str">
+        <f>IF(D231&lt;&gt;"255",B231,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="232" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B232" t="s">
         <v>230</v>
       </c>
       <c r="C232" t="str">
+        <f t="shared" si="7"/>
+        <v>foreign_owned_and_located</v>
+      </c>
+      <c r="D232" t="str">
         <f t="shared" si="6"/>
         <v>255</v>
       </c>
-      <c r="D232" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="233" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E232" t="str">
+        <f>IF(D232&lt;&gt;"255",B232,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="233" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B233" t="s">
         <v>231</v>
       </c>
       <c r="C233" t="str">
+        <f t="shared" si="7"/>
+        <v>for_profit_organization</v>
+      </c>
+      <c r="D233" t="str">
         <f t="shared" si="6"/>
         <v>255</v>
       </c>
-      <c r="D233" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="234" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E233" t="str">
+        <f>IF(D233&lt;&gt;"255",B233,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="234" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B234" t="s">
         <v>232</v>
       </c>
       <c r="C234" t="str">
+        <f t="shared" si="7"/>
+        <v>nonprofit_organization</v>
+      </c>
+      <c r="D234" t="str">
         <f t="shared" si="6"/>
         <v>255</v>
       </c>
-      <c r="D234" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="235" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E234" t="str">
+        <f>IF(D234&lt;&gt;"255",B234,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="235" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B235" t="s">
         <v>233</v>
       </c>
       <c r="C235" t="str">
+        <f t="shared" si="7"/>
+        <v>other_not_for_profit_organization</v>
+      </c>
+      <c r="D235" t="str">
         <f t="shared" si="6"/>
         <v>255</v>
       </c>
-      <c r="D235" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="236" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E235" t="str">
+        <f>IF(D235&lt;&gt;"255",B235,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="236" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B236" t="s">
         <v>234</v>
       </c>
       <c r="C236" t="str">
+        <f t="shared" si="7"/>
+        <v>the_ability_one_program</v>
+      </c>
+      <c r="D236" t="str">
         <f t="shared" si="6"/>
         <v>255</v>
       </c>
-      <c r="D236" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="237" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E236" t="str">
+        <f>IF(D236&lt;&gt;"255",B236,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="237" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B237" t="s">
         <v>235</v>
       </c>
       <c r="C237" t="str">
+        <f t="shared" si="7"/>
+        <v>private_university_or_college</v>
+      </c>
+      <c r="D237" t="str">
         <f t="shared" si="6"/>
         <v>255</v>
       </c>
-      <c r="D237" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="238" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E237" t="str">
+        <f>IF(D237&lt;&gt;"255",B237,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="238" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B238" t="s">
         <v>236</v>
       </c>
       <c r="C238" t="str">
+        <f t="shared" si="7"/>
+        <v>state_controlled_institution_of_higher_learning</v>
+      </c>
+      <c r="D238" t="str">
         <f t="shared" si="6"/>
         <v>255</v>
       </c>
-      <c r="D238" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="239" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E238" t="str">
+        <f>IF(D238&lt;&gt;"255",B238,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="239" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B239" t="s">
         <v>237</v>
       </c>
       <c r="C239" t="str">
+        <f t="shared" si="7"/>
+        <v>1862_land_grant_college</v>
+      </c>
+      <c r="D239" t="str">
         <f t="shared" si="6"/>
         <v>255</v>
       </c>
-      <c r="D239" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="240" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E239" t="str">
+        <f>IF(D239&lt;&gt;"255",B239,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="240" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B240" t="s">
         <v>238</v>
       </c>
       <c r="C240" t="str">
+        <f t="shared" si="7"/>
+        <v>1890_land_grant_college</v>
+      </c>
+      <c r="D240" t="str">
         <f t="shared" si="6"/>
         <v>255</v>
       </c>
-      <c r="D240" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="241" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E240" t="str">
+        <f>IF(D240&lt;&gt;"255",B240,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="241" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B241" t="s">
         <v>239</v>
       </c>
       <c r="C241" t="str">
+        <f t="shared" si="7"/>
+        <v>1994_land_grant_college</v>
+      </c>
+      <c r="D241" t="str">
         <f t="shared" si="6"/>
         <v>255</v>
       </c>
-      <c r="D241" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="242" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E241" t="str">
+        <f>IF(D241&lt;&gt;"255",B241,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="242" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B242" t="s">
         <v>240</v>
       </c>
       <c r="C242" t="str">
+        <f t="shared" si="7"/>
+        <v>minority_institution</v>
+      </c>
+      <c r="D242" t="str">
         <f t="shared" si="6"/>
         <v>255</v>
       </c>
-      <c r="D242" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="243" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E242" t="str">
+        <f>IF(D242&lt;&gt;"255",B242,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="243" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B243" t="s">
         <v>241</v>
       </c>
       <c r="C243" t="str">
+        <f t="shared" si="7"/>
+        <v>historically_black_college</v>
+      </c>
+      <c r="D243" t="str">
         <f t="shared" si="6"/>
         <v>255</v>
       </c>
-      <c r="D243" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="244" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E243" t="str">
+        <f>IF(D243&lt;&gt;"255",B243,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B244" t="s">
         <v>242</v>
       </c>
       <c r="C244" t="str">
+        <f t="shared" si="7"/>
+        <v>tribal_college</v>
+      </c>
+      <c r="D244" t="str">
         <f t="shared" si="6"/>
         <v>255</v>
       </c>
-      <c r="D244" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="245" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E244" t="str">
+        <f>IF(D244&lt;&gt;"255",B244,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="245" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B245" t="s">
         <v>243</v>
       </c>
       <c r="C245" t="str">
+        <f t="shared" si="7"/>
+        <v>alaskan_native_servicing_institution</v>
+      </c>
+      <c r="D245" t="str">
         <f t="shared" si="6"/>
         <v>255</v>
       </c>
-      <c r="D245" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="246" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E245" t="str">
+        <f>IF(D245&lt;&gt;"255",B245,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="246" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B246" t="s">
         <v>244</v>
       </c>
       <c r="C246" t="str">
+        <f t="shared" si="7"/>
+        <v>native_hawaiian_servicing_institution</v>
+      </c>
+      <c r="D246" t="str">
         <f t="shared" si="6"/>
         <v>255</v>
       </c>
-      <c r="D246" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="247" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E246" t="str">
+        <f>IF(D246&lt;&gt;"255",B246,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="247" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B247" t="s">
         <v>245</v>
       </c>
       <c r="C247" t="str">
+        <f t="shared" si="7"/>
+        <v>school_of_forestry</v>
+      </c>
+      <c r="D247" t="str">
         <f t="shared" si="6"/>
         <v>255</v>
       </c>
-      <c r="D247" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="248" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E247" t="str">
+        <f>IF(D247&lt;&gt;"255",B247,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="248" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B248" t="s">
         <v>246</v>
       </c>
       <c r="C248" t="str">
+        <f t="shared" si="7"/>
+        <v>veterinary_college</v>
+      </c>
+      <c r="D248" t="str">
         <f t="shared" si="6"/>
         <v>255</v>
       </c>
-      <c r="D248" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="249" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E248" t="str">
+        <f>IF(D248&lt;&gt;"255",B248,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="249" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B249" t="s">
         <v>247</v>
       </c>
       <c r="C249" t="str">
+        <f t="shared" si="7"/>
+        <v>dot_certified_disadvantage</v>
+      </c>
+      <c r="D249" t="str">
         <f t="shared" si="6"/>
         <v>255</v>
       </c>
-      <c r="D249" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="250" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E249" t="str">
+        <f>IF(D249&lt;&gt;"255",B249,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="250" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B250" t="s">
         <v>248</v>
       </c>
       <c r="C250" t="str">
+        <f t="shared" si="7"/>
+        <v>self_certified_small_disadvantaged_business</v>
+      </c>
+      <c r="D250" t="str">
         <f t="shared" si="6"/>
         <v>255</v>
       </c>
-      <c r="D250" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="251" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E250" t="str">
+        <f>IF(D250&lt;&gt;"255",B250,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="251" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B251" t="s">
         <v>249</v>
       </c>
       <c r="C251" t="str">
+        <f t="shared" si="7"/>
+        <v>small_disadvantaged_business</v>
+      </c>
+      <c r="D251" t="str">
         <f t="shared" si="6"/>
         <v>255</v>
       </c>
-      <c r="D251" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="252" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E251" t="str">
+        <f>IF(D251&lt;&gt;"255",B251,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="252" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B252" t="s">
         <v>250</v>
       </c>
       <c r="C252" t="str">
+        <f t="shared" si="7"/>
+        <v>c8a_program_participant</v>
+      </c>
+      <c r="D252" t="str">
         <f t="shared" si="6"/>
         <v>255</v>
       </c>
-      <c r="D252" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="253" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E252" t="str">
+        <f>IF(D252&lt;&gt;"255",B252,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="253" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B253" t="s">
         <v>251</v>
       </c>
       <c r="C253" t="str">
+        <f t="shared" si="7"/>
+        <v>historically_underutilized_business_zone_hubzone_firm</v>
+      </c>
+      <c r="D253" t="str">
         <f t="shared" si="6"/>
         <v>255</v>
       </c>
-      <c r="D253" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="254" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E253" t="str">
+        <f>IF(D253&lt;&gt;"255",B253,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="254" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B254" t="s">
         <v>252</v>
       </c>
       <c r="C254" t="str">
+        <f t="shared" si="7"/>
+        <v>sba_certified_8a_joint_venture</v>
+      </c>
+      <c r="D254" t="str">
         <f t="shared" si="6"/>
         <v>255</v>
       </c>
-      <c r="D254" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="255" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E254" t="str">
+        <f>IF(D254&lt;&gt;"255",B254,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="255" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B255" t="s">
         <v>253</v>
       </c>
       <c r="C255" t="str">
+        <f t="shared" si="7"/>
+        <v>CSISmodifiedDate</v>
+      </c>
+      <c r="D255" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> NO</v>
-      </c>
-      <c r="D255" t="str">
-        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E255" t="str">
+        <f>IF(D255&lt;&gt;"255",B255,"")</f>
         <v>[CSISmodifiedDate] [datetime2](7) NOT NULL,</v>
       </c>
     </row>
-    <row r="256" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B256" t="s">
         <v>254</v>
       </c>
       <c r="C256" t="str">
+        <f t="shared" si="7"/>
+        <v>CSIScreatedDate</v>
+      </c>
+      <c r="D256" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> NO</v>
-      </c>
-      <c r="D256" t="str">
+        <v/>
+      </c>
+      <c r="E256" t="str">
+        <f>IF(D256&lt;&gt;"255",B256,"")</f>
+        <v>[CSIScreatedDate] [datetime2](7) NOT NULL,</v>
+      </c>
+    </row>
+    <row r="257" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B257" t="s">
+        <v>255</v>
+      </c>
+      <c r="C257" t="str">
         <f t="shared" si="7"/>
-        <v>[CSIScreatedDate] [datetime2](7) NOT NULL,</v>
-      </c>
-    </row>
-    <row r="257" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B257" t="s">
-        <v>255</v>
-      </c>
-      <c r="C257" t="str">
+        <v>IsDuplicateUTI</v>
+      </c>
+      <c r="D257" t="e">
         <f t="shared" si="6"/>
-        <v>bit</v>
-      </c>
-      <c r="D257" t="str">
-        <f t="shared" si="7"/>
-        <v>[IsDuplicateUTI] [bit] NULL,</v>
-      </c>
-    </row>
-    <row r="258" spans="2:4" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E257" t="e">
+        <f>IF(D257&lt;&gt;"255",B257,"")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="258" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B258" t="s">
         <v>256</v>
       </c>
       <c r="C258" t="str">
+        <f t="shared" si="7"/>
+        <v>current_total_value_of_award</v>
+      </c>
+      <c r="D258" t="str">
         <f t="shared" si="6"/>
         <v>255</v>
       </c>
-      <c r="D258" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="259" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E258" t="str">
+        <f>IF(D258&lt;&gt;"255",B258,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="259" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B259" t="s">
         <v>257</v>
       </c>
       <c r="C259" t="str">
+        <f t="shared" si="7"/>
+        <v>potential_total_value_of_award</v>
+      </c>
+      <c r="D259" t="str">
         <f t="shared" si="6"/>
         <v>255</v>
       </c>
-      <c r="D259" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="260" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E259" t="str">
+        <f>IF(D259&lt;&gt;"255",B259,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="260" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B260" t="s">
         <v>258</v>
       </c>
       <c r="C260" t="str">
+        <f t="shared" si="7"/>
+        <v>sam_exception_description</v>
+      </c>
+      <c r="D260" t="str">
         <f t="shared" si="6"/>
         <v>255</v>
       </c>
-      <c r="D260" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="261" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E260" t="str">
+        <f>IF(D260&lt;&gt;"255",B260,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="261" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B261" t="s">
         <v>259</v>
       </c>
       <c r="C261" t="str">
+        <f t="shared" si="7"/>
+        <v>cage_code</v>
+      </c>
+      <c r="D261" t="str">
         <f t="shared" si="6"/>
         <v>255</v>
       </c>
-      <c r="D261" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="262" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E261" t="str">
+        <f>IF(D261&lt;&gt;"255",B261,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="262" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B262" t="s">
         <v>260</v>
       </c>
       <c r="C262" t="str">
-        <f t="shared" si="6"/>
-        <v>255</v>
+        <f t="shared" si="7"/>
+        <v>award_or_idv_flag</v>
       </c>
       <c r="D262" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="263" spans="2:4" x14ac:dyDescent="0.25">
+        <f t="shared" ref="D262:D295" si="8">MID(LEFT(RIGHT(B262,11),FIND(")",RIGHT(B262,11))-1),IF(LEFT(RIGHT(B262,11),1)="(",2,1),999)</f>
+        <v>255</v>
+      </c>
+      <c r="E262" t="str">
+        <f>IF(D262&lt;&gt;"255",B262,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="263" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B263" t="s">
         <v>261</v>
       </c>
       <c r="C263" t="str">
-        <f t="shared" ref="C263:C295" si="8">LEFT(RIGHT(B263,10),3)</f>
-        <v>255</v>
+        <f t="shared" ref="C263:C295" si="9">MID(B263,2,FIND("]",B263)-2)</f>
+        <v>inherently_governmental_functions</v>
       </c>
       <c r="D263" t="str">
-        <f t="shared" ref="D263:D295" si="9">IF(C263&lt;&gt;"255",B263,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="264" spans="2:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>255</v>
+      </c>
+      <c r="E263" t="str">
+        <f>IF(D263&lt;&gt;"255",B263,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="264" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B264" t="s">
         <v>262</v>
       </c>
       <c r="C264" t="str">
+        <f t="shared" si="9"/>
+        <v>inherently_governmental_functions_description</v>
+      </c>
+      <c r="D264" t="str">
         <f t="shared" si="8"/>
         <v>255</v>
       </c>
-      <c r="D264" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="265" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E264" t="str">
+        <f>IF(D264&lt;&gt;"255",B264,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="265" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B265" t="s">
         <v>263</v>
       </c>
       <c r="C265" t="str">
+        <f t="shared" si="9"/>
+        <v>organizational_type</v>
+      </c>
+      <c r="D265" t="str">
         <f t="shared" si="8"/>
         <v>255</v>
       </c>
-      <c r="D265" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="266" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E265" t="str">
+        <f>IF(D265&lt;&gt;"255",B265,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="266" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B266" t="s">
         <v>264</v>
       </c>
       <c r="C266" t="str">
+        <f t="shared" si="9"/>
+        <v>number_of_employees</v>
+      </c>
+      <c r="D266" t="str">
         <f t="shared" si="8"/>
         <v>255</v>
       </c>
-      <c r="D266" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="267" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E266" t="str">
+        <f>IF(D266&lt;&gt;"255",B266,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="267" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B267" t="s">
         <v>265</v>
       </c>
       <c r="C267" t="str">
+        <f t="shared" si="9"/>
+        <v>annual_revenues</v>
+      </c>
+      <c r="D267" t="str">
         <f t="shared" si="8"/>
         <v>255</v>
       </c>
-      <c r="D267" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="268" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E267" t="str">
+        <f>IF(D267&lt;&gt;"255",B267,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="268" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B268" t="s">
         <v>266</v>
       </c>
       <c r="C268" t="str">
+        <f t="shared" si="9"/>
+        <v>total_dollars_obligated</v>
+      </c>
+      <c r="D268" t="str">
         <f t="shared" si="8"/>
         <v>255</v>
       </c>
-      <c r="D268" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="269" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E268" t="str">
+        <f>IF(D268&lt;&gt;"255",B268,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="269" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B269" t="s">
         <v>267</v>
       </c>
       <c r="C269" t="str">
+        <f t="shared" si="9"/>
+        <v>foreign_funding_description</v>
+      </c>
+      <c r="D269" t="str">
         <f t="shared" si="8"/>
         <v>255</v>
       </c>
-      <c r="D269" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="270" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E269" t="str">
+        <f>IF(D269&lt;&gt;"255",B269,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="270" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B270" t="s">
         <v>268</v>
       </c>
       <c r="C270" t="str">
+        <f t="shared" si="9"/>
+        <v>contract_transaction_unique_key</v>
+      </c>
+      <c r="D270" t="str">
         <f t="shared" si="8"/>
         <v>255</v>
       </c>
-      <c r="D270" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="271" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E270" t="str">
+        <f>IF(D270&lt;&gt;"255",B270,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="271" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B271" t="s">
         <v>269</v>
       </c>
       <c r="C271" t="str">
+        <f t="shared" si="9"/>
+        <v>contract_award_unique_key</v>
+      </c>
+      <c r="D271" t="str">
         <f t="shared" si="8"/>
         <v>255</v>
       </c>
-      <c r="D271" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="272" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E271" t="str">
+        <f>IF(D271&lt;&gt;"255",B271,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="272" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B272" t="s">
         <v>270</v>
       </c>
       <c r="C272" t="str">
+        <f t="shared" si="9"/>
+        <v>solicitation_date</v>
+      </c>
+      <c r="D272" t="str">
         <f t="shared" si="8"/>
         <v>255</v>
       </c>
-      <c r="D272" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="273" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E272" t="str">
+        <f>IF(D272&lt;&gt;"255",B272,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="273" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B273" t="s">
         <v>271</v>
       </c>
       <c r="C273" t="str">
+        <f t="shared" si="9"/>
+        <v>treasury_accounts_funding_this_award</v>
+      </c>
+      <c r="D273" t="str">
         <f t="shared" si="8"/>
-        <v>000</v>
-      </c>
-      <c r="D273" t="str">
-        <f t="shared" si="9"/>
+        <v>4000</v>
+      </c>
+      <c r="E273" t="str">
+        <f>IF(D273&lt;&gt;"255",B273,"")</f>
         <v>[treasury_accounts_funding_this_award] [varchar](4000) NULL,</v>
       </c>
     </row>
-    <row r="274" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B274" t="s">
         <v>272</v>
       </c>
       <c r="C274" t="str">
+        <f t="shared" si="9"/>
+        <v>federal_accounts_funding_this_award</v>
+      </c>
+      <c r="D274" t="str">
         <f t="shared" si="8"/>
-        <v>000</v>
-      </c>
-      <c r="D274" t="str">
-        <f t="shared" si="9"/>
+        <v>4000</v>
+      </c>
+      <c r="E274" t="str">
+        <f>IF(D274&lt;&gt;"255",B274,"")</f>
         <v>[federal_accounts_funding_this_award] [varchar](4000) NULL,</v>
       </c>
     </row>
-    <row r="275" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B275" t="s">
         <v>273</v>
       </c>
       <c r="C275" t="str">
+        <f t="shared" si="9"/>
+        <v>highly_compensated_officer_1_name</v>
+      </c>
+      <c r="D275" t="str">
         <f t="shared" si="8"/>
         <v>255</v>
       </c>
-      <c r="D275" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="276" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E275" t="str">
+        <f>IF(D275&lt;&gt;"255",B275,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="276" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B276" t="s">
         <v>274</v>
       </c>
       <c r="C276" t="str">
+        <f t="shared" si="9"/>
+        <v>highly_compensated_officer_1_amount</v>
+      </c>
+      <c r="D276" t="str">
         <f t="shared" si="8"/>
         <v>255</v>
       </c>
-      <c r="D276" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="277" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E276" t="str">
+        <f>IF(D276&lt;&gt;"255",B276,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="277" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B277" t="s">
         <v>275</v>
       </c>
       <c r="C277" t="str">
+        <f t="shared" si="9"/>
+        <v>highly_compensated_officer_2_name</v>
+      </c>
+      <c r="D277" t="str">
         <f t="shared" si="8"/>
         <v>255</v>
       </c>
-      <c r="D277" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="278" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E277" t="str">
+        <f>IF(D277&lt;&gt;"255",B277,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="278" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B278" t="s">
         <v>276</v>
       </c>
       <c r="C278" t="str">
+        <f t="shared" si="9"/>
+        <v>highly_compensated_officer_2_amount</v>
+      </c>
+      <c r="D278" t="str">
         <f t="shared" si="8"/>
         <v>255</v>
       </c>
-      <c r="D278" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="279" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E278" t="str">
+        <f>IF(D278&lt;&gt;"255",B278,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="279" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B279" t="s">
         <v>277</v>
       </c>
       <c r="C279" t="str">
+        <f t="shared" si="9"/>
+        <v>highly_compensated_officer_3_name</v>
+      </c>
+      <c r="D279" t="str">
         <f t="shared" si="8"/>
         <v>255</v>
       </c>
-      <c r="D279" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="280" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E279" t="str">
+        <f>IF(D279&lt;&gt;"255",B279,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="280" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B280" t="s">
         <v>278</v>
       </c>
       <c r="C280" t="str">
+        <f t="shared" si="9"/>
+        <v>highly_compensated_officer_3_amount</v>
+      </c>
+      <c r="D280" t="str">
         <f t="shared" si="8"/>
         <v>255</v>
       </c>
-      <c r="D280" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="281" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E280" t="str">
+        <f>IF(D280&lt;&gt;"255",B280,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="281" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B281" t="s">
         <v>279</v>
       </c>
       <c r="C281" t="str">
+        <f t="shared" si="9"/>
+        <v>highly_compensated_officer_4_name</v>
+      </c>
+      <c r="D281" t="str">
         <f t="shared" si="8"/>
         <v>255</v>
       </c>
-      <c r="D281" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="282" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E281" t="str">
+        <f>IF(D281&lt;&gt;"255",B281,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="282" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B282" t="s">
         <v>280</v>
       </c>
       <c r="C282" t="str">
+        <f t="shared" si="9"/>
+        <v>highly_compensated_officer_4_amount</v>
+      </c>
+      <c r="D282" t="str">
         <f t="shared" si="8"/>
         <v>255</v>
       </c>
-      <c r="D282" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="283" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E282" t="str">
+        <f>IF(D282&lt;&gt;"255",B282,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="283" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B283" t="s">
         <v>281</v>
       </c>
       <c r="C283" t="str">
+        <f t="shared" si="9"/>
+        <v>highly_compensated_officer_5_name</v>
+      </c>
+      <c r="D283" t="str">
         <f t="shared" si="8"/>
         <v>255</v>
       </c>
-      <c r="D283" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="284" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E283" t="str">
+        <f>IF(D283&lt;&gt;"255",B283,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="284" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B284" t="s">
         <v>282</v>
       </c>
       <c r="C284" t="str">
+        <f t="shared" si="9"/>
+        <v>highly_compensated_officer_5_amount</v>
+      </c>
+      <c r="D284" t="str">
         <f t="shared" si="8"/>
         <v>255</v>
       </c>
-      <c r="D284" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="285" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E284" t="str">
+        <f>IF(D284&lt;&gt;"255",B284,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="285" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B285" t="s">
         <v>283</v>
       </c>
       <c r="C285" t="str">
+        <f t="shared" si="9"/>
+        <v>usaspending_permalink</v>
+      </c>
+      <c r="D285" t="str">
         <f t="shared" si="8"/>
         <v>500</v>
       </c>
-      <c r="D285" t="str">
-        <f t="shared" si="9"/>
+      <c r="E285" t="str">
+        <f>IF(D285&lt;&gt;"255",B285,"")</f>
         <v>[usaspending_permalink] [varchar](500) NULL,</v>
       </c>
     </row>
-    <row r="286" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B286" t="s">
         <v>284</v>
       </c>
       <c r="C286" t="str">
+        <f t="shared" si="9"/>
+        <v>action_date_fiscal_year</v>
+      </c>
+      <c r="D286" t="str">
         <f t="shared" si="8"/>
         <v>255</v>
       </c>
-      <c r="D286" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="287" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E286" t="str">
+        <f>IF(D286&lt;&gt;"255",B286,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="287" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B287" t="s">
         <v>285</v>
       </c>
       <c r="C287" t="str">
+        <f t="shared" si="9"/>
+        <v>disaster_emergency_fund_codes_for_overall_award</v>
+      </c>
+      <c r="D287" t="str">
         <f t="shared" si="8"/>
-        <v>000</v>
-      </c>
-      <c r="D287" t="str">
-        <f t="shared" si="9"/>
+        <v>4000</v>
+      </c>
+      <c r="E287" t="str">
+        <f>IF(D287&lt;&gt;"255",B287,"")</f>
         <v>[disaster_emergency_fund_codes_for_overall_award] [varchar](4000) NULL,</v>
       </c>
     </row>
-    <row r="288" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B288" t="s">
         <v>286</v>
       </c>
       <c r="C288" t="str">
+        <f t="shared" si="9"/>
+        <v>outlayed_amount_funded_by_COVID19_supplementals_for_overall_award</v>
+      </c>
+      <c r="D288" t="str">
         <f t="shared" si="8"/>
         <v>255</v>
       </c>
-      <c r="D288" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E288" t="str">
+        <f>IF(D288&lt;&gt;"255",B288,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B289" t="s">
         <v>287</v>
       </c>
       <c r="C289" t="str">
+        <f t="shared" si="9"/>
+        <v>obligated_amount_funded_by_COVID19_supplementals_for_overall_award</v>
+      </c>
+      <c r="D289" t="str">
         <f t="shared" si="8"/>
         <v>255</v>
       </c>
-      <c r="D289" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E289" t="str">
+        <f>IF(D289&lt;&gt;"255",B289,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B290" t="s">
         <v>288</v>
       </c>
       <c r="C290" t="str">
+        <f t="shared" si="9"/>
+        <v>object_classes_funding_this_award</v>
+      </c>
+      <c r="D290" t="str">
         <f t="shared" si="8"/>
-        <v>000</v>
-      </c>
-      <c r="D290" t="str">
-        <f t="shared" si="9"/>
+        <v>4000</v>
+      </c>
+      <c r="E290" t="str">
+        <f>IF(D290&lt;&gt;"255",B290,"")</f>
         <v>[object_classes_funding_this_award] [varchar](4000) NULL,</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B291" t="s">
         <v>289</v>
       </c>
       <c r="C291" t="str">
+        <f t="shared" si="9"/>
+        <v>program_activities_funding_this_award</v>
+      </c>
+      <c r="D291" t="str">
         <f t="shared" si="8"/>
-        <v>000</v>
-      </c>
-      <c r="D291" t="str">
-        <f t="shared" si="9"/>
+        <v>5000</v>
+      </c>
+      <c r="E291" t="str">
+        <f>IF(D291&lt;&gt;"255",B291,"")</f>
         <v>[program_activities_funding_this_award] [varchar](5000) NULL,</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B292" t="s">
         <v>290</v>
       </c>
       <c r="C292" t="str">
+        <f t="shared" si="9"/>
+        <v>recipient_county_name</v>
+      </c>
+      <c r="D292" t="str">
         <f t="shared" si="8"/>
         <v>255</v>
       </c>
-      <c r="D292" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E292" t="str">
+        <f>IF(D292&lt;&gt;"255",B292,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B293" t="s">
         <v>291</v>
       </c>
       <c r="C293" t="str">
+        <f t="shared" si="9"/>
+        <v>recipient_uei</v>
+      </c>
+      <c r="D293" t="str">
         <f t="shared" si="8"/>
         <v>255</v>
       </c>
-      <c r="D293" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E293" t="str">
+        <f>IF(D293&lt;&gt;"255",B293,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B294" t="s">
         <v>292</v>
       </c>
       <c r="C294" t="str">
+        <f t="shared" si="9"/>
+        <v>recipient_parent_uei</v>
+      </c>
+      <c r="D294" t="str">
         <f t="shared" si="8"/>
         <v>255</v>
       </c>
-      <c r="D294" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E294" t="str">
+        <f>IF(D294&lt;&gt;"255",B294,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B295" t="s">
         <v>293</v>
       </c>
       <c r="C295" t="str">
-        <f t="shared" si="8"/>
-        <v>400</v>
+        <f t="shared" si="9"/>
+        <v>prime_award_base_transaction_description</v>
       </c>
       <c r="D295" t="str">
-        <f t="shared" si="9"/>
+        <f>MID(LEFT(RIGHT(B295,11),FIND(")",RIGHT(B295,11))-1),IF(LEFT(RIGHT(B295,11),1)="(",2,1),999)</f>
+        <v>4008</v>
+      </c>
+      <c r="E295" t="str">
+        <f>IF(D295&lt;&gt;"255",B295,"")</f>
         <v>[prime_award_base_transaction_description] [varchar](4008) NULL</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>1</v>
       </c>

--- a/ImportAids/FPDSstage1updateTool.xlsx
+++ b/ImportAids/FPDSstage1updateTool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\gsanders\Documents\Repositories\Lookup-Tables\ImportAids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8F3680-9D1E-4B64-B20A-B9CF5B92E702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C067DE12-A8C6-47BC-9C60-056E61B36DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="667">
   <si>
     <t>SET ANSI_NULLS ON</t>
   </si>
@@ -1945,18 +1945,6 @@
     <t>[period_of_performance_current_end_date] [date] NULL,</t>
   </si>
   <si>
-    <t>[treasury_accounts_funding_this_award] [varchar](313) NULL,</t>
-  </si>
-  <si>
-    <t>[federal_accounts_funding_this_award] [varchar](255) NULL,</t>
-  </si>
-  <si>
-    <t>[object_classes_funding_this_award] [varchar](255) NULL,</t>
-  </si>
-  <si>
-    <t>[program_activities_funding_this_award] [varchar](647) NULL,</t>
-  </si>
-  <si>
     <t>[recipient_city_code] [varchar](255) NULL,</t>
   </si>
   <si>
@@ -2000,12 +1988,6 @@
   </si>
   <si>
     <t>[assistance_type_description] [varchar](255) NULL,</t>
-  </si>
-  <si>
-    <t>[transaction_description] [varchar](3989) NULL,</t>
-  </si>
-  <si>
-    <t>[prime_award_base_transaction_description] [varchar](3989) NULL,</t>
   </si>
   <si>
     <t>[business_funds_indicator_code] [varchar](255) NULL,</t>
@@ -12104,8 +12086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF379882-BFC5-42C8-BBE0-537E6C9AD935}">
   <dimension ref="A1:M312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:D119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12119,7 +12101,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -13340,7 +13322,7 @@
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>635</v>
+        <v>261</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="0"/>
@@ -13348,11 +13330,11 @@
       </c>
       <c r="D46" t="str">
         <f t="shared" si="1"/>
-        <v>313</v>
+        <v>4000</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" si="2"/>
-        <v>[treasury_accounts_funding_this_award] [varchar](313) NULL,</v>
+        <v>[treasury_accounts_funding_this_award] [varchar](4000) NULL,</v>
       </c>
       <c r="F46">
         <f t="shared" si="3"/>
@@ -13370,7 +13352,7 @@
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>636</v>
+        <v>262</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="0"/>
@@ -13378,11 +13360,11 @@
       </c>
       <c r="D47" t="str">
         <f t="shared" si="1"/>
-        <v>255</v>
+        <v>4000</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>[federal_accounts_funding_this_award] [varchar](4000) NULL,</v>
       </c>
       <c r="F47">
         <f t="shared" si="3"/>
@@ -13400,7 +13382,7 @@
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>637</v>
+        <v>276</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" si="0"/>
@@ -13408,11 +13390,11 @@
       </c>
       <c r="D48" t="str">
         <f t="shared" si="1"/>
-        <v>255</v>
+        <v>4000</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>[object_classes_funding_this_award] [varchar](4000) NULL,</v>
       </c>
       <c r="F48">
         <f t="shared" si="3"/>
@@ -13430,7 +13412,7 @@
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>638</v>
+        <v>277</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="0"/>
@@ -13438,11 +13420,11 @@
       </c>
       <c r="D49" t="str">
         <f t="shared" si="1"/>
-        <v>647</v>
+        <v>5000</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" si="2"/>
-        <v>[program_activities_funding_this_award] [varchar](647) NULL,</v>
+        <v>[program_activities_funding_this_award] [varchar](5000) NULL,</v>
       </c>
       <c r="F49">
         <f t="shared" si="3"/>
@@ -13821,7 +13803,7 @@
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" si="0"/>
@@ -14032,7 +14014,7 @@
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="C69" t="str">
         <f t="shared" si="0"/>
@@ -14062,7 +14044,7 @@
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="C70" t="str">
         <f t="shared" si="0"/>
@@ -14155,7 +14137,7 @@
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C73" t="str">
         <f t="shared" ref="C73:C136" si="5">MID(B73,2,FIND("]",B73)-2)</f>
@@ -14185,7 +14167,7 @@
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="C74" t="str">
         <f t="shared" si="5"/>
@@ -14215,7 +14197,7 @@
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C75" t="str">
         <f t="shared" si="5"/>
@@ -14245,7 +14227,7 @@
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="C76" t="str">
         <f t="shared" si="5"/>
@@ -14335,7 +14317,7 @@
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C79" t="str">
         <f t="shared" si="5"/>
@@ -14605,7 +14587,7 @@
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="C88" t="str">
         <f t="shared" si="5"/>
@@ -14635,7 +14617,7 @@
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C89" t="str">
         <f t="shared" si="5"/>
@@ -14665,7 +14647,7 @@
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C90" t="str">
         <f t="shared" si="5"/>
@@ -14695,7 +14677,7 @@
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="C91" t="str">
         <f t="shared" si="5"/>
@@ -14725,7 +14707,7 @@
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C92" t="str">
         <f t="shared" si="5"/>
@@ -14755,7 +14737,7 @@
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C93" t="str">
         <f t="shared" si="5"/>
@@ -14785,7 +14767,7 @@
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="C94" t="str">
         <f t="shared" si="5"/>
@@ -14815,7 +14797,7 @@
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>654</v>
+        <v>584</v>
       </c>
       <c r="C95" t="str">
         <f t="shared" si="5"/>
@@ -14823,11 +14805,11 @@
       </c>
       <c r="D95" t="str">
         <f t="shared" si="6"/>
-        <v>3989</v>
+        <v>4008</v>
       </c>
       <c r="E95" t="str">
         <f t="shared" si="7"/>
-        <v>[transaction_description] [varchar](3989) NULL,</v>
+        <v>[transaction_description] [varchar](4008) NULL,</v>
       </c>
       <c r="F95">
         <f t="shared" si="4"/>
@@ -14845,7 +14827,7 @@
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>655</v>
+        <v>283</v>
       </c>
       <c r="C96" t="str">
         <f t="shared" si="5"/>
@@ -14853,11 +14835,11 @@
       </c>
       <c r="D96" t="str">
         <f t="shared" si="6"/>
-        <v>3989</v>
+        <v>4008</v>
       </c>
       <c r="E96" t="str">
         <f t="shared" si="7"/>
-        <v>[prime_award_base_transaction_description] [varchar](3989) NULL,</v>
+        <v>[prime_award_base_transaction_description] [varchar](4008) NULL,</v>
       </c>
       <c r="F96">
         <f t="shared" si="4"/>
@@ -14875,7 +14857,7 @@
     </row>
     <row r="97" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="C97" t="str">
         <f t="shared" si="5"/>
@@ -14905,7 +14887,7 @@
     </row>
     <row r="98" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="C98" t="str">
         <f t="shared" si="5"/>
@@ -14935,7 +14917,7 @@
     </row>
     <row r="99" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="C99" t="str">
         <f t="shared" si="5"/>
@@ -14965,7 +14947,7 @@
     </row>
     <row r="100" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="C100" t="str">
         <f t="shared" si="5"/>
@@ -14995,7 +14977,7 @@
     </row>
     <row r="101" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="C101" t="str">
         <f t="shared" si="5"/>
@@ -15025,7 +15007,7 @@
     </row>
     <row r="102" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="C102" t="str">
         <f t="shared" si="5"/>
@@ -15085,7 +15067,7 @@
     </row>
     <row r="104" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="C104" t="str">
         <f t="shared" si="5"/>
@@ -15115,7 +15097,7 @@
     </row>
     <row r="105" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="C105" t="str">
         <f t="shared" si="5"/>
@@ -15145,7 +15127,7 @@
     </row>
     <row r="106" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="C106" t="str">
         <f t="shared" si="5"/>
@@ -15205,7 +15187,7 @@
     </row>
     <row r="108" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="C108" t="str">
         <f t="shared" si="5"/>
@@ -15265,7 +15247,7 @@
     </row>
     <row r="110" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="C110" t="str">
         <f t="shared" si="5"/>
@@ -15325,7 +15307,7 @@
     </row>
     <row r="112" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="C112" t="str">
         <f t="shared" si="5"/>
@@ -15385,7 +15367,7 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="C114" t="str">
         <f t="shared" si="5"/>
@@ -15445,7 +15427,7 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="C116" t="str">
         <f t="shared" si="5"/>
@@ -15475,7 +15457,7 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="C117" t="str">
         <f t="shared" si="5"/>
@@ -15505,7 +15487,7 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="C118" t="str">
         <f t="shared" si="5"/>
@@ -19513,7 +19495,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="D265" t="e">
-        <f t="shared" ref="D265:D297" si="18">MID(LEFT(RIGHT(B265,11),FIND(")",RIGHT(B265,11))-1),IF(LEFT(RIGHT(B265,11),1)="(",2,1),999)</f>
+        <f t="shared" ref="D265:D294" si="18">MID(LEFT(RIGHT(B265,11),FIND(")",RIGHT(B265,11))-1),IF(LEFT(RIGHT(B265,11),1)="(",2,1),999)</f>
         <v>#VALUE!</v>
       </c>
       <c r="E265" t="e">

--- a/ImportAids/FPDSstage1updateTool.xlsx
+++ b/ImportAids/FPDSstage1updateTool.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\gsanders\Documents\Repositories\Lookup-Tables\ImportAids\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\Greg\Repositories\Lookup-Tables\ImportAids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8966C0-EA49-43DA-AD82-85BD5FD223B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4305274D-D5A4-4CAC-8793-E199442660A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ErrorLogging.FPDSstage1.Table" sheetId="1" r:id="rId1"/>
@@ -1981,9 +1981,6 @@
     <t>[funding_opportunity_number] [varchar](255) NULL,</t>
   </si>
   <si>
-    <t>[funding_opportunity_goals_text] [varchar](255) NULL,</t>
-  </si>
-  <si>
     <t>[assistance_type_code] [varchar](255) NULL,</t>
   </si>
   <si>
@@ -2042,6 +2039,9 @@
   </si>
   <si>
     <t>stage1type</t>
+  </si>
+  <si>
+    <t>[funding_opportunity_goals_text] [varchar](2000) NULL,</t>
   </si>
 </sst>
 </file>
@@ -12089,8 +12089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF379882-BFC5-42C8-BBE0-537E6C9AD935}">
   <dimension ref="A1:N312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="B79" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12105,7 +12105,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -12163,7 +12163,7 @@
         <v>288</v>
       </c>
       <c r="D8" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E8" t="s">
         <v>560</v>
@@ -12193,7 +12193,7 @@
         <v>assistance_transaction_unique_key</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" ref="D9:D72" si="1">IF(IFERROR(FIND("decimal(",B9),0)&lt;&gt;0,"decimal",IF(IFERROR(FIND("[date]",B9),0)&lt;&gt;0,"date",IF(IFERROR(FIND("[varchar]",B9),0)&lt;&gt;0,"varchar",IF(IFERROR(FIND("integer",B9),0)&lt;&gt;0,"integer","unknown"))))</f>
+        <f t="shared" ref="D9:D30" si="1">IF(IFERROR(FIND("decimal(",B9),0)&lt;&gt;0,"decimal",IF(IFERROR(FIND("[date]",B9),0)&lt;&gt;0,"date",IF(IFERROR(FIND("[varchar]",B9),0)&lt;&gt;0,"varchar",IF(IFERROR(FIND("integer",B9),0)&lt;&gt;0,"integer","unknown"))))</f>
         <v>varchar</v>
       </c>
       <c r="E9" t="str">
@@ -15074,7 +15074,7 @@
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>647</v>
+        <v>667</v>
       </c>
       <c r="C92" t="str">
         <f t="shared" si="8"/>
@@ -15086,11 +15086,11 @@
       </c>
       <c r="E92" t="str">
         <f t="shared" si="10"/>
-        <v>255</v>
+        <v>2000</v>
       </c>
       <c r="F92" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>[funding_opportunity_goals_text] [varchar](2000) NULL,</v>
       </c>
       <c r="G92" t="e">
         <f t="shared" si="7"/>
@@ -15108,7 +15108,7 @@
     </row>
     <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C93" t="str">
         <f t="shared" si="8"/>
@@ -15142,7 +15142,7 @@
     </row>
     <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C94" t="str">
         <f t="shared" si="8"/>
@@ -15244,7 +15244,7 @@
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C97" t="str">
         <f t="shared" si="8"/>
@@ -15278,7 +15278,7 @@
     </row>
     <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C98" t="str">
         <f t="shared" si="8"/>
@@ -15312,7 +15312,7 @@
     </row>
     <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C99" t="str">
         <f t="shared" si="8"/>
@@ -15346,7 +15346,7 @@
     </row>
     <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C100" t="str">
         <f t="shared" si="8"/>
@@ -15380,7 +15380,7 @@
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C101" t="str">
         <f t="shared" si="8"/>
@@ -15414,7 +15414,7 @@
     </row>
     <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C102" t="str">
         <f t="shared" si="8"/>
@@ -15482,7 +15482,7 @@
     </row>
     <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C104" t="str">
         <f t="shared" si="8"/>
@@ -15516,7 +15516,7 @@
     </row>
     <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C105" t="str">
         <f t="shared" si="8"/>
@@ -15550,7 +15550,7 @@
     </row>
     <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C106" t="str">
         <f t="shared" si="8"/>
@@ -15618,7 +15618,7 @@
     </row>
     <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C108" t="str">
         <f t="shared" si="8"/>
@@ -15686,7 +15686,7 @@
     </row>
     <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C110" t="str">
         <f t="shared" si="8"/>
@@ -15754,7 +15754,7 @@
     </row>
     <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C112" t="str">
         <f t="shared" si="8"/>
@@ -15822,7 +15822,7 @@
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C114" t="str">
         <f t="shared" si="8"/>
@@ -15890,7 +15890,7 @@
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C116" t="str">
         <f t="shared" si="8"/>
@@ -15924,7 +15924,7 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C117" t="str">
         <f t="shared" si="8"/>
@@ -15958,7 +15958,7 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C118" t="str">
         <f t="shared" si="8"/>

--- a/ImportAids/FPDSstage1updateTool.xlsx
+++ b/ImportAids/FPDSstage1updateTool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\Greg\Repositories\Lookup-Tables\ImportAids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4305274D-D5A4-4CAC-8793-E199442660A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0824DB8C-B2A0-4DFB-9737-9188630628ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="669">
   <si>
     <t>SET ANSI_NULLS ON</t>
   </si>
@@ -2042,6 +2042,9 @@
   </si>
   <si>
     <t>[funding_opportunity_goals_text] [varchar](2000) NULL,</t>
+  </si>
+  <si>
+    <t>[transaction_description] [varchar](6500) NULL,</t>
   </si>
 </sst>
 </file>
@@ -12090,7 +12093,7 @@
   <dimension ref="A1:N312"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B79" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15176,7 +15179,7 @@
     </row>
     <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>584</v>
+        <v>668</v>
       </c>
       <c r="C95" t="str">
         <f t="shared" si="8"/>
@@ -15188,11 +15191,11 @@
       </c>
       <c r="E95" t="str">
         <f t="shared" si="10"/>
-        <v>4008</v>
+        <v>6500</v>
       </c>
       <c r="F95" t="str">
         <f t="shared" si="9"/>
-        <v>[transaction_description] [varchar](4008) NULL,</v>
+        <v>[transaction_description] [varchar](6500) NULL,</v>
       </c>
       <c r="G95">
         <f t="shared" si="7"/>

--- a/ImportAids/FPDSstage1updateTool.xlsx
+++ b/ImportAids/FPDSstage1updateTool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\Greg\Repositories\Lookup-Tables\ImportAids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0824DB8C-B2A0-4DFB-9737-9188630628ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1475F035-6DFC-44DF-8980-A484395C711B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ErrorLogging.FPDSstage1.Table" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="668">
   <si>
     <t>SET ANSI_NULLS ON</t>
   </si>
@@ -1916,9 +1916,6 @@
   </si>
   <si>
     <t>[total_loan_subsidy_cost] decimal(19,4) NULL,</t>
-  </si>
-  <si>
-    <t>[disaster_emergency_fund_codes_for_overall_award] [varchar](255) NULL,</t>
   </si>
   <si>
     <t>[outlayed_amount_from_COVID-19_supplementals_for_overall_award] decimal(19,4) NULL,</t>
@@ -12092,8 +12089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF379882-BFC5-42C8-BBE0-537E6C9AD935}">
   <dimension ref="A1:N312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B79" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12108,7 +12105,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -12166,7 +12163,7 @@
         <v>288</v>
       </c>
       <c r="D8" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E8" t="s">
         <v>560</v>
@@ -12794,7 +12791,7 @@
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>626</v>
+        <v>275</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -12806,11 +12803,11 @@
       </c>
       <c r="E25" t="str">
         <f t="shared" si="4"/>
-        <v>255</v>
+        <v>4000</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>[disaster_emergency_fund_codes_for_overall_award] [varchar](4000) NULL,</v>
       </c>
       <c r="G25">
         <f t="shared" si="3"/>
@@ -12828,7 +12825,7 @@
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
@@ -12862,7 +12859,7 @@
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
@@ -12896,7 +12893,7 @@
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
@@ -12930,7 +12927,7 @@
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
@@ -12964,7 +12961,7 @@
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
@@ -12998,7 +12995,7 @@
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
@@ -13032,7 +13029,7 @@
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
@@ -13066,7 +13063,7 @@
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
@@ -14053,7 +14050,7 @@
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" si="0"/>
@@ -14292,7 +14289,7 @@
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C69" t="str">
         <f t="shared" si="0"/>
@@ -14326,7 +14323,7 @@
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C70" t="str">
         <f t="shared" si="0"/>
@@ -14431,7 +14428,7 @@
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C73" t="str">
         <f t="shared" ref="C73:C136" si="8">MID(B73,2,FIND("]",B73)-2)</f>
@@ -14465,7 +14462,7 @@
     </row>
     <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C74" t="str">
         <f t="shared" si="8"/>
@@ -14499,7 +14496,7 @@
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C75" t="str">
         <f t="shared" si="8"/>
@@ -14533,7 +14530,7 @@
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C76" t="str">
         <f t="shared" si="8"/>
@@ -14635,7 +14632,7 @@
     </row>
     <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C79" t="str">
         <f t="shared" si="8"/>
@@ -14941,7 +14938,7 @@
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C88" t="str">
         <f t="shared" si="8"/>
@@ -14975,7 +14972,7 @@
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C89" t="str">
         <f t="shared" si="8"/>
@@ -15009,7 +15006,7 @@
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C90" t="str">
         <f t="shared" si="8"/>
@@ -15043,7 +15040,7 @@
     </row>
     <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C91" t="str">
         <f t="shared" si="8"/>
@@ -15077,7 +15074,7 @@
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C92" t="str">
         <f t="shared" si="8"/>
@@ -15111,7 +15108,7 @@
     </row>
     <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C93" t="str">
         <f t="shared" si="8"/>
@@ -15145,7 +15142,7 @@
     </row>
     <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C94" t="str">
         <f t="shared" si="8"/>
@@ -15179,7 +15176,7 @@
     </row>
     <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C95" t="str">
         <f t="shared" si="8"/>
@@ -15247,7 +15244,7 @@
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C97" t="str">
         <f t="shared" si="8"/>
@@ -15281,7 +15278,7 @@
     </row>
     <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C98" t="str">
         <f t="shared" si="8"/>
@@ -15315,7 +15312,7 @@
     </row>
     <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C99" t="str">
         <f t="shared" si="8"/>
@@ -15349,7 +15346,7 @@
     </row>
     <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C100" t="str">
         <f t="shared" si="8"/>
@@ -15383,7 +15380,7 @@
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C101" t="str">
         <f t="shared" si="8"/>
@@ -15417,7 +15414,7 @@
     </row>
     <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C102" t="str">
         <f t="shared" si="8"/>
@@ -15485,7 +15482,7 @@
     </row>
     <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C104" t="str">
         <f t="shared" si="8"/>
@@ -15519,7 +15516,7 @@
     </row>
     <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C105" t="str">
         <f t="shared" si="8"/>
@@ -15553,7 +15550,7 @@
     </row>
     <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C106" t="str">
         <f t="shared" si="8"/>
@@ -15621,7 +15618,7 @@
     </row>
     <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C108" t="str">
         <f t="shared" si="8"/>
@@ -15689,7 +15686,7 @@
     </row>
     <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C110" t="str">
         <f t="shared" si="8"/>
@@ -15757,7 +15754,7 @@
     </row>
     <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C112" t="str">
         <f t="shared" si="8"/>
@@ -15825,7 +15822,7 @@
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C114" t="str">
         <f t="shared" si="8"/>
@@ -15893,7 +15890,7 @@
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C116" t="str">
         <f t="shared" si="8"/>
@@ -15927,7 +15924,7 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C117" t="str">
         <f t="shared" si="8"/>
@@ -15961,7 +15958,7 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C118" t="str">
         <f t="shared" si="8"/>

--- a/ImportAids/FPDSstage1updateTool.xlsx
+++ b/ImportAids/FPDSstage1updateTool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\gsanders\Documents\Repositories\Lookup-Tables\ImportAids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8966C0-EA49-43DA-AD82-85BD5FD223B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A920D5-518C-41BF-A00D-EF4D1B38CF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1888,57 +1888,12 @@
     <t>[sai_number] [varchar](255) NULL,</t>
   </si>
   <si>
-    <t>[federal_action_obligation] decimal(19,4) NULL,</t>
-  </si>
-  <si>
-    <t>[total_obligated_amount] decimal(19,4) NULL,</t>
-  </si>
-  <si>
-    <t>[total_outlayed_amount_for_overall_award] decimal(19,4) NULL,</t>
-  </si>
-  <si>
-    <t>[indirect_cost_federal_share_amount] decimal(19,4) NULL,</t>
-  </si>
-  <si>
-    <t>[non_federal_funding_amount] decimal(19,4) NULL,</t>
-  </si>
-  <si>
-    <t>[total_non_federal_funding_amount] decimal(19,4) NULL,</t>
-  </si>
-  <si>
-    <t>[face_value_of_loan] decimal(19,4) NULL,</t>
-  </si>
-  <si>
-    <t>[original_loan_subsidy_cost] decimal(19,4) NULL,</t>
-  </si>
-  <si>
-    <t>[total_face_value_of_loan] decimal(19,4) NULL,</t>
-  </si>
-  <si>
-    <t>[total_loan_subsidy_cost] decimal(19,4) NULL,</t>
-  </si>
-  <si>
     <t>[disaster_emergency_fund_codes_for_overall_award] [varchar](255) NULL,</t>
   </si>
   <si>
-    <t>[outlayed_amount_from_COVID-19_supplementals_for_overall_award] decimal(19,4) NULL,</t>
-  </si>
-  <si>
-    <t>[obligated_amount_from_COVID-19_supplementals_for_overall_award] decimal(19,4) NULL,</t>
-  </si>
-  <si>
-    <t>[outlayed_amount_from_IIJA_supplemental_for_overall_award] decimal(19,4) NULL,</t>
-  </si>
-  <si>
-    <t>[obligated_amount_from_IIJA_supplemental_for_overall_award] decimal(19,4) NULL,</t>
-  </si>
-  <si>
     <t>[action_date] [date] NULL,</t>
   </si>
   <si>
-    <t>[action_date_fiscal_year] integer NULL,</t>
-  </si>
-  <si>
     <t>[period_of_performance_start_date] [date] NULL,</t>
   </si>
   <si>
@@ -1972,9 +1927,6 @@
     <t>[primary_place_of_performance_foreign_location] [varchar](255) NULL,</t>
   </si>
   <si>
-    <t>[cfda_number] decimal(19,4) NULL,</t>
-  </si>
-  <si>
     <t>[cfda_title] [varchar](255) NULL,</t>
   </si>
   <si>
@@ -2017,21 +1969,6 @@
     <t>[record_type_description] [varchar](255) NULL,</t>
   </si>
   <si>
-    <t>[highly_compensated_officer_1_amount] decimal(19,4) NULL,</t>
-  </si>
-  <si>
-    <t>[highly_compensated_officer_2_amount] decimal(19,4) NULL,</t>
-  </si>
-  <si>
-    <t>[highly_compensated_officer_3_amount] decimal(19,4) NULL,</t>
-  </si>
-  <si>
-    <t>[highly_compensated_officer_4_amount] decimal(19,4) NULL,</t>
-  </si>
-  <si>
-    <t>[highly_compensated_officer_5_amount] decimal(19,4) NULL,</t>
-  </si>
-  <si>
     <t>[usaspending_permalink] [varchar](255) NULL,</t>
   </si>
   <si>
@@ -2042,6 +1979,69 @@
   </si>
   <si>
     <t>stage1type</t>
+  </si>
+  <si>
+    <t>[federal_action_obligation] [decimal](19, 4) NULL,</t>
+  </si>
+  <si>
+    <t>[total_obligated_amount] [decimal](19, 4) NULL,</t>
+  </si>
+  <si>
+    <t>[total_outlayed_amount_for_overall_award] [decimal](19, 4) NULL,</t>
+  </si>
+  <si>
+    <t>[indirect_cost_federal_share_amount] [decimal](19, 4) NULL,</t>
+  </si>
+  <si>
+    <t>[non_federal_funding_amount] [decimal](19, 4) NULL,</t>
+  </si>
+  <si>
+    <t>[total_non_federal_funding_amount] [decimal](19, 4) NULL,</t>
+  </si>
+  <si>
+    <t>[face_value_of_loan] [decimal](19, 4) NULL,</t>
+  </si>
+  <si>
+    <t>[original_loan_subsidy_cost] [decimal](19, 4) NULL,</t>
+  </si>
+  <si>
+    <t>[total_face_value_of_loan] [decimal](19, 4) NULL,</t>
+  </si>
+  <si>
+    <t>[total_loan_subsidy_cost] [decimal](19, 4) NULL,</t>
+  </si>
+  <si>
+    <t>[outlayed_amount_from_COVID-19_supplementals_for_overall_award] [decimal](19, 4) NULL,</t>
+  </si>
+  <si>
+    <t>[obligated_amount_from_COVID-19_supplementals_for_overall_award] [decimal](19, 4) NULL,</t>
+  </si>
+  <si>
+    <t>[outlayed_amount_from_IIJA_supplemental_for_overall_award] [decimal](19, 4) NULL,</t>
+  </si>
+  <si>
+    <t>[obligated_amount_from_IIJA_supplemental_for_overall_award] [decimal](19, 4) NULL,</t>
+  </si>
+  <si>
+    <t>[action_date_fiscal_year] [int] NULL,</t>
+  </si>
+  <si>
+    <t>[cfda_number] [varchar](255) NULL,</t>
+  </si>
+  <si>
+    <t>[highly_compensated_officer_1_amount] [decimal](19, 4) NULL,</t>
+  </si>
+  <si>
+    <t>[highly_compensated_officer_2_amount] [decimal](19, 4) NULL,</t>
+  </si>
+  <si>
+    <t>[highly_compensated_officer_3_amount] [decimal](19, 4) NULL,</t>
+  </si>
+  <si>
+    <t>[highly_compensated_officer_4_amount] [decimal](19, 4) NULL,</t>
+  </si>
+  <si>
+    <t>[highly_compensated_officer_5_amount] [decimal](19, 4) NULL,</t>
   </si>
 </sst>
 </file>
@@ -12089,8 +12089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF379882-BFC5-42C8-BBE0-537E6C9AD935}">
   <dimension ref="A1:N312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:E118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12105,7 +12105,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>666</v>
+        <v>645</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -12163,7 +12163,7 @@
         <v>288</v>
       </c>
       <c r="D8" t="s">
-        <v>667</v>
+        <v>646</v>
       </c>
       <c r="E8" t="s">
         <v>560</v>
@@ -12193,7 +12193,7 @@
         <v>assistance_transaction_unique_key</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" ref="D9:D72" si="1">IF(IFERROR(FIND("decimal(",B9),0)&lt;&gt;0,"decimal",IF(IFERROR(FIND("[date]",B9),0)&lt;&gt;0,"date",IF(IFERROR(FIND("[varchar]",B9),0)&lt;&gt;0,"varchar",IF(IFERROR(FIND("integer",B9),0)&lt;&gt;0,"integer","unknown"))))</f>
+        <f>IF(IFERROR(FIND("decimal",B9),0)&lt;&gt;0,"decimal",IF(IFERROR(FIND("[date]",B9),0)&lt;&gt;0,"date",IF(IFERROR(FIND("[varchar]",B9),0)&lt;&gt;0,"varchar",IF(IFERROR(FIND("integer",B9),0)&lt;&gt;0,"integer",IF(IFERROR(FIND("[int]",B9),0)&lt;&gt;0,"integer","unknown")))))</f>
         <v>varchar</v>
       </c>
       <c r="E9" t="str">
@@ -12201,11 +12201,11 @@
         <v>255</v>
       </c>
       <c r="F9" t="str">
-        <f t="shared" ref="F9:F72" si="2">IF(E9&lt;&gt;"255",B9,"")</f>
+        <f t="shared" ref="F9:F72" si="1">IF(E9&lt;&gt;"255",B9,"")</f>
         <v/>
       </c>
       <c r="G9" t="e">
-        <f t="shared" ref="G9:G69" si="3">VLOOKUP(C9,col_match,3,FALSE)</f>
+        <f t="shared" ref="G9:G69" si="2">VLOOKUP(C9,col_match,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I9" t="s">
@@ -12230,7 +12230,7 @@
         <v>assistance_award_unique_key</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D10:D73" si="3">IF(IFERROR(FIND("decimal",B10),0)&lt;&gt;0,"decimal",IF(IFERROR(FIND("[date]",B10),0)&lt;&gt;0,"date",IF(IFERROR(FIND("[varchar]",B10),0)&lt;&gt;0,"varchar",IF(IFERROR(FIND("integer",B10),0)&lt;&gt;0,"integer",IF(IFERROR(FIND("[int]",B10),0)&lt;&gt;0,"integer","unknown")))))</f>
         <v>varchar</v>
       </c>
       <c r="E10" t="str">
@@ -12238,11 +12238,11 @@
         <v>255</v>
       </c>
       <c r="F10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G10" t="e">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G10" t="e">
-        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H10" t="b">
@@ -12271,7 +12271,7 @@
         <v>award_id_fain</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>varchar</v>
       </c>
       <c r="E11" t="str">
@@ -12279,11 +12279,11 @@
         <v>255</v>
       </c>
       <c r="F11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G11" t="e">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G11" t="e">
-        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H11" t="b">
@@ -12312,7 +12312,7 @@
         <v>modification_number</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>varchar</v>
       </c>
       <c r="E12" t="str">
@@ -12320,11 +12320,11 @@
         <v>255</v>
       </c>
       <c r="F12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G12">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G12">
-        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="H12" t="b">
@@ -12353,7 +12353,7 @@
         <v>award_id_uri</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>varchar</v>
       </c>
       <c r="E13" t="str">
@@ -12361,11 +12361,11 @@
         <v>255</v>
       </c>
       <c r="F13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G13" t="e">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G13" t="e">
-        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H13" t="b">
@@ -12394,7 +12394,7 @@
         <v>sai_number</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>varchar</v>
       </c>
       <c r="E14" t="str">
@@ -12402,11 +12402,11 @@
         <v>255</v>
       </c>
       <c r="F14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G14" t="e">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G14" t="e">
-        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H14" t="b">
@@ -12428,14 +12428,14 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>616</v>
+        <v>647</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
         <v>federal_action_obligation</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>decimal</v>
       </c>
       <c r="E15" t="str">
@@ -12443,16 +12443,16 @@
         <v/>
       </c>
       <c r="F15" t="str">
+        <f t="shared" si="1"/>
+        <v>[federal_action_obligation] [decimal](19, 4) NULL,</v>
+      </c>
+      <c r="G15">
         <f t="shared" si="2"/>
-        <v>[federal_action_obligation] decimal(19,4) NULL,</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="H15" t="b">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="s">
         <v>273</v>
@@ -12469,14 +12469,14 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>617</v>
+        <v>648</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
         <v>total_obligated_amount</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>decimal</v>
       </c>
       <c r="E16" t="str">
@@ -12484,16 +12484,16 @@
         <v/>
       </c>
       <c r="F16" t="str">
+        <f t="shared" si="1"/>
+        <v>[total_obligated_amount] [decimal](19, 4) NULL,</v>
+      </c>
+      <c r="G16" t="e">
         <f t="shared" si="2"/>
-        <v>[total_obligated_amount] decimal(19,4) NULL,</v>
-      </c>
-      <c r="G16" t="e">
-        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H16" t="b">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="s">
         <v>275</v>
@@ -12510,14 +12510,14 @@
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>618</v>
+        <v>649</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
         <v>total_outlayed_amount_for_overall_award</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>decimal</v>
       </c>
       <c r="E17" t="str">
@@ -12525,11 +12525,11 @@
         <v/>
       </c>
       <c r="F17" t="str">
+        <f t="shared" si="1"/>
+        <v>[total_outlayed_amount_for_overall_award] [decimal](19, 4) NULL,</v>
+      </c>
+      <c r="G17">
         <f t="shared" si="2"/>
-        <v>[total_outlayed_amount_for_overall_award] decimal(19,4) NULL,</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="I17" t="s">
@@ -12547,14 +12547,14 @@
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>619</v>
+        <v>650</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
         <v>indirect_cost_federal_share_amount</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>decimal</v>
       </c>
       <c r="E18" t="str">
@@ -12562,11 +12562,11 @@
         <v/>
       </c>
       <c r="F18" t="str">
+        <f t="shared" si="1"/>
+        <v>[indirect_cost_federal_share_amount] [decimal](19, 4) NULL,</v>
+      </c>
+      <c r="G18" t="e">
         <f t="shared" si="2"/>
-        <v>[indirect_cost_federal_share_amount] decimal(19,4) NULL,</v>
-      </c>
-      <c r="G18" t="e">
-        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="I18" t="s">
@@ -12584,14 +12584,14 @@
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>620</v>
+        <v>651</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
         <v>non_federal_funding_amount</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>decimal</v>
       </c>
       <c r="E19" t="str">
@@ -12599,11 +12599,11 @@
         <v/>
       </c>
       <c r="F19" t="str">
+        <f t="shared" si="1"/>
+        <v>[non_federal_funding_amount] [decimal](19, 4) NULL,</v>
+      </c>
+      <c r="G19" t="e">
         <f t="shared" si="2"/>
-        <v>[non_federal_funding_amount] decimal(19,4) NULL,</v>
-      </c>
-      <c r="G19" t="e">
-        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="I19" t="s">
@@ -12621,14 +12621,14 @@
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>621</v>
+        <v>652</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
         <v>total_non_federal_funding_amount</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>decimal</v>
       </c>
       <c r="E20" t="str">
@@ -12636,11 +12636,11 @@
         <v/>
       </c>
       <c r="F20" t="str">
+        <f t="shared" si="1"/>
+        <v>[total_non_federal_funding_amount] [decimal](19, 4) NULL,</v>
+      </c>
+      <c r="G20" t="e">
         <f t="shared" si="2"/>
-        <v>[total_non_federal_funding_amount] decimal(19,4) NULL,</v>
-      </c>
-      <c r="G20" t="e">
-        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="L20" t="s">
@@ -12655,14 +12655,14 @@
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>622</v>
+        <v>653</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
         <v>face_value_of_loan</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>decimal</v>
       </c>
       <c r="E21" t="str">
@@ -12670,11 +12670,11 @@
         <v/>
       </c>
       <c r="F21" t="str">
+        <f t="shared" si="1"/>
+        <v>[face_value_of_loan] [decimal](19, 4) NULL,</v>
+      </c>
+      <c r="G21" t="e">
         <f t="shared" si="2"/>
-        <v>[face_value_of_loan] decimal(19,4) NULL,</v>
-      </c>
-      <c r="G21" t="e">
-        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="L21" t="s">
@@ -12689,14 +12689,14 @@
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>623</v>
+        <v>654</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
         <v>original_loan_subsidy_cost</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>decimal</v>
       </c>
       <c r="E22" t="str">
@@ -12704,11 +12704,11 @@
         <v/>
       </c>
       <c r="F22" t="str">
+        <f t="shared" si="1"/>
+        <v>[original_loan_subsidy_cost] [decimal](19, 4) NULL,</v>
+      </c>
+      <c r="G22" t="e">
         <f t="shared" si="2"/>
-        <v>[original_loan_subsidy_cost] decimal(19,4) NULL,</v>
-      </c>
-      <c r="G22" t="e">
-        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="L22" t="s">
@@ -12723,14 +12723,14 @@
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>624</v>
+        <v>655</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
         <v>total_face_value_of_loan</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>decimal</v>
       </c>
       <c r="E23" t="str">
@@ -12738,11 +12738,11 @@
         <v/>
       </c>
       <c r="F23" t="str">
+        <f t="shared" si="1"/>
+        <v>[total_face_value_of_loan] [decimal](19, 4) NULL,</v>
+      </c>
+      <c r="G23" t="e">
         <f t="shared" si="2"/>
-        <v>[total_face_value_of_loan] decimal(19,4) NULL,</v>
-      </c>
-      <c r="G23" t="e">
-        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="L23" t="s">
@@ -12757,14 +12757,14 @@
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>625</v>
+        <v>656</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
         <v>total_loan_subsidy_cost</v>
       </c>
       <c r="D24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>decimal</v>
       </c>
       <c r="E24" t="str">
@@ -12772,11 +12772,11 @@
         <v/>
       </c>
       <c r="F24" t="str">
+        <f t="shared" si="1"/>
+        <v>[total_loan_subsidy_cost] [decimal](19, 4) NULL,</v>
+      </c>
+      <c r="G24" t="e">
         <f t="shared" si="2"/>
-        <v>[total_loan_subsidy_cost] decimal(19,4) NULL,</v>
-      </c>
-      <c r="G24" t="e">
-        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="L24" t="s">
@@ -12791,14 +12791,14 @@
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
         <v>disaster_emergency_fund_codes_for_overall_award</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>varchar</v>
       </c>
       <c r="E25" t="str">
@@ -12806,11 +12806,11 @@
         <v>255</v>
       </c>
       <c r="F25" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G25">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G25">
-        <f t="shared" si="3"/>
         <v>4000</v>
       </c>
       <c r="L25" t="s">
@@ -12825,14 +12825,14 @@
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>627</v>
+        <v>657</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
         <v>outlayed_amount_from_COVID-19_supplementals_for_overall_award</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>decimal</v>
       </c>
       <c r="E26" t="str">
@@ -12840,11 +12840,11 @@
         <v/>
       </c>
       <c r="F26" t="str">
+        <f t="shared" si="1"/>
+        <v>[outlayed_amount_from_COVID-19_supplementals_for_overall_award] [decimal](19, 4) NULL,</v>
+      </c>
+      <c r="G26">
         <f t="shared" si="2"/>
-        <v>[outlayed_amount_from_COVID-19_supplementals_for_overall_award] decimal(19,4) NULL,</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="L26" t="s">
@@ -12859,14 +12859,14 @@
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>628</v>
+        <v>658</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
         <v>obligated_amount_from_COVID-19_supplementals_for_overall_award</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>decimal</v>
       </c>
       <c r="E27" t="str">
@@ -12874,11 +12874,11 @@
         <v/>
       </c>
       <c r="F27" t="str">
+        <f t="shared" si="1"/>
+        <v>[obligated_amount_from_COVID-19_supplementals_for_overall_award] [decimal](19, 4) NULL,</v>
+      </c>
+      <c r="G27">
         <f t="shared" si="2"/>
-        <v>[obligated_amount_from_COVID-19_supplementals_for_overall_award] decimal(19,4) NULL,</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="L27" t="s">
@@ -12893,14 +12893,14 @@
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>629</v>
+        <v>659</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
         <v>outlayed_amount_from_IIJA_supplemental_for_overall_award</v>
       </c>
       <c r="D28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>decimal</v>
       </c>
       <c r="E28" t="str">
@@ -12908,11 +12908,11 @@
         <v/>
       </c>
       <c r="F28" t="str">
+        <f t="shared" si="1"/>
+        <v>[outlayed_amount_from_IIJA_supplemental_for_overall_award] [decimal](19, 4) NULL,</v>
+      </c>
+      <c r="G28">
         <f t="shared" si="2"/>
-        <v>[outlayed_amount_from_IIJA_supplemental_for_overall_award] decimal(19,4) NULL,</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="L28" t="s">
@@ -12927,14 +12927,14 @@
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>630</v>
+        <v>660</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
         <v>obligated_amount_from_IIJA_supplemental_for_overall_award</v>
       </c>
       <c r="D29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>decimal</v>
       </c>
       <c r="E29" t="str">
@@ -12942,11 +12942,11 @@
         <v/>
       </c>
       <c r="F29" t="str">
+        <f t="shared" si="1"/>
+        <v>[obligated_amount_from_IIJA_supplemental_for_overall_award] [decimal](19, 4) NULL,</v>
+      </c>
+      <c r="G29">
         <f t="shared" si="2"/>
-        <v>[obligated_amount_from_IIJA_supplemental_for_overall_award] decimal(19,4) NULL,</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="L29" t="s">
@@ -12961,14 +12961,14 @@
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
         <v>action_date</v>
       </c>
       <c r="D30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>date</v>
       </c>
       <c r="E30" t="str">
@@ -12976,11 +12976,11 @@
         <v/>
       </c>
       <c r="F30" t="str">
+        <f t="shared" si="1"/>
+        <v>[action_date] [date] NULL,</v>
+      </c>
+      <c r="G30">
         <f t="shared" si="2"/>
-        <v>[action_date] [date] NULL,</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="L30" t="s">
@@ -12995,14 +12995,14 @@
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>632</v>
+        <v>661</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
         <v>action_date_fiscal_year</v>
       </c>
       <c r="D31" t="str">
-        <f>IF(IFERROR(FIND("decimal(",B31),0)&lt;&gt;0,"decimal",IF(IFERROR(FIND("[date]",B31),0)&lt;&gt;0,"date",IF(IFERROR(FIND("[varchar]",B31),0)&lt;&gt;0,"varchar",IF(IFERROR(FIND("integer",B31),0)&lt;&gt;0,"integer","unknown"))))</f>
+        <f t="shared" si="3"/>
         <v>integer</v>
       </c>
       <c r="E31" t="str">
@@ -13010,11 +13010,11 @@
         <v/>
       </c>
       <c r="F31" t="str">
+        <f t="shared" si="1"/>
+        <v>[action_date_fiscal_year] [int] NULL,</v>
+      </c>
+      <c r="G31">
         <f t="shared" si="2"/>
-        <v>[action_date_fiscal_year] integer NULL,</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="L31" t="s">
@@ -13029,14 +13029,14 @@
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>633</v>
+        <v>618</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
         <v>period_of_performance_start_date</v>
       </c>
       <c r="D32" t="str">
-        <f t="shared" ref="D32:D95" si="6">IF(IFERROR(FIND("decimal(",B32),0)&lt;&gt;0,"decimal",IF(IFERROR(FIND("[date]",B32),0)&lt;&gt;0,"date",IF(IFERROR(FIND("[varchar]",B32),0)&lt;&gt;0,"varchar",IF(IFERROR(FIND("integer",B32),0)&lt;&gt;0,"integer","unknown"))))</f>
+        <f t="shared" si="3"/>
         <v>date</v>
       </c>
       <c r="E32" t="str">
@@ -13044,11 +13044,11 @@
         <v/>
       </c>
       <c r="F32" t="str">
+        <f t="shared" si="1"/>
+        <v>[period_of_performance_start_date] [date] NULL,</v>
+      </c>
+      <c r="G32">
         <f t="shared" si="2"/>
-        <v>[period_of_performance_start_date] [date] NULL,</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="L32" t="s">
@@ -13063,14 +13063,14 @@
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>634</v>
+        <v>619</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
         <v>period_of_performance_current_end_date</v>
       </c>
       <c r="D33" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>date</v>
       </c>
       <c r="E33" t="str">
@@ -13078,11 +13078,11 @@
         <v/>
       </c>
       <c r="F33" t="str">
+        <f t="shared" si="1"/>
+        <v>[period_of_performance_current_end_date] [date] NULL,</v>
+      </c>
+      <c r="G33">
         <f t="shared" si="2"/>
-        <v>[period_of_performance_current_end_date] [date] NULL,</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="L33" t="s">
@@ -13104,7 +13104,7 @@
         <v>awarding_agency_code</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>varchar</v>
       </c>
       <c r="E34" t="str">
@@ -13112,11 +13112,11 @@
         <v>255</v>
       </c>
       <c r="F34" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G34">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G34">
-        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="L34" t="s">
@@ -13138,7 +13138,7 @@
         <v>awarding_agency_name</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>varchar</v>
       </c>
       <c r="E35" t="str">
@@ -13146,11 +13146,11 @@
         <v>255</v>
       </c>
       <c r="F35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G35">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G35">
-        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="L35" t="s">
@@ -13172,7 +13172,7 @@
         <v>awarding_sub_agency_code</v>
       </c>
       <c r="D36" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>varchar</v>
       </c>
       <c r="E36" t="str">
@@ -13180,11 +13180,11 @@
         <v>255</v>
       </c>
       <c r="F36" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G36">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G36">
-        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="L36" t="s">
@@ -13206,7 +13206,7 @@
         <v>awarding_sub_agency_name</v>
       </c>
       <c r="D37" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>varchar</v>
       </c>
       <c r="E37" t="str">
@@ -13214,11 +13214,11 @@
         <v>255</v>
       </c>
       <c r="F37" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G37">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G37">
-        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="L37" t="s">
@@ -13240,7 +13240,7 @@
         <v>awarding_office_code</v>
       </c>
       <c r="D38" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>varchar</v>
       </c>
       <c r="E38" t="str">
@@ -13248,11 +13248,11 @@
         <v>255</v>
       </c>
       <c r="F38" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G38">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G38">
-        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="L38" t="s">
@@ -13274,7 +13274,7 @@
         <v>awarding_office_name</v>
       </c>
       <c r="D39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>varchar</v>
       </c>
       <c r="E39" t="str">
@@ -13282,11 +13282,11 @@
         <v>255</v>
       </c>
       <c r="F39" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G39">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G39">
-        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="L39" t="s">
@@ -13308,7 +13308,7 @@
         <v>funding_agency_code</v>
       </c>
       <c r="D40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>varchar</v>
       </c>
       <c r="E40" t="str">
@@ -13316,11 +13316,11 @@
         <v>255</v>
       </c>
       <c r="F40" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G40">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G40">
-        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="L40" t="s">
@@ -13342,7 +13342,7 @@
         <v>funding_agency_name</v>
       </c>
       <c r="D41" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>varchar</v>
       </c>
       <c r="E41" t="str">
@@ -13350,11 +13350,11 @@
         <v>255</v>
       </c>
       <c r="F41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G41">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G41">
-        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="L41" t="s">
@@ -13376,7 +13376,7 @@
         <v>funding_sub_agency_code</v>
       </c>
       <c r="D42" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>varchar</v>
       </c>
       <c r="E42" t="str">
@@ -13384,11 +13384,11 @@
         <v>255</v>
       </c>
       <c r="F42" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G42">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G42">
-        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="L42" t="s">
@@ -13410,7 +13410,7 @@
         <v>funding_sub_agency_name</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>varchar</v>
       </c>
       <c r="E43" t="str">
@@ -13418,11 +13418,11 @@
         <v>255</v>
       </c>
       <c r="F43" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G43">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G43">
-        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="L43" t="s">
@@ -13444,7 +13444,7 @@
         <v>funding_office_code</v>
       </c>
       <c r="D44" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>varchar</v>
       </c>
       <c r="E44" t="str">
@@ -13452,11 +13452,11 @@
         <v>255</v>
       </c>
       <c r="F44" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G44">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G44">
-        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="L44" t="s">
@@ -13478,7 +13478,7 @@
         <v>funding_office_name</v>
       </c>
       <c r="D45" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>varchar</v>
       </c>
       <c r="E45" t="str">
@@ -13486,11 +13486,11 @@
         <v>255</v>
       </c>
       <c r="F45" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G45">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G45">
-        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="L45" t="s">
@@ -13512,7 +13512,7 @@
         <v>treasury_accounts_funding_this_award</v>
       </c>
       <c r="D46" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>varchar</v>
       </c>
       <c r="E46" t="str">
@@ -13520,11 +13520,11 @@
         <v>4000</v>
       </c>
       <c r="F46" t="str">
+        <f t="shared" si="1"/>
+        <v>[treasury_accounts_funding_this_award] [varchar](4000) NULL,</v>
+      </c>
+      <c r="G46">
         <f t="shared" si="2"/>
-        <v>[treasury_accounts_funding_this_award] [varchar](4000) NULL,</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="3"/>
         <v>4000</v>
       </c>
       <c r="L46" t="s">
@@ -13546,7 +13546,7 @@
         <v>federal_accounts_funding_this_award</v>
       </c>
       <c r="D47" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>varchar</v>
       </c>
       <c r="E47" t="str">
@@ -13554,11 +13554,11 @@
         <v>4000</v>
       </c>
       <c r="F47" t="str">
+        <f t="shared" si="1"/>
+        <v>[federal_accounts_funding_this_award] [varchar](4000) NULL,</v>
+      </c>
+      <c r="G47">
         <f t="shared" si="2"/>
-        <v>[federal_accounts_funding_this_award] [varchar](4000) NULL,</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="3"/>
         <v>4000</v>
       </c>
       <c r="L47" t="s">
@@ -13580,7 +13580,7 @@
         <v>object_classes_funding_this_award</v>
       </c>
       <c r="D48" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>varchar</v>
       </c>
       <c r="E48" t="str">
@@ -13588,11 +13588,11 @@
         <v>4000</v>
       </c>
       <c r="F48" t="str">
+        <f t="shared" si="1"/>
+        <v>[object_classes_funding_this_award] [varchar](4000) NULL,</v>
+      </c>
+      <c r="G48">
         <f t="shared" si="2"/>
-        <v>[object_classes_funding_this_award] [varchar](4000) NULL,</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="3"/>
         <v>4000</v>
       </c>
       <c r="L48" t="s">
@@ -13614,7 +13614,7 @@
         <v>program_activities_funding_this_award</v>
       </c>
       <c r="D49" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>varchar</v>
       </c>
       <c r="E49" t="str">
@@ -13622,11 +13622,11 @@
         <v>5000</v>
       </c>
       <c r="F49" t="str">
+        <f t="shared" si="1"/>
+        <v>[program_activities_funding_this_award] [varchar](5000) NULL,</v>
+      </c>
+      <c r="G49">
         <f t="shared" si="2"/>
-        <v>[program_activities_funding_this_award] [varchar](5000) NULL,</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="L49" t="s">
@@ -13648,7 +13648,7 @@
         <v>recipient_uei</v>
       </c>
       <c r="D50" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>varchar</v>
       </c>
       <c r="E50" t="str">
@@ -13656,11 +13656,11 @@
         <v>255</v>
       </c>
       <c r="F50" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G50">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G50">
-        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="L50" t="s">
@@ -13682,7 +13682,7 @@
         <v>recipient_duns</v>
       </c>
       <c r="D51" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>varchar</v>
       </c>
       <c r="E51" t="str">
@@ -13690,11 +13690,11 @@
         <v>255</v>
       </c>
       <c r="F51" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G51">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G51">
-        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="L51" t="s">
@@ -13716,7 +13716,7 @@
         <v>recipient_name</v>
       </c>
       <c r="D52" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>varchar</v>
       </c>
       <c r="E52" t="str">
@@ -13724,11 +13724,11 @@
         <v>255</v>
       </c>
       <c r="F52" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G52">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G52">
-        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="L52" t="s">
@@ -13750,7 +13750,7 @@
         <v>recipient_name_raw</v>
       </c>
       <c r="D53" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>varchar</v>
       </c>
       <c r="E53" t="str">
@@ -13758,11 +13758,11 @@
         <v>255</v>
       </c>
       <c r="F53" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G53">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G53">
-        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="L53" t="s">
@@ -13784,7 +13784,7 @@
         <v>recipient_parent_uei</v>
       </c>
       <c r="D54" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>varchar</v>
       </c>
       <c r="E54" t="str">
@@ -13792,11 +13792,11 @@
         <v>255</v>
       </c>
       <c r="F54" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G54">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G54">
-        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="L54" t="s">
@@ -13818,7 +13818,7 @@
         <v>recipient_parent_duns</v>
       </c>
       <c r="D55" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>varchar</v>
       </c>
       <c r="E55" t="str">
@@ -13826,11 +13826,11 @@
         <v>255</v>
       </c>
       <c r="F55" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G55">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G55">
-        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="L55" t="s">
@@ -13852,7 +13852,7 @@
         <v>recipient_parent_name</v>
       </c>
       <c r="D56" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>varchar</v>
       </c>
       <c r="E56" t="str">
@@ -13860,11 +13860,11 @@
         <v>255</v>
       </c>
       <c r="F56" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G56">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G56">
-        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="L56" t="s">
@@ -13887,7 +13887,7 @@
         <v>recipient_parent_name_raw</v>
       </c>
       <c r="D57" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>varchar</v>
       </c>
       <c r="E57" t="str">
@@ -13895,11 +13895,11 @@
         <v>255</v>
       </c>
       <c r="F57" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G57">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G57">
-        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="L57" t="s">
@@ -13921,7 +13921,7 @@
         <v>recipient_country_code</v>
       </c>
       <c r="D58" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>varchar</v>
       </c>
       <c r="E58" t="str">
@@ -13929,11 +13929,11 @@
         <v>255</v>
       </c>
       <c r="F58" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G58">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G58">
-        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="L58" t="s">
@@ -13955,7 +13955,7 @@
         <v>recipient_country_name</v>
       </c>
       <c r="D59" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>varchar</v>
       </c>
       <c r="E59" t="str">
@@ -13963,11 +13963,11 @@
         <v>255</v>
       </c>
       <c r="F59" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G59">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G59">
-        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="L59" t="s">
@@ -13989,7 +13989,7 @@
         <v>recipient_address_line_1</v>
       </c>
       <c r="D60" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>varchar</v>
       </c>
       <c r="E60" t="str">
@@ -13997,11 +13997,11 @@
         <v>255</v>
       </c>
       <c r="F60" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G60">
-        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="L60" t="s">
@@ -14023,7 +14023,7 @@
         <v>recipient_address_line_2</v>
       </c>
       <c r="D61" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>varchar</v>
       </c>
       <c r="E61" t="str">
@@ -14031,11 +14031,11 @@
         <v>255</v>
       </c>
       <c r="F61" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G61">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G61">
-        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="L61" t="s">
@@ -14050,14 +14050,14 @@
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>635</v>
+        <v>620</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" si="0"/>
         <v>recipient_city_code</v>
       </c>
       <c r="D62" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>varchar</v>
       </c>
       <c r="E62" t="str">
@@ -14065,11 +14065,11 @@
         <v>255</v>
       </c>
       <c r="F62" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G62" t="e">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G62" t="e">
-        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="L62" t="s">
@@ -14092,7 +14092,7 @@
         <v>recipient_city_name</v>
       </c>
       <c r="D63" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>varchar</v>
       </c>
       <c r="E63" t="str">
@@ -14100,11 +14100,11 @@
         <v>255</v>
       </c>
       <c r="F63" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G63">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G63">
-        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="L63" t="s">
@@ -14126,7 +14126,7 @@
         <v>prime_award_transaction_recipient_county_fips_code</v>
       </c>
       <c r="D64" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>varchar</v>
       </c>
       <c r="E64" t="str">
@@ -14134,11 +14134,11 @@
         <v>255</v>
       </c>
       <c r="F64" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G64">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G64">
-        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="L64" t="s">
@@ -14160,7 +14160,7 @@
         <v>recipient_county_name</v>
       </c>
       <c r="D65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>varchar</v>
       </c>
       <c r="E65" t="str">
@@ -14168,11 +14168,11 @@
         <v>255</v>
       </c>
       <c r="F65" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G65">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G65">
-        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="L65" t="s">
@@ -14194,7 +14194,7 @@
         <v>prime_award_transaction_recipient_state_fips_code</v>
       </c>
       <c r="D66" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>varchar</v>
       </c>
       <c r="E66" t="str">
@@ -14202,11 +14202,11 @@
         <v>255</v>
       </c>
       <c r="F66" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G66">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G66">
-        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="L66" t="s">
@@ -14228,7 +14228,7 @@
         <v>recipient_state_code</v>
       </c>
       <c r="D67" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>varchar</v>
       </c>
       <c r="E67" t="str">
@@ -14236,11 +14236,11 @@
         <v>255</v>
       </c>
       <c r="F67" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G67">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G67">
-        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="L67" t="s">
@@ -14262,7 +14262,7 @@
         <v>recipient_state_name</v>
       </c>
       <c r="D68" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>varchar</v>
       </c>
       <c r="E68" t="str">
@@ -14270,11 +14270,11 @@
         <v>255</v>
       </c>
       <c r="F68" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G68">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G68">
-        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="L68" t="s">
@@ -14289,14 +14289,14 @@
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="C69" t="str">
         <f t="shared" si="0"/>
         <v>recipient_zip_code</v>
       </c>
       <c r="D69" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>varchar</v>
       </c>
       <c r="E69" t="str">
@@ -14304,11 +14304,11 @@
         <v>255</v>
       </c>
       <c r="F69" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G69" t="e">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G69" t="e">
-        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="L69" t="s">
@@ -14323,14 +14323,14 @@
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>637</v>
+        <v>622</v>
       </c>
       <c r="C70" t="str">
         <f t="shared" si="0"/>
         <v>recipient_zip_last_4_code</v>
       </c>
       <c r="D70" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>varchar</v>
       </c>
       <c r="E70" t="str">
@@ -14338,11 +14338,11 @@
         <v>255</v>
       </c>
       <c r="F70" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G70" t="e">
-        <f t="shared" ref="G70:G133" si="7">VLOOKUP(C70,col_match,3,FALSE)</f>
+        <f t="shared" ref="G70:G133" si="6">VLOOKUP(C70,col_match,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L70" t="s">
@@ -14364,7 +14364,7 @@
         <v>prime_award_transaction_recipient_cd_original</v>
       </c>
       <c r="D71" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>varchar</v>
       </c>
       <c r="E71" t="str">
@@ -14372,11 +14372,11 @@
         <v>255</v>
       </c>
       <c r="F71" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G71" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="L71" t="s">
@@ -14398,7 +14398,7 @@
         <v>prime_award_transaction_recipient_cd_current</v>
       </c>
       <c r="D72" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>varchar</v>
       </c>
       <c r="E72" t="str">
@@ -14406,11 +14406,11 @@
         <v>255</v>
       </c>
       <c r="F72" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G72" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="I72" s="1" t="s">
@@ -14428,14 +14428,14 @@
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>638</v>
+        <v>623</v>
       </c>
       <c r="C73" t="str">
-        <f t="shared" ref="C73:C136" si="8">MID(B73,2,FIND("]",B73)-2)</f>
+        <f t="shared" ref="C73:C136" si="7">MID(B73,2,FIND("]",B73)-2)</f>
         <v>recipient_foreign_city_name</v>
       </c>
       <c r="D73" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>varchar</v>
       </c>
       <c r="E73" t="str">
@@ -14443,11 +14443,11 @@
         <v>255</v>
       </c>
       <c r="F73" t="str">
-        <f t="shared" ref="F73:F136" si="9">IF(E73&lt;&gt;"255",B73,"")</f>
+        <f t="shared" ref="F73:F136" si="8">IF(E73&lt;&gt;"255",B73,"")</f>
         <v/>
       </c>
       <c r="G73" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="L73" t="s">
@@ -14462,14 +14462,14 @@
     </row>
     <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>639</v>
+        <v>624</v>
       </c>
       <c r="C74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>recipient_foreign_province_name</v>
       </c>
       <c r="D74" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="D74:D137" si="9">IF(IFERROR(FIND("decimal",B74),0)&lt;&gt;0,"decimal",IF(IFERROR(FIND("[date]",B74),0)&lt;&gt;0,"date",IF(IFERROR(FIND("[varchar]",B74),0)&lt;&gt;0,"varchar",IF(IFERROR(FIND("integer",B74),0)&lt;&gt;0,"integer",IF(IFERROR(FIND("[int]",B74),0)&lt;&gt;0,"integer","unknown")))))</f>
         <v>varchar</v>
       </c>
       <c r="E74" t="str">
@@ -14477,11 +14477,11 @@
         <v>255</v>
       </c>
       <c r="F74" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G74" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="L74" t="s">
@@ -14496,14 +14496,14 @@
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>640</v>
+        <v>625</v>
       </c>
       <c r="C75" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>recipient_foreign_postal_code</v>
       </c>
       <c r="D75" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>varchar</v>
       </c>
       <c r="E75" t="str">
@@ -14511,11 +14511,11 @@
         <v>255</v>
       </c>
       <c r="F75" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G75" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="L75" t="s">
@@ -14530,14 +14530,14 @@
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>641</v>
+        <v>626</v>
       </c>
       <c r="C76" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>primary_place_of_performance_scope</v>
       </c>
       <c r="D76" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>varchar</v>
       </c>
       <c r="E76" t="str">
@@ -14545,11 +14545,11 @@
         <v>255</v>
       </c>
       <c r="F76" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G76" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="L76" t="s">
@@ -14567,11 +14567,11 @@
         <v>51</v>
       </c>
       <c r="C77" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>primary_place_of_performance_country_code</v>
       </c>
       <c r="D77" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>varchar</v>
       </c>
       <c r="E77" t="str">
@@ -14579,11 +14579,11 @@
         <v>255</v>
       </c>
       <c r="F77" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G77">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>255</v>
       </c>
       <c r="L77" t="s">
@@ -14601,11 +14601,11 @@
         <v>52</v>
       </c>
       <c r="C78" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>primary_place_of_performance_country_name</v>
       </c>
       <c r="D78" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>varchar</v>
       </c>
       <c r="E78" t="str">
@@ -14613,11 +14613,11 @@
         <v>255</v>
       </c>
       <c r="F78" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G78">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>255</v>
       </c>
       <c r="L78" t="s">
@@ -14632,14 +14632,14 @@
     </row>
     <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="C79" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>primary_place_of_performance_code</v>
       </c>
       <c r="D79" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>varchar</v>
       </c>
       <c r="E79" t="str">
@@ -14647,11 +14647,11 @@
         <v>255</v>
       </c>
       <c r="F79" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G79" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="L79" t="s">
@@ -14669,11 +14669,11 @@
         <v>53</v>
       </c>
       <c r="C80" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>primary_place_of_performance_city_name</v>
       </c>
       <c r="D80" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>varchar</v>
       </c>
       <c r="E80" t="str">
@@ -14681,11 +14681,11 @@
         <v>255</v>
       </c>
       <c r="F80" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>255</v>
       </c>
       <c r="L80" t="s">
@@ -14703,11 +14703,11 @@
         <v>597</v>
       </c>
       <c r="C81" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>prime_award_transaction_place_of_performance_county_fips_code</v>
       </c>
       <c r="D81" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>varchar</v>
       </c>
       <c r="E81" t="str">
@@ -14715,11 +14715,11 @@
         <v>255</v>
       </c>
       <c r="F81" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>255</v>
       </c>
       <c r="L81" t="s">
@@ -14737,11 +14737,11 @@
         <v>54</v>
       </c>
       <c r="C82" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>primary_place_of_performance_county_name</v>
       </c>
       <c r="D82" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>varchar</v>
       </c>
       <c r="E82" t="str">
@@ -14749,11 +14749,11 @@
         <v>255</v>
       </c>
       <c r="F82" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>255</v>
       </c>
       <c r="L82" t="s">
@@ -14771,11 +14771,11 @@
         <v>598</v>
       </c>
       <c r="C83" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>prime_award_transaction_place_of_performance_state_fips_code</v>
       </c>
       <c r="D83" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>varchar</v>
       </c>
       <c r="E83" t="str">
@@ -14783,11 +14783,11 @@
         <v>255</v>
       </c>
       <c r="F83" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G83">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>255</v>
       </c>
       <c r="L83" t="s">
@@ -14805,11 +14805,11 @@
         <v>56</v>
       </c>
       <c r="C84" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>primary_place_of_performance_state_name</v>
       </c>
       <c r="D84" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>varchar</v>
       </c>
       <c r="E84" t="str">
@@ -14817,11 +14817,11 @@
         <v>255</v>
       </c>
       <c r="F84" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G84">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>255</v>
       </c>
       <c r="L84" t="s">
@@ -14839,11 +14839,11 @@
         <v>57</v>
       </c>
       <c r="C85" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>primary_place_of_performance_zip_4</v>
       </c>
       <c r="D85" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>varchar</v>
       </c>
       <c r="E85" t="str">
@@ -14851,11 +14851,11 @@
         <v>255</v>
       </c>
       <c r="F85" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>255</v>
       </c>
       <c r="L85" t="s">
@@ -14873,11 +14873,11 @@
         <v>601</v>
       </c>
       <c r="C86" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>prime_award_transaction_place_of_performance_cd_original</v>
       </c>
       <c r="D86" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>varchar</v>
       </c>
       <c r="E86" t="str">
@@ -14885,11 +14885,11 @@
         <v>255</v>
       </c>
       <c r="F86" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G86" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="L86" t="s">
@@ -14907,11 +14907,11 @@
         <v>602</v>
       </c>
       <c r="C87" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>prime_award_transaction_place_of_performance_cd_current</v>
       </c>
       <c r="D87" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>varchar</v>
       </c>
       <c r="E87" t="str">
@@ -14919,11 +14919,11 @@
         <v>255</v>
       </c>
       <c r="F87" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G87" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="L87" t="s">
@@ -14938,14 +14938,14 @@
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="C88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>primary_place_of_performance_foreign_location</v>
       </c>
       <c r="D88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>varchar</v>
       </c>
       <c r="E88" t="str">
@@ -14953,11 +14953,11 @@
         <v>255</v>
       </c>
       <c r="F88" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G88" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="L88" t="s">
@@ -14972,26 +14972,26 @@
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>644</v>
+        <v>662</v>
       </c>
       <c r="C89" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>cfda_number</v>
       </c>
       <c r="D89" t="str">
-        <f t="shared" si="6"/>
-        <v>decimal</v>
+        <f t="shared" si="9"/>
+        <v>varchar</v>
       </c>
       <c r="E89" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>255</v>
       </c>
       <c r="F89" t="str">
-        <f t="shared" si="9"/>
-        <v>[cfda_number] decimal(19,4) NULL,</v>
+        <f t="shared" si="8"/>
+        <v/>
       </c>
       <c r="G89" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="L89" t="s">
@@ -15006,14 +15006,14 @@
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="C90" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>cfda_title</v>
       </c>
       <c r="D90" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>varchar</v>
       </c>
       <c r="E90" t="str">
@@ -15021,11 +15021,11 @@
         <v>255</v>
       </c>
       <c r="F90" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G90" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="L90" t="s">
@@ -15040,14 +15040,14 @@
     </row>
     <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>646</v>
+        <v>630</v>
       </c>
       <c r="C91" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>funding_opportunity_number</v>
       </c>
       <c r="D91" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>varchar</v>
       </c>
       <c r="E91" t="str">
@@ -15055,11 +15055,11 @@
         <v>255</v>
       </c>
       <c r="F91" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G91" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="L91" t="s">
@@ -15074,14 +15074,14 @@
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>647</v>
+        <v>631</v>
       </c>
       <c r="C92" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>funding_opportunity_goals_text</v>
       </c>
       <c r="D92" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>varchar</v>
       </c>
       <c r="E92" t="str">
@@ -15089,11 +15089,11 @@
         <v>255</v>
       </c>
       <c r="F92" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G92" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="L92" t="s">
@@ -15108,14 +15108,14 @@
     </row>
     <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="C93" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>assistance_type_code</v>
       </c>
       <c r="D93" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>varchar</v>
       </c>
       <c r="E93" t="str">
@@ -15123,11 +15123,11 @@
         <v>255</v>
       </c>
       <c r="F93" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G93" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="L93" t="s">
@@ -15142,14 +15142,14 @@
     </row>
     <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>649</v>
+        <v>633</v>
       </c>
       <c r="C94" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>assistance_type_description</v>
       </c>
       <c r="D94" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>varchar</v>
       </c>
       <c r="E94" t="str">
@@ -15157,11 +15157,11 @@
         <v>255</v>
       </c>
       <c r="F94" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G94" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="L94" t="s">
@@ -15179,11 +15179,11 @@
         <v>584</v>
       </c>
       <c r="C95" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>transaction_description</v>
       </c>
       <c r="D95" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>varchar</v>
       </c>
       <c r="E95" t="str">
@@ -15191,11 +15191,11 @@
         <v>4008</v>
       </c>
       <c r="F95" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>[transaction_description] [varchar](4008) NULL,</v>
       </c>
       <c r="G95">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>4008</v>
       </c>
       <c r="L95" t="s">
@@ -15213,11 +15213,11 @@
         <v>283</v>
       </c>
       <c r="C96" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>prime_award_base_transaction_description</v>
       </c>
       <c r="D96" t="str">
-        <f t="shared" ref="D96:D159" si="11">IF(IFERROR(FIND("decimal(",B96),0)&lt;&gt;0,"decimal",IF(IFERROR(FIND("[date]",B96),0)&lt;&gt;0,"date",IF(IFERROR(FIND("[varchar]",B96),0)&lt;&gt;0,"varchar",IF(IFERROR(FIND("integer",B96),0)&lt;&gt;0,"integer","unknown"))))</f>
+        <f t="shared" si="9"/>
         <v>varchar</v>
       </c>
       <c r="E96" t="str">
@@ -15225,11 +15225,11 @@
         <v>4008</v>
       </c>
       <c r="F96" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>[prime_award_base_transaction_description] [varchar](4008) NULL,</v>
       </c>
       <c r="G96">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>4008</v>
       </c>
       <c r="L96" t="s">
@@ -15244,14 +15244,14 @@
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>650</v>
+        <v>634</v>
       </c>
       <c r="C97" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>business_funds_indicator_code</v>
       </c>
       <c r="D97" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>varchar</v>
       </c>
       <c r="E97" t="str">
@@ -15259,11 +15259,11 @@
         <v>255</v>
       </c>
       <c r="F97" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G97" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="L97" t="s">
@@ -15278,14 +15278,14 @@
     </row>
     <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="C98" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>business_funds_indicator_description</v>
       </c>
       <c r="D98" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>varchar</v>
       </c>
       <c r="E98" t="str">
@@ -15293,11 +15293,11 @@
         <v>255</v>
       </c>
       <c r="F98" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G98" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="L98" t="s">
@@ -15312,14 +15312,14 @@
     </row>
     <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>652</v>
+        <v>636</v>
       </c>
       <c r="C99" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>business_types_code</v>
       </c>
       <c r="D99" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>varchar</v>
       </c>
       <c r="E99" t="str">
@@ -15327,11 +15327,11 @@
         <v>255</v>
       </c>
       <c r="F99" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G99" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="L99" t="s">
@@ -15346,14 +15346,14 @@
     </row>
     <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="C100" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>business_types_description</v>
       </c>
       <c r="D100" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>varchar</v>
       </c>
       <c r="E100" t="str">
@@ -15361,11 +15361,11 @@
         <v>255</v>
       </c>
       <c r="F100" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G100" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="L100" t="s">
@@ -15380,14 +15380,14 @@
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>654</v>
+        <v>638</v>
       </c>
       <c r="C101" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>correction_delete_indicator_code</v>
       </c>
       <c r="D101" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>varchar</v>
       </c>
       <c r="E101" t="str">
@@ -15395,11 +15395,11 @@
         <v>255</v>
       </c>
       <c r="F101" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G101" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="L101" t="s">
@@ -15414,14 +15414,14 @@
     </row>
     <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="C102" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>correction_delete_indicator_description</v>
       </c>
       <c r="D102" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>varchar</v>
       </c>
       <c r="E102" t="str">
@@ -15429,11 +15429,11 @@
         <v>255</v>
       </c>
       <c r="F102" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G102" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="L102" t="s">
@@ -15451,11 +15451,11 @@
         <v>70</v>
       </c>
       <c r="C103" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>action_type_code</v>
       </c>
       <c r="D103" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>varchar</v>
       </c>
       <c r="E103" t="str">
@@ -15463,11 +15463,11 @@
         <v>255</v>
       </c>
       <c r="F103" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G103">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>255</v>
       </c>
       <c r="L103" t="s">
@@ -15482,14 +15482,14 @@
     </row>
     <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>656</v>
+        <v>640</v>
       </c>
       <c r="C104" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>action_type_description</v>
       </c>
       <c r="D104" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>varchar</v>
       </c>
       <c r="E104" t="str">
@@ -15497,11 +15497,11 @@
         <v>255</v>
       </c>
       <c r="F104" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G104" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="L104" t="s">
@@ -15516,14 +15516,14 @@
     </row>
     <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="C105" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>record_type_code</v>
       </c>
       <c r="D105" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>varchar</v>
       </c>
       <c r="E105" t="str">
@@ -15531,11 +15531,11 @@
         <v>255</v>
       </c>
       <c r="F105" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G105" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="L105" t="s">
@@ -15550,14 +15550,14 @@
     </row>
     <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="C106" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>record_type_description</v>
       </c>
       <c r="D106" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>varchar</v>
       </c>
       <c r="E106" t="str">
@@ -15565,11 +15565,11 @@
         <v>255</v>
       </c>
       <c r="F106" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G106" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="L106" t="s">
@@ -15587,11 +15587,11 @@
         <v>263</v>
       </c>
       <c r="C107" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>highly_compensated_officer_1_name</v>
       </c>
       <c r="D107" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>varchar</v>
       </c>
       <c r="E107" t="str">
@@ -15599,11 +15599,11 @@
         <v>255</v>
       </c>
       <c r="F107" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>255</v>
       </c>
       <c r="L107" t="s">
@@ -15618,14 +15618,14 @@
     </row>
     <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="C108" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>highly_compensated_officer_1_amount</v>
       </c>
       <c r="D108" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>decimal</v>
       </c>
       <c r="E108" t="str">
@@ -15633,11 +15633,11 @@
         <v/>
       </c>
       <c r="F108" t="str">
-        <f t="shared" si="9"/>
-        <v>[highly_compensated_officer_1_amount] decimal(19,4) NULL,</v>
+        <f t="shared" si="8"/>
+        <v>[highly_compensated_officer_1_amount] [decimal](19, 4) NULL,</v>
       </c>
       <c r="G108">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>255</v>
       </c>
       <c r="L108" t="s">
@@ -15655,11 +15655,11 @@
         <v>265</v>
       </c>
       <c r="C109" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>highly_compensated_officer_2_name</v>
       </c>
       <c r="D109" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>varchar</v>
       </c>
       <c r="E109" t="str">
@@ -15667,11 +15667,11 @@
         <v>255</v>
       </c>
       <c r="F109" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G109">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>255</v>
       </c>
       <c r="L109" t="s">
@@ -15686,14 +15686,14 @@
     </row>
     <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="C110" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>highly_compensated_officer_2_amount</v>
       </c>
       <c r="D110" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>decimal</v>
       </c>
       <c r="E110" t="str">
@@ -15701,11 +15701,11 @@
         <v/>
       </c>
       <c r="F110" t="str">
-        <f t="shared" si="9"/>
-        <v>[highly_compensated_officer_2_amount] decimal(19,4) NULL,</v>
+        <f t="shared" si="8"/>
+        <v>[highly_compensated_officer_2_amount] [decimal](19, 4) NULL,</v>
       </c>
       <c r="G110">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>255</v>
       </c>
       <c r="L110" t="s">
@@ -15723,11 +15723,11 @@
         <v>267</v>
       </c>
       <c r="C111" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>highly_compensated_officer_3_name</v>
       </c>
       <c r="D111" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>varchar</v>
       </c>
       <c r="E111" t="str">
@@ -15735,11 +15735,11 @@
         <v>255</v>
       </c>
       <c r="F111" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G111">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>255</v>
       </c>
       <c r="L111" t="s">
@@ -15754,14 +15754,14 @@
     </row>
     <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="C112" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>highly_compensated_officer_3_amount</v>
       </c>
       <c r="D112" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>decimal</v>
       </c>
       <c r="E112" t="str">
@@ -15769,11 +15769,11 @@
         <v/>
       </c>
       <c r="F112" t="str">
-        <f t="shared" si="9"/>
-        <v>[highly_compensated_officer_3_amount] decimal(19,4) NULL,</v>
+        <f t="shared" si="8"/>
+        <v>[highly_compensated_officer_3_amount] [decimal](19, 4) NULL,</v>
       </c>
       <c r="G112">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>255</v>
       </c>
       <c r="L112" t="s">
@@ -15791,11 +15791,11 @@
         <v>269</v>
       </c>
       <c r="C113" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>highly_compensated_officer_4_name</v>
       </c>
       <c r="D113" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>varchar</v>
       </c>
       <c r="E113" t="str">
@@ -15803,11 +15803,11 @@
         <v>255</v>
       </c>
       <c r="F113" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G113">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>255</v>
       </c>
       <c r="L113" t="s">
@@ -15822,14 +15822,14 @@
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="C114" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>highly_compensated_officer_4_amount</v>
       </c>
       <c r="D114" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>decimal</v>
       </c>
       <c r="E114" t="str">
@@ -15837,11 +15837,11 @@
         <v/>
       </c>
       <c r="F114" t="str">
-        <f t="shared" si="9"/>
-        <v>[highly_compensated_officer_4_amount] decimal(19,4) NULL,</v>
+        <f t="shared" si="8"/>
+        <v>[highly_compensated_officer_4_amount] [decimal](19, 4) NULL,</v>
       </c>
       <c r="G114">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>255</v>
       </c>
       <c r="L114" t="s">
@@ -15859,11 +15859,11 @@
         <v>271</v>
       </c>
       <c r="C115" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>highly_compensated_officer_5_name</v>
       </c>
       <c r="D115" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>varchar</v>
       </c>
       <c r="E115" t="str">
@@ -15871,11 +15871,11 @@
         <v>255</v>
       </c>
       <c r="F115" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G115">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>255</v>
       </c>
       <c r="L115" t="s">
@@ -15890,14 +15890,14 @@
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="C116" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>highly_compensated_officer_5_amount</v>
       </c>
       <c r="D116" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>decimal</v>
       </c>
       <c r="E116" t="str">
@@ -15905,11 +15905,11 @@
         <v/>
       </c>
       <c r="F116" t="str">
-        <f t="shared" si="9"/>
-        <v>[highly_compensated_officer_5_amount] decimal(19,4) NULL,</v>
+        <f t="shared" si="8"/>
+        <v>[highly_compensated_officer_5_amount] [decimal](19, 4) NULL,</v>
       </c>
       <c r="G116">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>255</v>
       </c>
       <c r="L116" t="s">
@@ -15924,14 +15924,14 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>664</v>
+        <v>643</v>
       </c>
       <c r="C117" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>usaspending_permalink</v>
       </c>
       <c r="D117" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>varchar</v>
       </c>
       <c r="E117" t="str">
@@ -15939,11 +15939,11 @@
         <v>255</v>
       </c>
       <c r="F117" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G117">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>500</v>
       </c>
       <c r="L117" t="s">
@@ -15958,14 +15958,14 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>665</v>
+        <v>644</v>
       </c>
       <c r="C118" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>last_modified_date</v>
       </c>
       <c r="D118" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>date</v>
       </c>
       <c r="E118" t="str">
@@ -15973,11 +15973,11 @@
         <v/>
       </c>
       <c r="F118" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>[last_modified_date] [date] NULL,</v>
       </c>
       <c r="G118">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>255</v>
       </c>
       <c r="I118" s="1"/>
@@ -15996,11 +15996,11 @@
         <v>609</v>
       </c>
       <c r="C119" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>USAspending_file_name</v>
       </c>
       <c r="D119" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>varchar</v>
       </c>
       <c r="E119" t="str">
@@ -16008,11 +16008,11 @@
         <v>](255</v>
       </c>
       <c r="F119" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>[USAspending_file_name] [varchar](255) NULL</v>
       </c>
       <c r="G119" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="I119" s="1"/>
@@ -16031,11 +16031,11 @@
         <v>281</v>
       </c>
       <c r="C120" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="D120" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>unknown</v>
       </c>
       <c r="E120" t="str">
@@ -16043,11 +16043,11 @@
         <v/>
       </c>
       <c r="F120">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G120" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="L120" t="s">
@@ -16065,11 +16065,11 @@
         <v>1</v>
       </c>
       <c r="C121" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="D121" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>unknown</v>
       </c>
       <c r="E121" t="str">
@@ -16077,11 +16077,11 @@
         <v/>
       </c>
       <c r="F121">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G121" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="L121" t="s">
@@ -16096,11 +16096,11 @@
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C122" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="D122" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>unknown</v>
       </c>
       <c r="E122" t="str">
@@ -16108,11 +16108,11 @@
         <v/>
       </c>
       <c r="F122">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G122" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="L122" t="s">
@@ -16127,11 +16127,11 @@
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C123" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="D123" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>unknown</v>
       </c>
       <c r="E123" t="str">
@@ -16139,11 +16139,11 @@
         <v/>
       </c>
       <c r="F123">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G123" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="L123" t="s">
@@ -16158,11 +16158,11 @@
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C124" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="D124" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>unknown</v>
       </c>
       <c r="E124" t="str">
@@ -16170,11 +16170,11 @@
         <v/>
       </c>
       <c r="F124">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G124" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="L124" t="s">
@@ -16189,11 +16189,11 @@
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C125" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="D125" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>unknown</v>
       </c>
       <c r="E125" t="str">
@@ -16201,11 +16201,11 @@
         <v/>
       </c>
       <c r="F125">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G125" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="L125" t="s">
@@ -16220,11 +16220,11 @@
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C126" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="D126" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>unknown</v>
       </c>
       <c r="E126" t="str">
@@ -16232,11 +16232,11 @@
         <v/>
       </c>
       <c r="F126">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G126" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="L126" t="s">
@@ -16251,11 +16251,11 @@
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C127" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="D127" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>unknown</v>
       </c>
       <c r="E127" t="str">
@@ -16263,11 +16263,11 @@
         <v/>
       </c>
       <c r="F127">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G127" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="L127" t="s">
@@ -16282,11 +16282,11 @@
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C128" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="D128" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>unknown</v>
       </c>
       <c r="E128" t="str">
@@ -16294,11 +16294,11 @@
         <v/>
       </c>
       <c r="F128">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G128" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="L128" t="s">
@@ -16313,11 +16313,11 @@
     </row>
     <row r="129" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C129" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="D129" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>unknown</v>
       </c>
       <c r="E129" t="str">
@@ -16325,11 +16325,11 @@
         <v/>
       </c>
       <c r="F129">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G129" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="L129" t="s">
@@ -16344,11 +16344,11 @@
     </row>
     <row r="130" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C130" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="D130" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>unknown</v>
       </c>
       <c r="E130" t="str">
@@ -16356,11 +16356,11 @@
         <v/>
       </c>
       <c r="F130">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G130" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="L130" t="s">
@@ -16375,11 +16375,11 @@
     </row>
     <row r="131" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C131" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="D131" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>unknown</v>
       </c>
       <c r="E131" t="str">
@@ -16387,11 +16387,11 @@
         <v/>
       </c>
       <c r="F131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G131" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="L131" t="s">
@@ -16406,11 +16406,11 @@
     </row>
     <row r="132" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C132" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="D132" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>unknown</v>
       </c>
       <c r="E132" t="str">
@@ -16418,11 +16418,11 @@
         <v/>
       </c>
       <c r="F132">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G132" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="L132" t="s">
@@ -16437,11 +16437,11 @@
     </row>
     <row r="133" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C133" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="D133" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>unknown</v>
       </c>
       <c r="E133" t="str">
@@ -16449,11 +16449,11 @@
         <v/>
       </c>
       <c r="F133">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G133" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="L133" t="s">
@@ -16468,11 +16468,11 @@
     </row>
     <row r="134" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C134" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="D134" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>unknown</v>
       </c>
       <c r="E134" t="str">
@@ -16480,11 +16480,11 @@
         <v/>
       </c>
       <c r="F134">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G134" t="e">
-        <f t="shared" ref="G134:G197" si="12">VLOOKUP(C134,col_match,3,FALSE)</f>
+        <f t="shared" ref="G134:G197" si="11">VLOOKUP(C134,col_match,3,FALSE)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L134" t="s">
@@ -16499,11 +16499,11 @@
     </row>
     <row r="135" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C135" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="D135" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>unknown</v>
       </c>
       <c r="E135" t="str">
@@ -16511,11 +16511,11 @@
         <v/>
       </c>
       <c r="F135">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G135" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="L135" t="s">
@@ -16530,11 +16530,11 @@
     </row>
     <row r="136" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C136" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="D136" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>unknown</v>
       </c>
       <c r="E136" t="str">
@@ -16542,11 +16542,11 @@
         <v/>
       </c>
       <c r="F136">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G136" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="L136" t="s">
@@ -16561,11 +16561,11 @@
     </row>
     <row r="137" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C137" t="e">
-        <f t="shared" ref="C137:C200" si="13">MID(B137,2,FIND("]",B137)-2)</f>
+        <f t="shared" ref="C137:C200" si="12">MID(B137,2,FIND("]",B137)-2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="D137" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>unknown</v>
       </c>
       <c r="E137" t="str">
@@ -16573,11 +16573,11 @@
         <v/>
       </c>
       <c r="F137">
-        <f t="shared" ref="F137:F200" si="14">IF(E137&lt;&gt;"255",B137,"")</f>
+        <f t="shared" ref="F137:F200" si="13">IF(E137&lt;&gt;"255",B137,"")</f>
         <v>0</v>
       </c>
       <c r="G137" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="L137" t="s">
@@ -16592,11 +16592,11 @@
     </row>
     <row r="138" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C138" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="D138" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="D138:D201" si="14">IF(IFERROR(FIND("decimal",B138),0)&lt;&gt;0,"decimal",IF(IFERROR(FIND("[date]",B138),0)&lt;&gt;0,"date",IF(IFERROR(FIND("[varchar]",B138),0)&lt;&gt;0,"varchar",IF(IFERROR(FIND("integer",B138),0)&lt;&gt;0,"integer",IF(IFERROR(FIND("[int]",B138),0)&lt;&gt;0,"integer","unknown")))))</f>
         <v>unknown</v>
       </c>
       <c r="E138" t="str">
@@ -16604,11 +16604,11 @@
         <v/>
       </c>
       <c r="F138">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G138" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="L138" t="s">
@@ -16623,11 +16623,11 @@
     </row>
     <row r="139" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C139" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="D139" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>unknown</v>
       </c>
       <c r="E139" t="str">
@@ -16635,11 +16635,11 @@
         <v/>
       </c>
       <c r="F139">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G139" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="L139" t="s">
@@ -16654,11 +16654,11 @@
     </row>
     <row r="140" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C140" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="D140" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>unknown</v>
       </c>
       <c r="E140" t="str">
@@ -16666,11 +16666,11 @@
         <v/>
       </c>
       <c r="F140">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G140" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="L140" t="s">
@@ -16685,11 +16685,11 @@
     </row>
     <row r="141" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C141" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="D141" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>unknown</v>
       </c>
       <c r="E141" t="str">
@@ -16697,11 +16697,11 @@
         <v/>
       </c>
       <c r="F141">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G141" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="L141" t="s">
@@ -16716,11 +16716,11 @@
     </row>
     <row r="142" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C142" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="D142" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>unknown</v>
       </c>
       <c r="E142" t="str">
@@ -16728,11 +16728,11 @@
         <v/>
       </c>
       <c r="F142">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G142" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="L142" t="s">
@@ -16747,11 +16747,11 @@
     </row>
     <row r="143" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C143" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="D143" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>unknown</v>
       </c>
       <c r="E143" t="str">
@@ -16759,11 +16759,11 @@
         <v/>
       </c>
       <c r="F143">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G143" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="L143" t="s">
@@ -16778,11 +16778,11 @@
     </row>
     <row r="144" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C144" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="D144" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>unknown</v>
       </c>
       <c r="E144" t="str">
@@ -16790,11 +16790,11 @@
         <v/>
       </c>
       <c r="F144">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G144" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="L144" t="s">
@@ -16809,11 +16809,11 @@
     </row>
     <row r="145" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C145" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="D145" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>unknown</v>
       </c>
       <c r="E145" t="str">
@@ -16821,11 +16821,11 @@
         <v/>
       </c>
       <c r="F145">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G145" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="L145" t="s">
@@ -16840,11 +16840,11 @@
     </row>
     <row r="146" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C146" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="D146" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>unknown</v>
       </c>
       <c r="E146" t="str">
@@ -16852,11 +16852,11 @@
         <v/>
       </c>
       <c r="F146">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G146" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="L146" t="s">
@@ -16871,11 +16871,11 @@
     </row>
     <row r="147" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C147" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="D147" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>unknown</v>
       </c>
       <c r="E147" t="str">
@@ -16883,11 +16883,11 @@
         <v/>
       </c>
       <c r="F147">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G147" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="L147" t="s">
@@ -16902,11 +16902,11 @@
     </row>
     <row r="148" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C148" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="D148" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>unknown</v>
       </c>
       <c r="E148" t="str">
@@ -16914,11 +16914,11 @@
         <v/>
       </c>
       <c r="F148">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G148" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="L148" t="s">
@@ -16933,11 +16933,11 @@
     </row>
     <row r="149" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C149" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="D149" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>unknown</v>
       </c>
       <c r="E149" t="str">
@@ -16945,11 +16945,11 @@
         <v/>
       </c>
       <c r="F149">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G149" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="L149" t="s">
@@ -16964,11 +16964,11 @@
     </row>
     <row r="150" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C150" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="D150" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>unknown</v>
       </c>
       <c r="E150" t="str">
@@ -16976,11 +16976,11 @@
         <v/>
       </c>
       <c r="F150">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G150" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="I150" s="1" t="s">
@@ -16998,11 +16998,11 @@
     </row>
     <row r="151" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C151" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="D151" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>unknown</v>
       </c>
       <c r="E151" t="str">
@@ -17010,11 +17010,11 @@
         <v/>
       </c>
       <c r="F151">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G151" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="L151" t="s">
@@ -17029,11 +17029,11 @@
     </row>
     <row r="152" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C152" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="D152" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>unknown</v>
       </c>
       <c r="E152" t="str">
@@ -17041,11 +17041,11 @@
         <v/>
       </c>
       <c r="F152">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G152" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="L152" t="s">
@@ -17060,11 +17060,11 @@
     </row>
     <row r="153" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C153" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="D153" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>unknown</v>
       </c>
       <c r="E153" t="str">
@@ -17072,11 +17072,11 @@
         <v/>
       </c>
       <c r="F153">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G153" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="L153" t="s">
@@ -17091,11 +17091,11 @@
     </row>
     <row r="154" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C154" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="D154" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>unknown</v>
       </c>
       <c r="E154" t="str">
@@ -17103,11 +17103,11 @@
         <v/>
       </c>
       <c r="F154">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G154" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="L154" t="s">
@@ -17122,11 +17122,11 @@
     </row>
     <row r="155" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C155" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="D155" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>unknown</v>
       </c>
       <c r="E155" t="str">
@@ -17134,11 +17134,11 @@
         <v/>
       </c>
       <c r="F155">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G155" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="L155" t="s">
@@ -17153,11 +17153,11 @@
     </row>
     <row r="156" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C156" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="D156" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>unknown</v>
       </c>
       <c r="E156" t="str">
@@ -17165,11 +17165,11 @@
         <v/>
       </c>
       <c r="F156">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G156" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="L156" t="s">
@@ -17184,11 +17184,11 @@
     </row>
     <row r="157" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C157" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="D157" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>unknown</v>
       </c>
       <c r="E157" t="str">
@@ -17196,11 +17196,11 @@
         <v/>
       </c>
       <c r="F157">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G157" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="L157" t="s">
@@ -17215,11 +17215,11 @@
     </row>
     <row r="158" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C158" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="D158" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>unknown</v>
       </c>
       <c r="E158" t="str">
@@ -17227,11 +17227,11 @@
         <v/>
       </c>
       <c r="F158">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G158" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="L158" t="s">
@@ -17246,11 +17246,11 @@
     </row>
     <row r="159" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C159" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="D159" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>unknown</v>
       </c>
       <c r="E159" t="str">
@@ -17258,11 +17258,11 @@
         <v/>
       </c>
       <c r="F159">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G159" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="L159" t="s">
@@ -17277,11 +17277,11 @@
     </row>
     <row r="160" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C160" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="D160" t="str">
-        <f t="shared" ref="D160:D223" si="16">IF(IFERROR(FIND("decimal(",B160),0)&lt;&gt;0,"decimal",IF(IFERROR(FIND("[date]",B160),0)&lt;&gt;0,"date",IF(IFERROR(FIND("[varchar]",B160),0)&lt;&gt;0,"varchar",IF(IFERROR(FIND("integer",B160),0)&lt;&gt;0,"integer","unknown"))))</f>
+        <f t="shared" si="14"/>
         <v>unknown</v>
       </c>
       <c r="E160" t="str">
@@ -17289,11 +17289,11 @@
         <v/>
       </c>
       <c r="F160">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G160" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="L160" t="s">
@@ -17308,11 +17308,11 @@
     </row>
     <row r="161" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C161" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="D161" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>unknown</v>
       </c>
       <c r="E161" t="str">
@@ -17320,11 +17320,11 @@
         <v/>
       </c>
       <c r="F161">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G161" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="L161" t="s">
@@ -17339,11 +17339,11 @@
     </row>
     <row r="162" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C162" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="D162" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>unknown</v>
       </c>
       <c r="E162" t="str">
@@ -17351,11 +17351,11 @@
         <v/>
       </c>
       <c r="F162">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G162" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="L162" t="s">
@@ -17370,11 +17370,11 @@
     </row>
     <row r="163" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C163" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="D163" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>unknown</v>
       </c>
       <c r="E163" t="str">
@@ -17382,11 +17382,11 @@
         <v/>
       </c>
       <c r="F163">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G163" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="L163" t="s">
@@ -17401,11 +17401,11 @@
     </row>
     <row r="164" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C164" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="D164" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>unknown</v>
       </c>
       <c r="E164" t="str">
@@ -17413,11 +17413,11 @@
         <v/>
       </c>
       <c r="F164">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G164" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="L164" t="s">
@@ -17432,11 +17432,11 @@
     </row>
     <row r="165" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C165" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="D165" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>unknown</v>
       </c>
       <c r="E165" t="str">
@@ -17444,11 +17444,11 @@
         <v/>
       </c>
       <c r="F165">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G165" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="L165" t="s">
@@ -17463,11 +17463,11 @@
     </row>
     <row r="166" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C166" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="D166" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>unknown</v>
       </c>
       <c r="E166" t="str">
@@ -17475,11 +17475,11 @@
         <v/>
       </c>
       <c r="F166">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G166" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="L166" t="s">
@@ -17494,11 +17494,11 @@
     </row>
     <row r="167" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C167" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="D167" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>unknown</v>
       </c>
       <c r="E167" t="str">
@@ -17506,11 +17506,11 @@
         <v/>
       </c>
       <c r="F167">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G167" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="I167" s="1" t="s">
@@ -17528,11 +17528,11 @@
     </row>
     <row r="168" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C168" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="D168" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>unknown</v>
       </c>
       <c r="E168" t="str">
@@ -17540,11 +17540,11 @@
         <v/>
       </c>
       <c r="F168">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G168" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="L168" t="s">
@@ -17559,11 +17559,11 @@
     </row>
     <row r="169" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C169" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="D169" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>unknown</v>
       </c>
       <c r="E169" t="str">
@@ -17571,11 +17571,11 @@
         <v/>
       </c>
       <c r="F169">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G169" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="L169" t="s">
@@ -17590,11 +17590,11 @@
     </row>
     <row r="170" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C170" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="D170" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>unknown</v>
       </c>
       <c r="E170" t="str">
@@ -17602,11 +17602,11 @@
         <v/>
       </c>
       <c r="F170">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G170" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="I170" s="1" t="s">
@@ -17624,11 +17624,11 @@
     </row>
     <row r="171" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C171" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="D171" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>unknown</v>
       </c>
       <c r="E171" t="str">
@@ -17636,11 +17636,11 @@
         <v/>
       </c>
       <c r="F171">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G171" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="I171" s="1" t="s">
@@ -17658,11 +17658,11 @@
     </row>
     <row r="172" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C172" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="D172" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>unknown</v>
       </c>
       <c r="E172" t="str">
@@ -17670,11 +17670,11 @@
         <v/>
       </c>
       <c r="F172">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G172" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="L172" t="s">
@@ -17689,11 +17689,11 @@
     </row>
     <row r="173" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C173" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="D173" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>unknown</v>
       </c>
       <c r="E173" t="str">
@@ -17701,11 +17701,11 @@
         <v/>
       </c>
       <c r="F173">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G173" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="L173" t="s">
@@ -17720,11 +17720,11 @@
     </row>
     <row r="174" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C174" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="D174" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>unknown</v>
       </c>
       <c r="E174" t="str">
@@ -17732,11 +17732,11 @@
         <v/>
       </c>
       <c r="F174">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G174" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="L174" t="s">
@@ -17751,11 +17751,11 @@
     </row>
     <row r="175" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C175" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="D175" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>unknown</v>
       </c>
       <c r="E175" t="str">
@@ -17763,11 +17763,11 @@
         <v/>
       </c>
       <c r="F175">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G175" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="L175" t="s">
@@ -17782,11 +17782,11 @@
     </row>
     <row r="176" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C176" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="D176" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>unknown</v>
       </c>
       <c r="E176" t="str">
@@ -17794,11 +17794,11 @@
         <v/>
       </c>
       <c r="F176">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G176" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="L176" t="s">
@@ -17813,11 +17813,11 @@
     </row>
     <row r="177" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C177" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="D177" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>unknown</v>
       </c>
       <c r="E177" t="str">
@@ -17825,11 +17825,11 @@
         <v/>
       </c>
       <c r="F177">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G177" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="L177" t="s">
@@ -17844,11 +17844,11 @@
     </row>
     <row r="178" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C178" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="D178" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>unknown</v>
       </c>
       <c r="E178" t="str">
@@ -17856,11 +17856,11 @@
         <v/>
       </c>
       <c r="F178">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G178" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="L178" t="s">
@@ -17875,11 +17875,11 @@
     </row>
     <row r="179" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C179" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="D179" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>unknown</v>
       </c>
       <c r="E179" t="str">
@@ -17887,11 +17887,11 @@
         <v/>
       </c>
       <c r="F179">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G179" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="L179" t="s">
@@ -17906,11 +17906,11 @@
     </row>
     <row r="180" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C180" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="D180" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>unknown</v>
       </c>
       <c r="E180" t="str">
@@ -17918,11 +17918,11 @@
         <v/>
       </c>
       <c r="F180">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G180" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="L180" t="s">
@@ -17937,11 +17937,11 @@
     </row>
     <row r="181" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C181" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="D181" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>unknown</v>
       </c>
       <c r="E181" t="str">
@@ -17949,11 +17949,11 @@
         <v/>
       </c>
       <c r="F181">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G181" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="L181" t="s">
@@ -17968,11 +17968,11 @@
     </row>
     <row r="182" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C182" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="D182" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>unknown</v>
       </c>
       <c r="E182" t="str">
@@ -17980,11 +17980,11 @@
         <v/>
       </c>
       <c r="F182">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G182" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="L182" t="s">
@@ -17999,11 +17999,11 @@
     </row>
     <row r="183" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C183" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="D183" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>unknown</v>
       </c>
       <c r="E183" t="str">
@@ -18011,11 +18011,11 @@
         <v/>
       </c>
       <c r="F183">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G183" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="L183" t="s">
@@ -18030,11 +18030,11 @@
     </row>
     <row r="184" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C184" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="D184" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>unknown</v>
       </c>
       <c r="E184" t="str">
@@ -18042,11 +18042,11 @@
         <v/>
       </c>
       <c r="F184">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G184" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="L184" t="s">
@@ -18061,11 +18061,11 @@
     </row>
     <row r="185" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C185" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="D185" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>unknown</v>
       </c>
       <c r="E185" t="str">
@@ -18073,11 +18073,11 @@
         <v/>
       </c>
       <c r="F185">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G185" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="L185" t="s">
@@ -18092,11 +18092,11 @@
     </row>
     <row r="186" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C186" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="D186" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>unknown</v>
       </c>
       <c r="E186" t="str">
@@ -18104,11 +18104,11 @@
         <v/>
       </c>
       <c r="F186">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G186" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="L186" t="s">
@@ -18123,11 +18123,11 @@
     </row>
     <row r="187" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C187" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="D187" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>unknown</v>
       </c>
       <c r="E187" t="str">
@@ -18135,11 +18135,11 @@
         <v/>
       </c>
       <c r="F187">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G187" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="L187" t="s">
@@ -18154,11 +18154,11 @@
     </row>
     <row r="188" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C188" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="D188" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>unknown</v>
       </c>
       <c r="E188" t="str">
@@ -18166,11 +18166,11 @@
         <v/>
       </c>
       <c r="F188">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G188" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="L188" t="s">
@@ -18185,11 +18185,11 @@
     </row>
     <row r="189" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C189" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="D189" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>unknown</v>
       </c>
       <c r="E189" t="str">
@@ -18197,11 +18197,11 @@
         <v/>
       </c>
       <c r="F189">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G189" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="L189" t="s">
@@ -18216,11 +18216,11 @@
     </row>
     <row r="190" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C190" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="D190" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>unknown</v>
       </c>
       <c r="E190" t="str">
@@ -18228,11 +18228,11 @@
         <v/>
       </c>
       <c r="F190">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G190" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="L190" t="s">
@@ -18247,11 +18247,11 @@
     </row>
     <row r="191" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C191" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="D191" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>unknown</v>
       </c>
       <c r="E191" t="str">
@@ -18259,11 +18259,11 @@
         <v/>
       </c>
       <c r="F191">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G191" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="L191" t="s">
@@ -18278,11 +18278,11 @@
     </row>
     <row r="192" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C192" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="D192" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>unknown</v>
       </c>
       <c r="E192" t="str">
@@ -18290,11 +18290,11 @@
         <v/>
       </c>
       <c r="F192">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G192" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="L192" t="s">
@@ -18309,11 +18309,11 @@
     </row>
     <row r="193" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C193" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="D193" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>unknown</v>
       </c>
       <c r="E193" t="str">
@@ -18321,11 +18321,11 @@
         <v/>
       </c>
       <c r="F193">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G193" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="L193" t="s">
@@ -18340,11 +18340,11 @@
     </row>
     <row r="194" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C194" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="D194" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>unknown</v>
       </c>
       <c r="E194" t="str">
@@ -18352,11 +18352,11 @@
         <v/>
       </c>
       <c r="F194">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G194" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="L194" t="s">
@@ -18371,11 +18371,11 @@
     </row>
     <row r="195" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C195" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="D195" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>unknown</v>
       </c>
       <c r="E195" t="str">
@@ -18383,11 +18383,11 @@
         <v/>
       </c>
       <c r="F195">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G195" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="L195" t="s">
@@ -18402,11 +18402,11 @@
     </row>
     <row r="196" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C196" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="D196" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>unknown</v>
       </c>
       <c r="E196" t="str">
@@ -18414,11 +18414,11 @@
         <v/>
       </c>
       <c r="F196">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G196" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="L196" t="s">
@@ -18433,11 +18433,11 @@
     </row>
     <row r="197" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C197" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="D197" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>unknown</v>
       </c>
       <c r="E197" t="str">
@@ -18445,11 +18445,11 @@
         <v/>
       </c>
       <c r="F197">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G197" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="L197" t="s">
@@ -18464,11 +18464,11 @@
     </row>
     <row r="198" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C198" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="D198" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>unknown</v>
       </c>
       <c r="E198" t="str">
@@ -18476,11 +18476,11 @@
         <v/>
       </c>
       <c r="F198">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G198" t="e">
-        <f t="shared" ref="G198:G261" si="17">VLOOKUP(C198,col_match,3,FALSE)</f>
+        <f t="shared" ref="G198:G261" si="16">VLOOKUP(C198,col_match,3,FALSE)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L198" t="s">
@@ -18495,11 +18495,11 @@
     </row>
     <row r="199" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C199" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="D199" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>unknown</v>
       </c>
       <c r="E199" t="str">
@@ -18507,11 +18507,11 @@
         <v/>
       </c>
       <c r="F199">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G199" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L199" t="s">
@@ -18526,11 +18526,11 @@
     </row>
     <row r="200" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C200" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="D200" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>unknown</v>
       </c>
       <c r="E200" t="str">
@@ -18538,11 +18538,11 @@
         <v/>
       </c>
       <c r="F200">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G200" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L200" t="s">
@@ -18557,11 +18557,11 @@
     </row>
     <row r="201" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C201" t="e">
-        <f t="shared" ref="C201:C264" si="18">MID(B201,2,FIND("]",B201)-2)</f>
+        <f t="shared" ref="C201:C264" si="17">MID(B201,2,FIND("]",B201)-2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="D201" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>unknown</v>
       </c>
       <c r="E201" t="str">
@@ -18569,11 +18569,11 @@
         <v/>
       </c>
       <c r="F201">
-        <f t="shared" ref="F201:F264" si="19">IF(E201&lt;&gt;"255",B201,"")</f>
+        <f t="shared" ref="F201:F264" si="18">IF(E201&lt;&gt;"255",B201,"")</f>
         <v>0</v>
       </c>
       <c r="G201" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L201" t="s">
@@ -18588,11 +18588,11 @@
     </row>
     <row r="202" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C202" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="D202" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="D202:D265" si="19">IF(IFERROR(FIND("decimal",B202),0)&lt;&gt;0,"decimal",IF(IFERROR(FIND("[date]",B202),0)&lt;&gt;0,"date",IF(IFERROR(FIND("[varchar]",B202),0)&lt;&gt;0,"varchar",IF(IFERROR(FIND("integer",B202),0)&lt;&gt;0,"integer",IF(IFERROR(FIND("[int]",B202),0)&lt;&gt;0,"integer","unknown")))))</f>
         <v>unknown</v>
       </c>
       <c r="E202" t="str">
@@ -18600,11 +18600,11 @@
         <v/>
       </c>
       <c r="F202">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G202" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L202" t="s">
@@ -18619,11 +18619,11 @@
     </row>
     <row r="203" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C203" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="D203" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>unknown</v>
       </c>
       <c r="E203" t="str">
@@ -18631,11 +18631,11 @@
         <v/>
       </c>
       <c r="F203">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G203" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L203" t="s">
@@ -18650,11 +18650,11 @@
     </row>
     <row r="204" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C204" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="D204" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>unknown</v>
       </c>
       <c r="E204" t="str">
@@ -18662,11 +18662,11 @@
         <v/>
       </c>
       <c r="F204">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G204" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L204" t="s">
@@ -18681,11 +18681,11 @@
     </row>
     <row r="205" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C205" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="D205" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>unknown</v>
       </c>
       <c r="E205" t="str">
@@ -18693,11 +18693,11 @@
         <v/>
       </c>
       <c r="F205">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G205" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L205" t="s">
@@ -18712,11 +18712,11 @@
     </row>
     <row r="206" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C206" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="D206" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>unknown</v>
       </c>
       <c r="E206" t="str">
@@ -18724,11 +18724,11 @@
         <v/>
       </c>
       <c r="F206">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G206" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L206" t="s">
@@ -18743,11 +18743,11 @@
     </row>
     <row r="207" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C207" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="D207" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>unknown</v>
       </c>
       <c r="E207" t="str">
@@ -18755,11 +18755,11 @@
         <v/>
       </c>
       <c r="F207">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G207" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L207" t="s">
@@ -18774,11 +18774,11 @@
     </row>
     <row r="208" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C208" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="D208" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>unknown</v>
       </c>
       <c r="E208" t="str">
@@ -18786,11 +18786,11 @@
         <v/>
       </c>
       <c r="F208">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G208" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L208" t="s">
@@ -18805,11 +18805,11 @@
     </row>
     <row r="209" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C209" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="D209" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>unknown</v>
       </c>
       <c r="E209" t="str">
@@ -18817,11 +18817,11 @@
         <v/>
       </c>
       <c r="F209">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G209" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L209" t="s">
@@ -18836,11 +18836,11 @@
     </row>
     <row r="210" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C210" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="D210" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>unknown</v>
       </c>
       <c r="E210" t="str">
@@ -18848,11 +18848,11 @@
         <v/>
       </c>
       <c r="F210">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G210" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L210" t="s">
@@ -18867,11 +18867,11 @@
     </row>
     <row r="211" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C211" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="D211" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>unknown</v>
       </c>
       <c r="E211" t="str">
@@ -18879,11 +18879,11 @@
         <v/>
       </c>
       <c r="F211">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G211" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L211" t="s">
@@ -18898,11 +18898,11 @@
     </row>
     <row r="212" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C212" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="D212" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>unknown</v>
       </c>
       <c r="E212" t="str">
@@ -18910,11 +18910,11 @@
         <v/>
       </c>
       <c r="F212">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G212" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L212" t="s">
@@ -18929,11 +18929,11 @@
     </row>
     <row r="213" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C213" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="D213" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>unknown</v>
       </c>
       <c r="E213" t="str">
@@ -18941,11 +18941,11 @@
         <v/>
       </c>
       <c r="F213">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G213" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L213" t="s">
@@ -18960,11 +18960,11 @@
     </row>
     <row r="214" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C214" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="D214" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>unknown</v>
       </c>
       <c r="E214" t="str">
@@ -18972,11 +18972,11 @@
         <v/>
       </c>
       <c r="F214">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G214" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L214" t="s">
@@ -18991,11 +18991,11 @@
     </row>
     <row r="215" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C215" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="D215" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>unknown</v>
       </c>
       <c r="E215" t="str">
@@ -19003,11 +19003,11 @@
         <v/>
       </c>
       <c r="F215">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G215" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L215" t="s">
@@ -19022,11 +19022,11 @@
     </row>
     <row r="216" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C216" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="D216" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>unknown</v>
       </c>
       <c r="E216" t="str">
@@ -19034,11 +19034,11 @@
         <v/>
       </c>
       <c r="F216">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G216" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L216" t="s">
@@ -19053,11 +19053,11 @@
     </row>
     <row r="217" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C217" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="D217" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>unknown</v>
       </c>
       <c r="E217" t="str">
@@ -19065,11 +19065,11 @@
         <v/>
       </c>
       <c r="F217">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G217" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L217" t="s">
@@ -19084,11 +19084,11 @@
     </row>
     <row r="218" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C218" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="D218" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>unknown</v>
       </c>
       <c r="E218" t="str">
@@ -19096,11 +19096,11 @@
         <v/>
       </c>
       <c r="F218">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G218" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L218" t="s">
@@ -19115,11 +19115,11 @@
     </row>
     <row r="219" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C219" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="D219" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>unknown</v>
       </c>
       <c r="E219" t="str">
@@ -19127,11 +19127,11 @@
         <v/>
       </c>
       <c r="F219">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G219" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L219" t="s">
@@ -19146,11 +19146,11 @@
     </row>
     <row r="220" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C220" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="D220" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>unknown</v>
       </c>
       <c r="E220" t="str">
@@ -19158,11 +19158,11 @@
         <v/>
       </c>
       <c r="F220">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G220" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L220" t="s">
@@ -19177,11 +19177,11 @@
     </row>
     <row r="221" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C221" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="D221" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>unknown</v>
       </c>
       <c r="E221" t="str">
@@ -19189,11 +19189,11 @@
         <v/>
       </c>
       <c r="F221">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G221" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="I221" s="1" t="s">
@@ -19211,11 +19211,11 @@
     </row>
     <row r="222" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C222" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="D222" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>unknown</v>
       </c>
       <c r="E222" t="str">
@@ -19223,11 +19223,11 @@
         <v/>
       </c>
       <c r="F222">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G222" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="I222" s="1" t="s">
@@ -19245,11 +19245,11 @@
     </row>
     <row r="223" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C223" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="D223" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>unknown</v>
       </c>
       <c r="E223" t="str">
@@ -19257,11 +19257,11 @@
         <v/>
       </c>
       <c r="F223">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G223" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L223" t="s">
@@ -19276,11 +19276,11 @@
     </row>
     <row r="224" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C224" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="D224" t="str">
-        <f t="shared" ref="D224:D287" si="21">IF(IFERROR(FIND("decimal(",B224),0)&lt;&gt;0,"decimal",IF(IFERROR(FIND("[date]",B224),0)&lt;&gt;0,"date",IF(IFERROR(FIND("[varchar]",B224),0)&lt;&gt;0,"varchar",IF(IFERROR(FIND("integer",B224),0)&lt;&gt;0,"integer","unknown"))))</f>
+        <f t="shared" si="19"/>
         <v>unknown</v>
       </c>
       <c r="E224" t="str">
@@ -19288,11 +19288,11 @@
         <v/>
       </c>
       <c r="F224">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G224" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L224" t="s">
@@ -19307,11 +19307,11 @@
     </row>
     <row r="225" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C225" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="D225" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>unknown</v>
       </c>
       <c r="E225" t="str">
@@ -19319,11 +19319,11 @@
         <v/>
       </c>
       <c r="F225">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G225" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L225" t="s">
@@ -19338,11 +19338,11 @@
     </row>
     <row r="226" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C226" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="D226" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>unknown</v>
       </c>
       <c r="E226" t="str">
@@ -19350,11 +19350,11 @@
         <v/>
       </c>
       <c r="F226">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G226" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L226" t="s">
@@ -19369,11 +19369,11 @@
     </row>
     <row r="227" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C227" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="D227" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>unknown</v>
       </c>
       <c r="E227" t="str">
@@ -19381,11 +19381,11 @@
         <v/>
       </c>
       <c r="F227">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G227" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L227" t="s">
@@ -19400,11 +19400,11 @@
     </row>
     <row r="228" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C228" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="D228" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>unknown</v>
       </c>
       <c r="E228" t="str">
@@ -19412,11 +19412,11 @@
         <v/>
       </c>
       <c r="F228">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G228" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L228" t="s">
@@ -19431,11 +19431,11 @@
     </row>
     <row r="229" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C229" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="D229" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>unknown</v>
       </c>
       <c r="E229" t="str">
@@ -19443,11 +19443,11 @@
         <v/>
       </c>
       <c r="F229">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G229" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L229" t="s">
@@ -19462,11 +19462,11 @@
     </row>
     <row r="230" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C230" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="D230" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>unknown</v>
       </c>
       <c r="E230" t="str">
@@ -19474,11 +19474,11 @@
         <v/>
       </c>
       <c r="F230">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G230" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L230" t="s">
@@ -19493,11 +19493,11 @@
     </row>
     <row r="231" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C231" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="D231" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>unknown</v>
       </c>
       <c r="E231" t="str">
@@ -19505,11 +19505,11 @@
         <v/>
       </c>
       <c r="F231">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G231" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L231" t="s">
@@ -19524,11 +19524,11 @@
     </row>
     <row r="232" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C232" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="D232" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>unknown</v>
       </c>
       <c r="E232" t="str">
@@ -19536,11 +19536,11 @@
         <v/>
       </c>
       <c r="F232">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G232" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="I232" s="1" t="s">
@@ -19558,11 +19558,11 @@
     </row>
     <row r="233" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C233" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="D233" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>unknown</v>
       </c>
       <c r="E233" t="str">
@@ -19570,11 +19570,11 @@
         <v/>
       </c>
       <c r="F233">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G233" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L233" t="s">
@@ -19589,11 +19589,11 @@
     </row>
     <row r="234" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C234" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="D234" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>unknown</v>
       </c>
       <c r="E234" t="str">
@@ -19601,11 +19601,11 @@
         <v/>
       </c>
       <c r="F234">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G234" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L234" t="s">
@@ -19620,11 +19620,11 @@
     </row>
     <row r="235" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C235" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="D235" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>unknown</v>
       </c>
       <c r="E235" t="str">
@@ -19632,11 +19632,11 @@
         <v/>
       </c>
       <c r="F235">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G235" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L235" t="s">
@@ -19651,11 +19651,11 @@
     </row>
     <row r="236" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C236" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="D236" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>unknown</v>
       </c>
       <c r="E236" t="str">
@@ -19663,11 +19663,11 @@
         <v/>
       </c>
       <c r="F236">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G236" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L236" t="s">
@@ -19682,11 +19682,11 @@
     </row>
     <row r="237" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C237" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="D237" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>unknown</v>
       </c>
       <c r="E237" t="str">
@@ -19694,11 +19694,11 @@
         <v/>
       </c>
       <c r="F237">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G237" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L237" t="s">
@@ -19713,11 +19713,11 @@
     </row>
     <row r="238" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C238" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="D238" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>unknown</v>
       </c>
       <c r="E238" t="str">
@@ -19725,11 +19725,11 @@
         <v/>
       </c>
       <c r="F238">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G238" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L238" t="s">
@@ -19744,11 +19744,11 @@
     </row>
     <row r="239" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C239" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="D239" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>unknown</v>
       </c>
       <c r="E239" t="str">
@@ -19756,11 +19756,11 @@
         <v/>
       </c>
       <c r="F239">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G239" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L239" t="s">
@@ -19775,11 +19775,11 @@
     </row>
     <row r="240" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C240" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="D240" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>unknown</v>
       </c>
       <c r="E240" t="str">
@@ -19787,11 +19787,11 @@
         <v/>
       </c>
       <c r="F240">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G240" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L240" t="s">
@@ -19806,11 +19806,11 @@
     </row>
     <row r="241" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C241" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="D241" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>unknown</v>
       </c>
       <c r="E241" t="str">
@@ -19818,11 +19818,11 @@
         <v/>
       </c>
       <c r="F241">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G241" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L241" t="s">
@@ -19837,11 +19837,11 @@
     </row>
     <row r="242" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C242" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="D242" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>unknown</v>
       </c>
       <c r="E242" t="str">
@@ -19849,11 +19849,11 @@
         <v/>
       </c>
       <c r="F242">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G242" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L242" t="s">
@@ -19868,11 +19868,11 @@
     </row>
     <row r="243" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C243" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="D243" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>unknown</v>
       </c>
       <c r="E243" t="str">
@@ -19880,11 +19880,11 @@
         <v/>
       </c>
       <c r="F243">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G243" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L243" t="s">
@@ -19899,11 +19899,11 @@
     </row>
     <row r="244" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C244" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="D244" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>unknown</v>
       </c>
       <c r="E244" t="str">
@@ -19911,11 +19911,11 @@
         <v/>
       </c>
       <c r="F244">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G244" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L244" t="s">
@@ -19930,11 +19930,11 @@
     </row>
     <row r="245" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C245" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="D245" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>unknown</v>
       </c>
       <c r="E245" t="str">
@@ -19942,11 +19942,11 @@
         <v/>
       </c>
       <c r="F245">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G245" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L245" t="s">
@@ -19961,11 +19961,11 @@
     </row>
     <row r="246" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C246" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="D246" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>unknown</v>
       </c>
       <c r="E246" t="str">
@@ -19973,11 +19973,11 @@
         <v/>
       </c>
       <c r="F246">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G246" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L246" t="s">
@@ -19992,11 +19992,11 @@
     </row>
     <row r="247" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C247" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="D247" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>unknown</v>
       </c>
       <c r="E247" t="str">
@@ -20004,11 +20004,11 @@
         <v/>
       </c>
       <c r="F247">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G247" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L247" t="s">
@@ -20023,11 +20023,11 @@
     </row>
     <row r="248" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C248" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="D248" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>unknown</v>
       </c>
       <c r="E248" t="str">
@@ -20035,11 +20035,11 @@
         <v/>
       </c>
       <c r="F248">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G248" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L248" t="s">
@@ -20054,11 +20054,11 @@
     </row>
     <row r="249" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C249" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="D249" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>unknown</v>
       </c>
       <c r="E249" t="str">
@@ -20066,11 +20066,11 @@
         <v/>
       </c>
       <c r="F249">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G249" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L249" t="s">
@@ -20085,11 +20085,11 @@
     </row>
     <row r="250" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C250" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="D250" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>unknown</v>
       </c>
       <c r="E250" t="str">
@@ -20097,11 +20097,11 @@
         <v/>
       </c>
       <c r="F250">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G250" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L250" t="s">
@@ -20116,11 +20116,11 @@
     </row>
     <row r="251" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C251" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="D251" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>unknown</v>
       </c>
       <c r="E251" t="str">
@@ -20128,11 +20128,11 @@
         <v/>
       </c>
       <c r="F251">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G251" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L251" t="s">
@@ -20147,11 +20147,11 @@
     </row>
     <row r="252" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C252" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="D252" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>unknown</v>
       </c>
       <c r="E252" t="str">
@@ -20159,11 +20159,11 @@
         <v/>
       </c>
       <c r="F252">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G252" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L252" t="s">
@@ -20178,11 +20178,11 @@
     </row>
     <row r="253" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C253" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="D253" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>unknown</v>
       </c>
       <c r="E253" t="str">
@@ -20190,11 +20190,11 @@
         <v/>
       </c>
       <c r="F253">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G253" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L253" t="s">
@@ -20209,11 +20209,11 @@
     </row>
     <row r="254" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C254" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="D254" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>unknown</v>
       </c>
       <c r="E254" t="str">
@@ -20221,11 +20221,11 @@
         <v/>
       </c>
       <c r="F254">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G254" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L254" t="s">
@@ -20240,11 +20240,11 @@
     </row>
     <row r="255" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C255" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="D255" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>unknown</v>
       </c>
       <c r="E255" t="str">
@@ -20252,11 +20252,11 @@
         <v/>
       </c>
       <c r="F255">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G255" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L255" t="s">
@@ -20271,11 +20271,11 @@
     </row>
     <row r="256" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C256" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="D256" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>unknown</v>
       </c>
       <c r="E256" t="str">
@@ -20283,11 +20283,11 @@
         <v/>
       </c>
       <c r="F256">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G256" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L256" t="s">
@@ -20302,11 +20302,11 @@
     </row>
     <row r="257" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C257" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="D257" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>unknown</v>
       </c>
       <c r="E257" t="str">
@@ -20314,11 +20314,11 @@
         <v/>
       </c>
       <c r="F257">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G257" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L257" t="s">
@@ -20333,11 +20333,11 @@
     </row>
     <row r="258" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C258" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="D258" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>unknown</v>
       </c>
       <c r="E258" t="str">
@@ -20345,11 +20345,11 @@
         <v/>
       </c>
       <c r="F258">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G258" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L258" t="s">
@@ -20364,11 +20364,11 @@
     </row>
     <row r="259" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C259" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="D259" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>unknown</v>
       </c>
       <c r="E259" t="str">
@@ -20376,11 +20376,11 @@
         <v/>
       </c>
       <c r="F259">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G259" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L259" t="s">
@@ -20395,11 +20395,11 @@
     </row>
     <row r="260" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C260" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="D260" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>unknown</v>
       </c>
       <c r="E260" t="str">
@@ -20407,11 +20407,11 @@
         <v/>
       </c>
       <c r="F260">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G260" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L260" t="s">
@@ -20426,11 +20426,11 @@
     </row>
     <row r="261" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C261" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="D261" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>unknown</v>
       </c>
       <c r="E261" t="str">
@@ -20438,11 +20438,11 @@
         <v/>
       </c>
       <c r="F261">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G261" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L261" t="s">
@@ -20457,11 +20457,11 @@
     </row>
     <row r="262" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C262" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="D262" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>unknown</v>
       </c>
       <c r="E262" t="str">
@@ -20469,11 +20469,11 @@
         <v/>
       </c>
       <c r="F262">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G262" t="e">
-        <f t="shared" ref="G262:G311" si="22">VLOOKUP(C262,col_match,3,FALSE)</f>
+        <f t="shared" ref="G262:G311" si="21">VLOOKUP(C262,col_match,3,FALSE)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L262" t="s">
@@ -20488,11 +20488,11 @@
     </row>
     <row r="263" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C263" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="D263" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>unknown</v>
       </c>
       <c r="E263" t="str">
@@ -20500,11 +20500,11 @@
         <v/>
       </c>
       <c r="F263">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G263" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="L263" t="s">
@@ -20519,11 +20519,11 @@
     </row>
     <row r="264" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C264" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="D264" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>unknown</v>
       </c>
       <c r="E264" t="str">
@@ -20531,11 +20531,11 @@
         <v/>
       </c>
       <c r="F264">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G264" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="L264" t="s">
@@ -20550,11 +20550,11 @@
     </row>
     <row r="265" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C265" t="e">
-        <f t="shared" ref="C265:C312" si="23">MID(B265,2,FIND("]",B265)-2)</f>
+        <f t="shared" ref="C265:C312" si="22">MID(B265,2,FIND("]",B265)-2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="D265" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>unknown</v>
       </c>
       <c r="E265" t="str">
@@ -20562,11 +20562,11 @@
         <v/>
       </c>
       <c r="F265">
-        <f t="shared" ref="F265:F312" si="24">IF(E265&lt;&gt;"255",B265,"")</f>
+        <f t="shared" ref="F265:F312" si="23">IF(E265&lt;&gt;"255",B265,"")</f>
         <v>0</v>
       </c>
       <c r="G265" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="L265" t="s">
@@ -20581,11 +20581,11 @@
     </row>
     <row r="266" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C266" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="D266" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="D266:D312" si="24">IF(IFERROR(FIND("decimal",B266),0)&lt;&gt;0,"decimal",IF(IFERROR(FIND("[date]",B266),0)&lt;&gt;0,"date",IF(IFERROR(FIND("[varchar]",B266),0)&lt;&gt;0,"varchar",IF(IFERROR(FIND("integer",B266),0)&lt;&gt;0,"integer",IF(IFERROR(FIND("[int]",B266),0)&lt;&gt;0,"integer","unknown")))))</f>
         <v>unknown</v>
       </c>
       <c r="E266" t="str">
@@ -20593,11 +20593,11 @@
         <v/>
       </c>
       <c r="F266">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G266" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="L266" t="s">
@@ -20612,11 +20612,11 @@
     </row>
     <row r="267" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C267" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="D267" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>unknown</v>
       </c>
       <c r="E267" t="str">
@@ -20624,11 +20624,11 @@
         <v/>
       </c>
       <c r="F267">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G267" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="L267" t="s">
@@ -20643,11 +20643,11 @@
     </row>
     <row r="268" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C268" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="D268" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>unknown</v>
       </c>
       <c r="E268" t="str">
@@ -20655,11 +20655,11 @@
         <v/>
       </c>
       <c r="F268">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G268" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="L268" t="s">
@@ -20674,11 +20674,11 @@
     </row>
     <row r="269" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C269" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="D269" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>unknown</v>
       </c>
       <c r="E269" t="str">
@@ -20686,11 +20686,11 @@
         <v/>
       </c>
       <c r="F269">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G269" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="L269" t="s">
@@ -20705,11 +20705,11 @@
     </row>
     <row r="270" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C270" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="D270" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>unknown</v>
       </c>
       <c r="E270" t="str">
@@ -20717,11 +20717,11 @@
         <v/>
       </c>
       <c r="F270">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G270" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="L270" t="s">
@@ -20736,11 +20736,11 @@
     </row>
     <row r="271" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C271" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="D271" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>unknown</v>
       </c>
       <c r="E271" t="str">
@@ -20748,11 +20748,11 @@
         <v/>
       </c>
       <c r="F271">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G271" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="L271" t="s">
@@ -20767,11 +20767,11 @@
     </row>
     <row r="272" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C272" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="D272" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>unknown</v>
       </c>
       <c r="E272" t="str">
@@ -20779,11 +20779,11 @@
         <v/>
       </c>
       <c r="F272">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G272" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="L272" t="s">
@@ -20798,11 +20798,11 @@
     </row>
     <row r="273" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C273" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="D273" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>unknown</v>
       </c>
       <c r="E273" t="str">
@@ -20810,11 +20810,11 @@
         <v/>
       </c>
       <c r="F273">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G273" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="L273" t="s">
@@ -20829,11 +20829,11 @@
     </row>
     <row r="274" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C274" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="D274" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>unknown</v>
       </c>
       <c r="E274" t="str">
@@ -20841,11 +20841,11 @@
         <v/>
       </c>
       <c r="F274">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G274" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="L274" t="s">
@@ -20860,11 +20860,11 @@
     </row>
     <row r="275" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C275" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="D275" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>unknown</v>
       </c>
       <c r="E275" t="str">
@@ -20872,11 +20872,11 @@
         <v/>
       </c>
       <c r="F275">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G275" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="L275" t="s">
@@ -20891,11 +20891,11 @@
     </row>
     <row r="276" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C276" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="D276" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>unknown</v>
       </c>
       <c r="E276" t="str">
@@ -20903,11 +20903,11 @@
         <v/>
       </c>
       <c r="F276">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G276" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="L276" t="s">
@@ -20922,11 +20922,11 @@
     </row>
     <row r="277" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C277" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="D277" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>unknown</v>
       </c>
       <c r="E277" t="str">
@@ -20934,11 +20934,11 @@
         <v/>
       </c>
       <c r="F277">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G277" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="L277" t="s">
@@ -20953,11 +20953,11 @@
     </row>
     <row r="278" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C278" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="D278" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>unknown</v>
       </c>
       <c r="E278" t="str">
@@ -20965,11 +20965,11 @@
         <v/>
       </c>
       <c r="F278">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G278" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="L278" t="s">
@@ -20984,11 +20984,11 @@
     </row>
     <row r="279" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C279" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="D279" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>unknown</v>
       </c>
       <c r="E279" t="str">
@@ -20996,11 +20996,11 @@
         <v/>
       </c>
       <c r="F279">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G279" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="L279" t="s">
@@ -21015,11 +21015,11 @@
     </row>
     <row r="280" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C280" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="D280" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>unknown</v>
       </c>
       <c r="E280" t="str">
@@ -21027,11 +21027,11 @@
         <v/>
       </c>
       <c r="F280">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G280" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="L280" t="s">
@@ -21046,11 +21046,11 @@
     </row>
     <row r="281" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C281" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="D281" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>unknown</v>
       </c>
       <c r="E281" t="str">
@@ -21058,11 +21058,11 @@
         <v/>
       </c>
       <c r="F281">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G281" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="L281" t="s">
@@ -21077,11 +21077,11 @@
     </row>
     <row r="282" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C282" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="D282" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>unknown</v>
       </c>
       <c r="E282" t="str">
@@ -21089,11 +21089,11 @@
         <v/>
       </c>
       <c r="F282">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G282" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="L282" t="s">
@@ -21108,11 +21108,11 @@
     </row>
     <row r="283" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C283" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="D283" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>unknown</v>
       </c>
       <c r="E283" t="str">
@@ -21120,11 +21120,11 @@
         <v/>
       </c>
       <c r="F283">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G283" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="L283" t="s">
@@ -21139,11 +21139,11 @@
     </row>
     <row r="284" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C284" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="D284" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>unknown</v>
       </c>
       <c r="E284" t="str">
@@ -21151,11 +21151,11 @@
         <v/>
       </c>
       <c r="F284">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G284" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="L284" t="s">
@@ -21170,11 +21170,11 @@
     </row>
     <row r="285" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C285" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="D285" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>unknown</v>
       </c>
       <c r="E285" t="str">
@@ -21182,11 +21182,11 @@
         <v/>
       </c>
       <c r="F285">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G285" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="L285" t="s">
@@ -21201,11 +21201,11 @@
     </row>
     <row r="286" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C286" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="D286" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>unknown</v>
       </c>
       <c r="E286" t="str">
@@ -21213,11 +21213,11 @@
         <v/>
       </c>
       <c r="F286">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G286" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="L286" t="s">
@@ -21232,11 +21232,11 @@
     </row>
     <row r="287" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C287" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="D287" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>unknown</v>
       </c>
       <c r="E287" t="str">
@@ -21244,11 +21244,11 @@
         <v/>
       </c>
       <c r="F287">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G287" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="L287" t="s">
@@ -21263,11 +21263,11 @@
     </row>
     <row r="288" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C288" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="D288" t="str">
-        <f t="shared" ref="D288:D312" si="26">IF(IFERROR(FIND("decimal(",B288),0)&lt;&gt;0,"decimal",IF(IFERROR(FIND("[date]",B288),0)&lt;&gt;0,"date",IF(IFERROR(FIND("[varchar]",B288),0)&lt;&gt;0,"varchar",IF(IFERROR(FIND("integer",B288),0)&lt;&gt;0,"integer","unknown"))))</f>
+        <f t="shared" si="24"/>
         <v>unknown</v>
       </c>
       <c r="E288" t="str">
@@ -21275,11 +21275,11 @@
         <v/>
       </c>
       <c r="F288">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G288" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="H288" t="e">
@@ -21301,11 +21301,11 @@
     </row>
     <row r="289" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C289" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="D289" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>unknown</v>
       </c>
       <c r="E289" t="str">
@@ -21313,11 +21313,11 @@
         <v/>
       </c>
       <c r="F289">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G289" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="H289" t="e">
@@ -21339,11 +21339,11 @@
     </row>
     <row r="290" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C290" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="D290" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>unknown</v>
       </c>
       <c r="E290" t="str">
@@ -21351,11 +21351,11 @@
         <v/>
       </c>
       <c r="F290">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G290" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="L290" t="s">
@@ -21370,11 +21370,11 @@
     </row>
     <row r="291" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C291" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="D291" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>unknown</v>
       </c>
       <c r="E291" t="str">
@@ -21382,11 +21382,11 @@
         <v/>
       </c>
       <c r="F291">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G291" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="L291" t="s">
@@ -21401,11 +21401,11 @@
     </row>
     <row r="292" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C292" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="D292" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>unknown</v>
       </c>
       <c r="E292" t="str">
@@ -21413,11 +21413,11 @@
         <v/>
       </c>
       <c r="F292">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G292" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="L292" t="s">
@@ -21432,11 +21432,11 @@
     </row>
     <row r="293" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C293" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="D293" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>unknown</v>
       </c>
       <c r="E293" t="str">
@@ -21444,11 +21444,11 @@
         <v/>
       </c>
       <c r="F293">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G293" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="L293" t="s">
@@ -21463,11 +21463,11 @@
     </row>
     <row r="294" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C294" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="D294" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>unknown</v>
       </c>
       <c r="E294" t="str">
@@ -21475,11 +21475,11 @@
         <v/>
       </c>
       <c r="F294">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G294" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="L294" t="s">
@@ -21494,11 +21494,11 @@
     </row>
     <row r="295" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C295" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="D295" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>unknown</v>
       </c>
       <c r="E295" t="str">
@@ -21506,11 +21506,11 @@
         <v/>
       </c>
       <c r="F295">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G295" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="L295" t="s">
@@ -21525,11 +21525,11 @@
     </row>
     <row r="296" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C296" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="D296" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>unknown</v>
       </c>
       <c r="E296" t="str">
@@ -21537,11 +21537,11 @@
         <v/>
       </c>
       <c r="F296">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G296" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="L296" t="s">
@@ -21556,11 +21556,11 @@
     </row>
     <row r="297" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C297" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="D297" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>unknown</v>
       </c>
       <c r="E297" t="str">
@@ -21568,11 +21568,11 @@
         <v/>
       </c>
       <c r="F297">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G297" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="L297" t="s">
@@ -21587,11 +21587,11 @@
     </row>
     <row r="298" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C298" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="D298" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>unknown</v>
       </c>
       <c r="E298" t="str">
@@ -21599,11 +21599,11 @@
         <v/>
       </c>
       <c r="F298">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G298" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="L298" t="s">
@@ -21618,11 +21618,11 @@
     </row>
     <row r="299" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C299" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="D299" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>unknown</v>
       </c>
       <c r="E299" t="str">
@@ -21630,21 +21630,21 @@
         <v/>
       </c>
       <c r="F299">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G299" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="300" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C300" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="D300" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>unknown</v>
       </c>
       <c r="E300" t="str">
@@ -21652,21 +21652,21 @@
         <v/>
       </c>
       <c r="F300">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G300" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="301" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C301" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="D301" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>unknown</v>
       </c>
       <c r="E301" t="str">
@@ -21674,21 +21674,21 @@
         <v/>
       </c>
       <c r="F301">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G301" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="302" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C302" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="D302" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>unknown</v>
       </c>
       <c r="E302" t="str">
@@ -21696,21 +21696,21 @@
         <v/>
       </c>
       <c r="F302">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G302" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="303" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C303" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="D303" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>unknown</v>
       </c>
       <c r="E303" t="str">
@@ -21718,21 +21718,21 @@
         <v/>
       </c>
       <c r="F303">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G303" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="304" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C304" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="D304" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>unknown</v>
       </c>
       <c r="E304" t="str">
@@ -21740,21 +21740,21 @@
         <v/>
       </c>
       <c r="F304">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G304" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="305" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C305" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="D305" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>unknown</v>
       </c>
       <c r="E305" t="str">
@@ -21762,21 +21762,21 @@
         <v/>
       </c>
       <c r="F305">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G305" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="306" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C306" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="D306" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>unknown</v>
       </c>
       <c r="E306" t="str">
@@ -21784,21 +21784,21 @@
         <v/>
       </c>
       <c r="F306">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G306" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="307" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C307" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="D307" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>unknown</v>
       </c>
       <c r="E307" t="str">
@@ -21806,21 +21806,21 @@
         <v/>
       </c>
       <c r="F307">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G307" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="308" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C308" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="D308" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>unknown</v>
       </c>
       <c r="E308" t="str">
@@ -21828,21 +21828,21 @@
         <v/>
       </c>
       <c r="F308">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G308" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="309" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C309" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="D309" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>unknown</v>
       </c>
       <c r="E309" t="str">
@@ -21850,21 +21850,21 @@
         <v/>
       </c>
       <c r="F309">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G309" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="310" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C310" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="D310" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>unknown</v>
       </c>
       <c r="E310" t="str">
@@ -21872,21 +21872,21 @@
         <v/>
       </c>
       <c r="F310">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G310" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="311" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C311" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="D311" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>unknown</v>
       </c>
       <c r="E311" t="str">
@@ -21894,21 +21894,21 @@
         <v/>
       </c>
       <c r="F311">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G311" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="312" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C312" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="D312" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>unknown</v>
       </c>
       <c r="E312" t="str">
@@ -21916,11 +21916,11 @@
         <v/>
       </c>
       <c r="F312">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G312" t="e">
-        <f t="shared" ref="G312" si="27">VLOOKUP(C312,col_match,3,FALSE)</f>
+        <f t="shared" ref="G312" si="26">VLOOKUP(C312,col_match,3,FALSE)</f>
         <v>#VALUE!</v>
       </c>
     </row>
